--- a/Doc/ExcelConfig/Datas/dota/BuildingLevelUpConfig.xlsx
+++ b/Doc/ExcelConfig/Datas/dota/BuildingLevelUpConfig.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1528" uniqueCount="1050">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1562" uniqueCount="1072">
   <si>
     <t>##</t>
   </si>
@@ -1038,159 +1038,180 @@
     <t>special_bonus_imba_antimage_8</t>
   </si>
   <si>
+    <t>special_bonus_imba_cooldown_reduction_8</t>
+  </si>
+  <si>
+    <t>special_bonus_imba_attack_speed_35</t>
+  </si>
+  <si>
+    <t>special_bonus_imba_arc_warden_flux_cast_range</t>
+  </si>
+  <si>
+    <t>special_bonus_imba_arc_warden_spark_wraith_cooldown</t>
+  </si>
+  <si>
+    <t>special_bonus_imba_attack_range_125</t>
+  </si>
+  <si>
+    <t>special_bonus_imba_lifesteal_30</t>
+  </si>
+  <si>
+    <t>special_bonus_imba_arc_warden_spark_wraith_damage</t>
+  </si>
+  <si>
+    <t>special_bonus_imba_axe_2</t>
+  </si>
+  <si>
+    <t>special_bonus_imba_attack_speed_40</t>
+  </si>
+  <si>
+    <t>special_bonus_imba_axe_3</t>
+  </si>
+  <si>
+    <t>special_bonus_imba_axe_8</t>
+  </si>
+  <si>
+    <t>special_bonus_imba_hp_regen_30</t>
+  </si>
+  <si>
+    <t>special_bonus_imba_axe_9</t>
+  </si>
+  <si>
+    <t>special_bonus_imba_axe_4</t>
+  </si>
+  <si>
+    <t>special_bonus_imba_axe_5</t>
+  </si>
+  <si>
+    <t>special_bonus_imba_armor_7</t>
+  </si>
+  <si>
+    <t>special_bonus_imba_cast_range_100</t>
+  </si>
+  <si>
+    <t>special_bonus_imba_spell_amplify_8</t>
+  </si>
+  <si>
+    <t>special_bonus_imba_bane_7</t>
+  </si>
+  <si>
+    <t>special_bonus_imba_spell_lifesteal_20</t>
+  </si>
+  <si>
+    <t>special_bonus_imba_bane_3</t>
+  </si>
+  <si>
+    <t>special_bonus_imba_bane_brain_sap_damage</t>
+  </si>
+  <si>
+    <t>special_bonus_imba_bane_fiends_grip_duration</t>
+  </si>
+  <si>
+    <t>special_bonus_imba_spell_amplify_6</t>
+  </si>
+  <si>
+    <t>special_bonus_imba_armor_5</t>
+  </si>
+  <si>
+    <t>special_bonus_imba_unique_imba_batrider_methane_boost_distance</t>
+  </si>
+  <si>
+    <t>special_bonus_imba_hp_400</t>
+  </si>
+  <si>
+    <t>special_bonus_imba_cooldown_reduction_15</t>
+  </si>
+  <si>
+    <t>special_bonus_imba_movement_speed_50</t>
+  </si>
+  <si>
+    <t>special_bonus_imba_unique_imba_batrider_firefly_truesight</t>
+  </si>
+  <si>
+    <t>special_bonus_imba_unique_imba_batrider_flamebreak_cooldown</t>
+  </si>
+  <si>
+    <t>special_bonus_imba_attack_damage_40</t>
+  </si>
+  <si>
+    <t>special_bonus_imba_cooldown_reduction_10</t>
+  </si>
+  <si>
+    <t>special_bonus_imba_unique_beastmaster_2</t>
+  </si>
+  <si>
+    <t>special_bonus_imba_armor_10</t>
+  </si>
+  <si>
+    <t>special_bonus_imba_unique_beastmaster_4</t>
+  </si>
+  <si>
+    <t>special_bonus_imba_unique_beastmaster</t>
+  </si>
+  <si>
+    <t>special_bonus_imba_20_bash_2</t>
+  </si>
+  <si>
+    <t>special_bonus_imba_unique_beastmaster_6</t>
+  </si>
+  <si>
+    <t>special_bonus_imba_bloodseeker_1</t>
+  </si>
+  <si>
+    <t>special_bonus_imba_armor_6</t>
+  </si>
+  <si>
+    <t>special_bonus_imba_bloodseeker_7</t>
+  </si>
+  <si>
+    <t>special_bonus_imba_bloodseeker_rupture_cast_range</t>
+  </si>
+  <si>
+    <t>special_bonus_imba_lifesteal_25</t>
+  </si>
+  <si>
+    <t>special_bonus_imba_bloodseeker_9</t>
+  </si>
+  <si>
+    <t>special_bonus_imba_bloodseeker_5</t>
+  </si>
+  <si>
+    <t>special_bonus_imba_bounty_hunter_6</t>
+  </si>
+  <si>
+    <t>special_bonus_imba_bounty_hunter_3</t>
+  </si>
+  <si>
+    <t>special_bonus_imba_bounty_hunter_2</t>
+  </si>
+  <si>
+    <t>special_bonus_imba_bounty_hunter_7</t>
+  </si>
+  <si>
+    <t>special_bonus_imba_attack_speed_60</t>
+  </si>
+  <si>
+    <t>special_bonus_imba_bounty_hunter_9</t>
+  </si>
+  <si>
+    <t>special_bonus_imba_bounty_hunter_1</t>
+  </si>
+  <si>
+    <t>special_bonus_imba_bounty_hunter_8</t>
+  </si>
+  <si>
+    <t>special_bonus_imba_attack_damage_30</t>
+  </si>
+  <si>
+    <t>special_bonus_imba_hp_200</t>
+  </si>
+  <si>
+    <t>special_bonus_imba_brewmaster_thunder_clap_slow_duration</t>
+  </si>
+  <si>
     <t>special_bonus_imba_magic_resistance_20</t>
   </si>
   <si>
-    <t>special_bonus_imba_axe_2</t>
-  </si>
-  <si>
-    <t>special_bonus_imba_attack_speed_40</t>
-  </si>
-  <si>
-    <t>special_bonus_imba_axe_3</t>
-  </si>
-  <si>
-    <t>special_bonus_imba_axe_8</t>
-  </si>
-  <si>
-    <t>special_bonus_imba_hp_regen_30</t>
-  </si>
-  <si>
-    <t>special_bonus_imba_axe_9</t>
-  </si>
-  <si>
-    <t>special_bonus_imba_axe_4</t>
-  </si>
-  <si>
-    <t>special_bonus_imba_axe_5</t>
-  </si>
-  <si>
-    <t>special_bonus_imba_armor_7</t>
-  </si>
-  <si>
-    <t>special_bonus_imba_cast_range_100</t>
-  </si>
-  <si>
-    <t>special_bonus_imba_spell_amplify_8</t>
-  </si>
-  <si>
-    <t>special_bonus_imba_bane_7</t>
-  </si>
-  <si>
-    <t>special_bonus_imba_spell_lifesteal_20</t>
-  </si>
-  <si>
-    <t>special_bonus_imba_bane_3</t>
-  </si>
-  <si>
-    <t>special_bonus_imba_bane_brain_sap_damage</t>
-  </si>
-  <si>
-    <t>special_bonus_imba_bane_fiends_grip_duration</t>
-  </si>
-  <si>
-    <t>special_bonus_imba_spell_amplify_6</t>
-  </si>
-  <si>
-    <t>special_bonus_imba_armor_5</t>
-  </si>
-  <si>
-    <t>special_bonus_imba_unique_imba_batrider_methane_boost_distance</t>
-  </si>
-  <si>
-    <t>special_bonus_imba_hp_400</t>
-  </si>
-  <si>
-    <t>special_bonus_imba_cooldown_reduction_15</t>
-  </si>
-  <si>
-    <t>special_bonus_imba_movement_speed_50</t>
-  </si>
-  <si>
-    <t>special_bonus_imba_unique_imba_batrider_firefly_truesight</t>
-  </si>
-  <si>
-    <t>special_bonus_imba_unique_imba_batrider_flamebreak_cooldown</t>
-  </si>
-  <si>
-    <t>special_bonus_imba_attack_damage_40</t>
-  </si>
-  <si>
-    <t>special_bonus_imba_cooldown_reduction_10</t>
-  </si>
-  <si>
-    <t>special_bonus_imba_unique_beastmaster_2</t>
-  </si>
-  <si>
-    <t>special_bonus_imba_armor_10</t>
-  </si>
-  <si>
-    <t>special_bonus_imba_unique_beastmaster_4</t>
-  </si>
-  <si>
-    <t>special_bonus_imba_unique_beastmaster</t>
-  </si>
-  <si>
-    <t>special_bonus_imba_20_bash_2</t>
-  </si>
-  <si>
-    <t>special_bonus_imba_unique_beastmaster_6</t>
-  </si>
-  <si>
-    <t>special_bonus_imba_bloodseeker_1</t>
-  </si>
-  <si>
-    <t>special_bonus_imba_armor_6</t>
-  </si>
-  <si>
-    <t>special_bonus_imba_bloodseeker_7</t>
-  </si>
-  <si>
-    <t>special_bonus_imba_bloodseeker_rupture_cast_range</t>
-  </si>
-  <si>
-    <t>special_bonus_imba_lifesteal_25</t>
-  </si>
-  <si>
-    <t>special_bonus_imba_bloodseeker_9</t>
-  </si>
-  <si>
-    <t>special_bonus_imba_bloodseeker_5</t>
-  </si>
-  <si>
-    <t>special_bonus_imba_bounty_hunter_6</t>
-  </si>
-  <si>
-    <t>special_bonus_imba_bounty_hunter_3</t>
-  </si>
-  <si>
-    <t>special_bonus_imba_bounty_hunter_2</t>
-  </si>
-  <si>
-    <t>special_bonus_imba_bounty_hunter_7</t>
-  </si>
-  <si>
-    <t>special_bonus_imba_attack_speed_60</t>
-  </si>
-  <si>
-    <t>special_bonus_imba_bounty_hunter_9</t>
-  </si>
-  <si>
-    <t>special_bonus_imba_bounty_hunter_1</t>
-  </si>
-  <si>
-    <t>special_bonus_imba_bounty_hunter_8</t>
-  </si>
-  <si>
-    <t>special_bonus_imba_attack_damage_30</t>
-  </si>
-  <si>
-    <t>special_bonus_imba_hp_200</t>
-  </si>
-  <si>
-    <t>special_bonus_imba_brewmaster_thunder_clap_slow_duration</t>
-  </si>
-  <si>
     <t>special_bonus_imba_brewmaster_primal_split_health</t>
   </si>
   <si>
@@ -1203,6 +1224,24 @@
     <t>special_bonus_imba_brewmaster_primal_split_cooldown</t>
   </si>
   <si>
+    <t>special_bonus_imba_movement_speed_20</t>
+  </si>
+  <si>
+    <t>special_bonus_imba_mp_regen_2</t>
+  </si>
+  <si>
+    <t>special_bonus_imba_attack_speed_20</t>
+  </si>
+  <si>
+    <t>special_bonus_imba_hp_regen_20</t>
+  </si>
+  <si>
+    <t>special_bonus_imba_unique_bristleback_2</t>
+  </si>
+  <si>
+    <t>special_bonus_imba_spell_lifesteal_13</t>
+  </si>
+  <si>
     <t>special_bonus_imba_bristleback_3</t>
   </si>
   <si>
@@ -1308,9 +1347,6 @@
     <t>special_bonus_imba_strength_15</t>
   </si>
   <si>
-    <t>special_bonus_imba_attack_range_125</t>
-  </si>
-  <si>
     <t>special_bonus_imba_clinkz_death_pact_723_health</t>
   </si>
   <si>
@@ -1380,6 +1416,27 @@
     <t>special_bonus_imba_unique_dark_willow_4</t>
   </si>
   <si>
+    <t>special_bonus_imba_strength_7</t>
+  </si>
+  <si>
+    <t>special_bonus_imba_attack_damage_20</t>
+  </si>
+  <si>
+    <t>special_bonus_imba_unique_dawnbreaker_solar_guardian_cooldown</t>
+  </si>
+  <si>
+    <t>special_bonus_imba_unique_dawnbreaker_fire_wreath_charges</t>
+  </si>
+  <si>
+    <t>special_bonus_imba_unique_dawnbreaker_luminosity_crit</t>
+  </si>
+  <si>
+    <t>special_bonus_imba_unique_dawnbreaker_solar_guardian_radius</t>
+  </si>
+  <si>
+    <t>special_bonus_imba_unique_dawnbreaker_celestial_hammer_cast_range</t>
+  </si>
+  <si>
     <t>special_bonus_imba_attack_damage_75</t>
   </si>
   <si>
@@ -1725,9 +1782,6 @@
     <t>special_bonus_imba_unique_hoodwink_sharpshooter_speed</t>
   </si>
   <si>
-    <t>special_bonus_imba_attack_damage_20</t>
-  </si>
-  <si>
     <t>special_bonus_imba_unique_huskar_2</t>
   </si>
   <si>
@@ -2145,12 +2199,18 @@
     <t>special_bonus_imba_unique_morphling_8</t>
   </si>
   <si>
+    <t>special_bonus_imba_spell_amplify_25</t>
+  </si>
+  <si>
+    <t>special_bonus_imba_unique_morphling_4</t>
+  </si>
+  <si>
+    <t>special_bonus_imba_unique_morphling_6</t>
+  </si>
+  <si>
     <t>special_bonus_imba_naga_siren_mirror_image_perfect_image</t>
   </si>
   <si>
-    <t>special_bonus_imba_movement_speed_20</t>
-  </si>
-  <si>
     <t>special_bonus_imba_unique_naga_siren_2</t>
   </si>
   <si>
@@ -2247,9 +2307,6 @@
     <t>special_bonus_imba_nyx_assassin_11</t>
   </si>
   <si>
-    <t>special_bonus_imba_attack_speed_20</t>
-  </si>
-  <si>
     <t>special_bonus_imba_mp_350</t>
   </si>
   <si>
@@ -2388,9 +2445,6 @@
     <t>special_bonus_imba_pudge_4</t>
   </si>
   <si>
-    <t>special_bonus_imba_spell_lifesteal_13</t>
-  </si>
-  <si>
     <t>special_bonus_imba_pudge_9</t>
   </si>
   <si>
@@ -2487,9 +2541,6 @@
     <t>special_bonus_imba_riki_cloak_and_dagger_invis</t>
   </si>
   <si>
-    <t>rubick_hidden3</t>
-  </si>
-  <si>
     <t>special_bonus_imba_attack_damage_60</t>
   </si>
   <si>
@@ -2505,6 +2556,9 @@
     <t>special_bonus_imba_rubick_3</t>
   </si>
   <si>
+    <t>special_bonus_imba_rubick_spell_steal_spell_amp</t>
+  </si>
+  <si>
     <t>special_bonus_imba_sand_king_1</t>
   </si>
   <si>
@@ -2646,9 +2700,6 @@
     <t>special_bonus_imba_slardar_13</t>
   </si>
   <si>
-    <t>special_bonus_imba_lifesteal_30</t>
-  </si>
-  <si>
     <t>special_bonus_imba_slardar_11</t>
   </si>
   <si>
@@ -2679,7 +2730,22 @@
     <t>special_bonus_imba_unique_slark_4</t>
   </si>
   <si>
+    <t>special_bonus_imba_unique_snapfire_5</t>
+  </si>
+  <si>
+    <t>special_bonus_imba_unique_snapfire_7</t>
+  </si>
+  <si>
+    <t>special_bonus_imba_unique_snapfire_6</t>
+  </si>
+  <si>
+    <t>special_bonus_imba_unique_snapfire_4</t>
+  </si>
+  <si>
     <t>special_bonus_imba_snapfire_1</t>
+  </si>
+  <si>
+    <t>special_bonus_imba_unique_snapfire_8</t>
   </si>
   <si>
     <t>special_bonus_imba_sniper_4</t>
@@ -3802,7 +3868,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3812,7 +3878,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -4203,8 +4268,8 @@
   <sheetPr/>
   <dimension ref="A1:L496"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I124" workbookViewId="0">
-      <selection activeCell="N180" sqref="N180"/>
+    <sheetView tabSelected="1" topLeftCell="E459" workbookViewId="0">
+      <selection activeCell="K93" sqref="K93:L96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -4232,47 +4297,47 @@
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="13" t="s">
+      <c r="D1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="13" t="s">
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
     </row>
     <row r="3" ht="15" spans="1:12">
       <c r="A3" t="s">
@@ -4290,16 +4355,16 @@
       <c r="H3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="14" t="s">
+      <c r="I3" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="J3" s="15" t="s">
+      <c r="J3" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="K3" s="16" t="s">
+      <c r="K3" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="L3" s="16" t="s">
+      <c r="L3" s="15" t="s">
         <v>20</v>
       </c>
     </row>
@@ -4313,10 +4378,10 @@
       <c r="C4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="7" t="s">
         <v>24</v>
       </c>
       <c r="F4" t="s">
@@ -4328,16 +4393,16 @@
       <c r="H4" t="s">
         <v>27</v>
       </c>
-      <c r="I4" s="14" t="s">
+      <c r="I4" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="J4" s="17" t="s">
+      <c r="J4" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="K4" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="L4" s="19" t="s">
+      <c r="K4" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="L4" s="18" t="s">
         <v>31</v>
       </c>
     </row>
@@ -4958,7 +5023,7 @@
         <v>special_bonus_imba_antimage_8</v>
       </c>
     </row>
-    <row r="25" ht="15" spans="2:10">
+    <row r="25" ht="15" spans="2:12">
       <c r="B25" s="2" t="s">
         <v>46</v>
       </c>
@@ -4986,8 +5051,16 @@
       <c r="J25">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" ht="15" spans="2:11">
+      <c r="K25" t="str">
+        <f>VLOOKUP(B25,Sheet3!$B:$M,5,0)</f>
+        <v>special_bonus_imba_cooldown_reduction_8</v>
+      </c>
+      <c r="L25" t="str">
+        <f>VLOOKUP(B25,Sheet3!$B:$M,6,0)</f>
+        <v>special_bonus_imba_attack_speed_35</v>
+      </c>
+    </row>
+    <row r="26" ht="15" spans="2:12">
       <c r="B26" s="2"/>
       <c r="E26">
         <v>3</v>
@@ -5009,10 +5082,14 @@
       </c>
       <c r="K26" t="str">
         <f>VLOOKUP(B25,Sheet3!$B:$M,7,0)</f>
-        <v>special_bonus_imba_magic_resistance_20</v>
-      </c>
-    </row>
-    <row r="27" ht="15" spans="2:10">
+        <v>special_bonus_imba_hp_300</v>
+      </c>
+      <c r="L26" t="str">
+        <f>VLOOKUP(B25,Sheet3!$B:$M,8,0)</f>
+        <v>special_bonus_imba_arc_warden_flux_cast_range</v>
+      </c>
+    </row>
+    <row r="27" ht="15" spans="2:12">
       <c r="B27" s="2"/>
       <c r="E27">
         <v>4</v>
@@ -5032,8 +5109,16 @@
       <c r="J27">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" ht="15" spans="2:10">
+      <c r="K27" t="str">
+        <f>VLOOKUP(B25,Sheet3!$B:$M,9,0)</f>
+        <v>special_bonus_imba_arc_warden_spark_wraith_cooldown</v>
+      </c>
+      <c r="L27" t="str">
+        <f>VLOOKUP(B25,Sheet3!$B:$M,10,0)</f>
+        <v>special_bonus_imba_attack_range_125</v>
+      </c>
+    </row>
+    <row r="28" ht="15" spans="2:12">
       <c r="B28" s="2"/>
       <c r="E28">
         <v>5</v>
@@ -5052,6 +5137,14 @@
       </c>
       <c r="J28">
         <v>4</v>
+      </c>
+      <c r="K28" t="str">
+        <f>VLOOKUP(B25,Sheet3!$B:$M,11,0)</f>
+        <v>special_bonus_imba_lifesteal_30</v>
+      </c>
+      <c r="L28" t="str">
+        <f>VLOOKUP(B25,Sheet3!$B:$M,12,0)</f>
+        <v>special_bonus_imba_arc_warden_spark_wraith_damage</v>
       </c>
     </row>
     <row r="29" ht="15" spans="2:12">
@@ -5913,7 +6006,7 @@
         <v>special_bonus_imba_brewmaster_primal_split_cooldown</v>
       </c>
     </row>
-    <row r="57" ht="15" spans="2:10">
+    <row r="57" ht="15" spans="2:12">
       <c r="B57" s="2" t="s">
         <v>68</v>
       </c>
@@ -5941,8 +6034,16 @@
       <c r="J57">
         <v>1</v>
       </c>
-    </row>
-    <row r="58" ht="15" spans="2:10">
+      <c r="K57" t="str">
+        <f>VLOOKUP(B57,Sheet3!$B:$M,5,0)</f>
+        <v>special_bonus_imba_movement_speed_20</v>
+      </c>
+      <c r="L57" t="str">
+        <f>VLOOKUP(B57,Sheet3!$B:$M,6,0)</f>
+        <v>special_bonus_imba_mp_regen_2</v>
+      </c>
+    </row>
+    <row r="58" ht="15" spans="2:12">
       <c r="B58" s="2"/>
       <c r="E58">
         <v>3</v>
@@ -5959,8 +6060,16 @@
       <c r="J58">
         <v>2</v>
       </c>
-    </row>
-    <row r="59" ht="15" spans="2:10">
+      <c r="K58" t="str">
+        <f>VLOOKUP(B57,Sheet3!$B:$M,7,0)</f>
+        <v>special_bonus_imba_hp_200</v>
+      </c>
+      <c r="L58" t="str">
+        <f>VLOOKUP(B57,Sheet3!$B:$M,8,0)</f>
+        <v>special_bonus_imba_attack_speed_20</v>
+      </c>
+    </row>
+    <row r="59" ht="15" spans="2:12">
       <c r="B59" s="2"/>
       <c r="E59">
         <v>4</v>
@@ -5976,6 +6085,14 @@
       </c>
       <c r="J59">
         <v>3</v>
+      </c>
+      <c r="K59" t="str">
+        <f>VLOOKUP(B57,Sheet3!$B:$M,9,0)</f>
+        <v>special_bonus_imba_hp_regen_20</v>
+      </c>
+      <c r="L59" t="str">
+        <f>VLOOKUP(B57,Sheet3!$B:$M,10,0)</f>
+        <v>special_bonus_imba_unique_bristleback_2</v>
       </c>
     </row>
     <row r="60" ht="15" spans="2:12">
@@ -5995,6 +6112,10 @@
       <c r="J60">
         <v>4</v>
       </c>
+      <c r="K60" t="str">
+        <f>VLOOKUP(B57,Sheet3!$B:$M,11,0)</f>
+        <v>special_bonus_imba_spell_lifesteal_13</v>
+      </c>
       <c r="L60" t="str">
         <f>VLOOKUP(B57,Sheet3!$B:$M,12,0)</f>
         <v>special_bonus_imba_bristleback_3</v>
@@ -6920,7 +7041,7 @@
         <v>special_bonus_imba_unique_dark_willow_4</v>
       </c>
     </row>
-    <row r="93" ht="15" spans="2:10">
+    <row r="93" ht="15" spans="2:12">
       <c r="B93" s="2" t="s">
         <v>86</v>
       </c>
@@ -6948,8 +7069,16 @@
       <c r="J93">
         <v>1</v>
       </c>
-    </row>
-    <row r="94" ht="15" spans="2:10">
+      <c r="K93" t="str">
+        <f>VLOOKUP(B93,Sheet3!$B:$M,5,0)</f>
+        <v>special_bonus_imba_strength_7</v>
+      </c>
+      <c r="L93" t="str">
+        <f>VLOOKUP(B93,Sheet3!$B:$M,6,0)</f>
+        <v>special_bonus_imba_movement_speed_20</v>
+      </c>
+    </row>
+    <row r="94" ht="15" spans="2:12">
       <c r="B94" s="2"/>
       <c r="E94">
         <v>3</v>
@@ -6966,8 +7095,16 @@
       <c r="J94">
         <v>2</v>
       </c>
-    </row>
-    <row r="95" ht="15" spans="2:10">
+      <c r="K94" t="str">
+        <f>VLOOKUP(B93,Sheet3!$B:$M,7,0)</f>
+        <v>special_bonus_imba_attack_damage_20</v>
+      </c>
+      <c r="L94" t="str">
+        <f>VLOOKUP(B93,Sheet3!$B:$M,8,0)</f>
+        <v>special_bonus_imba_unique_dawnbreaker_solar_guardian_cooldown</v>
+      </c>
+    </row>
+    <row r="95" ht="15" spans="2:12">
       <c r="B95" s="2"/>
       <c r="E95">
         <v>4</v>
@@ -6984,8 +7121,16 @@
       <c r="J95">
         <v>3</v>
       </c>
-    </row>
-    <row r="96" ht="15" spans="2:10">
+      <c r="K95" t="str">
+        <f>VLOOKUP(B93,Sheet3!$B:$M,9,0)</f>
+        <v>special_bonus_imba_unique_dawnbreaker_fire_wreath_charges</v>
+      </c>
+      <c r="L95" t="str">
+        <f>VLOOKUP(B93,Sheet3!$B:$M,10,0)</f>
+        <v>special_bonus_imba_unique_dawnbreaker_luminosity_crit</v>
+      </c>
+    </row>
+    <row r="96" ht="15" spans="2:12">
       <c r="B96" s="2"/>
       <c r="E96">
         <v>5</v>
@@ -7001,6 +7146,14 @@
       </c>
       <c r="J96">
         <v>4</v>
+      </c>
+      <c r="K96" t="str">
+        <f>VLOOKUP(B93,Sheet3!$B:$M,11,0)</f>
+        <v>special_bonus_imba_unique_dawnbreaker_solar_guardian_radius</v>
+      </c>
+      <c r="L96" t="str">
+        <f>VLOOKUP(B93,Sheet3!$B:$M,12,0)</f>
+        <v>special_bonus_imba_unique_dawnbreaker_celestial_hammer_cast_range</v>
       </c>
     </row>
     <row r="97" ht="15" spans="2:12">
@@ -11453,7 +11606,7 @@
         <v>special_bonus_imba_unique_monkey_king_6</v>
       </c>
     </row>
-    <row r="253" ht="15" spans="2:10">
+    <row r="253" ht="15" spans="2:12">
       <c r="B253" s="2" t="s">
         <v>165</v>
       </c>
@@ -11481,8 +11634,16 @@
       <c r="J253">
         <v>1</v>
       </c>
-    </row>
-    <row r="254" ht="15" spans="2:10">
+      <c r="K253" t="str">
+        <f>VLOOKUP(B253,Sheet3!$B:$M,5,0)</f>
+        <v>special_bonus_imba_agility_16</v>
+      </c>
+      <c r="L253" t="str">
+        <f>VLOOKUP(B253,Sheet3!$B:$M,6,0)</f>
+        <v>special_bonus_imba_unique_morphling_1</v>
+      </c>
+    </row>
+    <row r="254" ht="15" spans="2:12">
       <c r="B254" s="2"/>
       <c r="E254">
         <v>3</v>
@@ -11498,6 +11659,14 @@
       </c>
       <c r="J254">
         <v>2</v>
+      </c>
+      <c r="K254" t="str">
+        <f>VLOOKUP(B253,Sheet3!$B:$M,7,0)</f>
+        <v>special_bonus_imba_unique_morphling_8</v>
+      </c>
+      <c r="L254" t="str">
+        <f>VLOOKUP(B253,Sheet3!$B:$M,8,0)</f>
+        <v>special_bonus_imba_magic_resistance_20</v>
       </c>
     </row>
     <row r="255" ht="15" spans="2:12">
@@ -11517,9 +11686,13 @@
       <c r="J255">
         <v>3</v>
       </c>
+      <c r="K255" t="str">
+        <f>VLOOKUP(B253,Sheet3!$B:$M,9,0)</f>
+        <v>special_bonus_imba_spell_amplify_25</v>
+      </c>
       <c r="L255" t="str">
         <f>VLOOKUP(B253,Sheet3!$B:$M,10,0)</f>
-        <v>special_bonus_imba_agility_16</v>
+        <v>special_bonus_imba_unique_morphling_4</v>
       </c>
     </row>
     <row r="256" ht="15" spans="2:12">
@@ -11541,11 +11714,11 @@
       </c>
       <c r="K256" t="str">
         <f>VLOOKUP(B253,Sheet3!$B:$M,11,0)</f>
-        <v>special_bonus_imba_unique_morphling_1</v>
+        <v>special_bonus_imba_unique_morphling_6</v>
       </c>
       <c r="L256" t="str">
         <f>VLOOKUP(B253,Sheet3!$B:$M,12,0)</f>
-        <v>special_bonus_imba_unique_morphling_8</v>
+        <v>special_bonus_imba_attack_range_200</v>
       </c>
     </row>
     <row r="257" ht="15" spans="2:12">
@@ -13926,11 +14099,11 @@
       </c>
       <c r="K341" t="str">
         <f>VLOOKUP(B341,Sheet3!$B:$M,5,0)</f>
-        <v>rubick_hidden3</v>
+        <v>special_bonus_imba_hp_300</v>
       </c>
       <c r="L341" t="str">
         <f>VLOOKUP(B341,Sheet3!$B:$M,6,0)</f>
-        <v>special_bonus_imba_hp_300</v>
+        <v>special_bonus_imba_attack_damage_60</v>
       </c>
     </row>
     <row r="342" ht="15" spans="2:12">
@@ -13952,11 +14125,11 @@
       </c>
       <c r="K342" t="str">
         <f>VLOOKUP(B341,Sheet3!$B:$M,7,0)</f>
-        <v>special_bonus_imba_attack_damage_60</v>
+        <v>special_bonus_imba_cast_range_150</v>
       </c>
       <c r="L342" t="str">
         <f>VLOOKUP(B341,Sheet3!$B:$M,8,0)</f>
-        <v>special_bonus_imba_cast_range_150</v>
+        <v>special_bonus_imba_rubick_2</v>
       </c>
     </row>
     <row r="343" ht="15" spans="2:12">
@@ -13978,11 +14151,11 @@
       </c>
       <c r="K343" t="str">
         <f>VLOOKUP(B341,Sheet3!$B:$M,9,0)</f>
-        <v>special_bonus_imba_rubick_2</v>
+        <v>special_bonus_imba_rubick_remnants_of_null_field</v>
       </c>
       <c r="L343" t="str">
         <f>VLOOKUP(B341,Sheet3!$B:$M,10,0)</f>
-        <v>special_bonus_imba_rubick_remnants_of_null_field</v>
+        <v>special_bonus_imba_rubick_fade_bolt_cooldown</v>
       </c>
     </row>
     <row r="344" ht="15" spans="2:12">
@@ -14004,11 +14177,11 @@
       </c>
       <c r="K344" t="str">
         <f>VLOOKUP(B341,Sheet3!$B:$M,11,0)</f>
-        <v>special_bonus_imba_rubick_fade_bolt_cooldown</v>
+        <v>special_bonus_imba_rubick_3</v>
       </c>
       <c r="L344" t="str">
         <f>VLOOKUP(B341,Sheet3!$B:$M,12,0)</f>
-        <v>special_bonus_imba_rubick_3</v>
+        <v>special_bonus_imba_rubick_spell_steal_spell_amp</v>
       </c>
     </row>
     <row r="345" ht="15" spans="2:12">
@@ -15046,7 +15219,7 @@
         <v>special_bonus_imba_unique_slark_4</v>
       </c>
     </row>
-    <row r="381" ht="15" spans="2:10">
+    <row r="381" ht="15" spans="2:12">
       <c r="B381" s="2" t="s">
         <v>228</v>
       </c>
@@ -15071,8 +15244,16 @@
       <c r="J381">
         <v>1</v>
       </c>
-    </row>
-    <row r="382" ht="15" spans="2:10">
+      <c r="K381" t="str">
+        <f>VLOOKUP(B381,Sheet3!$B:$M,5,0)</f>
+        <v>special_bonus_imba_hp_200</v>
+      </c>
+      <c r="L381" t="str">
+        <f>VLOOKUP(B381,Sheet3!$B:$M,6,0)</f>
+        <v>special_bonus_imba_movement_speed_20</v>
+      </c>
+    </row>
+    <row r="382" ht="15" spans="2:12">
       <c r="B382" s="2"/>
       <c r="E382">
         <v>3</v>
@@ -15089,8 +15270,16 @@
       <c r="J382">
         <v>2</v>
       </c>
-    </row>
-    <row r="383" ht="15" spans="2:10">
+      <c r="K382" t="str">
+        <f>VLOOKUP(B381,Sheet3!$B:$M,7,0)</f>
+        <v>special_bonus_imba_unique_snapfire_5</v>
+      </c>
+      <c r="L382" t="str">
+        <f>VLOOKUP(B381,Sheet3!$B:$M,8,0)</f>
+        <v>special_bonus_imba_unique_snapfire_7</v>
+      </c>
+    </row>
+    <row r="383" ht="15" spans="2:12">
       <c r="B383" s="2"/>
       <c r="E383">
         <v>4</v>
@@ -15107,8 +15296,16 @@
       <c r="J383">
         <v>3</v>
       </c>
-    </row>
-    <row r="384" ht="15" spans="2:11">
+      <c r="K383" t="str">
+        <f>VLOOKUP(B381,Sheet3!$B:$M,9,0)</f>
+        <v>special_bonus_imba_unique_snapfire_6</v>
+      </c>
+      <c r="L383" t="str">
+        <f>VLOOKUP(B381,Sheet3!$B:$M,10,0)</f>
+        <v>special_bonus_imba_unique_snapfire_4</v>
+      </c>
+    </row>
+    <row r="384" ht="15" spans="2:12">
       <c r="B384" s="2"/>
       <c r="E384">
         <v>5</v>
@@ -15128,6 +15325,10 @@
       <c r="K384" t="str">
         <f>VLOOKUP(B381,Sheet3!$B:$M,11,0)</f>
         <v>special_bonus_imba_snapfire_1</v>
+      </c>
+      <c r="L384" t="str">
+        <f>VLOOKUP(B381,Sheet3!$B:$M,12,0)</f>
+        <v>special_bonus_imba_unique_snapfire_8</v>
       </c>
     </row>
     <row r="385" ht="15" spans="2:12">
@@ -19089,15 +19290,18 @@
   <sheetPr/>
   <dimension ref="B1:M152"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E45" sqref="E45:E51"/>
+    <sheetView topLeftCell="G52" workbookViewId="0">
+      <selection activeCell="M65" sqref="M65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="6" max="6" width="48.4545454545455" style="1" customWidth="1"/>
     <col min="7" max="7" width="31.0909090909091" style="1" customWidth="1"/>
-    <col min="8" max="11" width="9.72727272727273" style="1" customWidth="1"/>
+    <col min="8" max="8" width="20.9090909090909" style="1" customWidth="1"/>
+    <col min="9" max="9" width="18.5454545454545" style="1" customWidth="1"/>
+    <col min="10" max="10" width="17.9090909090909" style="1" customWidth="1"/>
+    <col min="11" max="11" width="17.4545454545455" style="1" customWidth="1"/>
     <col min="12" max="12" width="53.2727272727273" style="1" customWidth="1"/>
     <col min="13" max="13" width="21.3636363636364" style="1" customWidth="1"/>
   </cols>
@@ -19309,44 +19513,58 @@
       <c r="B8" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
+      <c r="F8" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>341</v>
+      </c>
       <c r="H8" s="3" t="s">
-        <v>340</v>
-      </c>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
+        <v>300</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>346</v>
+      </c>
     </row>
     <row r="9" spans="2:13">
       <c r="B9" s="2" t="s">
         <v>48</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
     </row>
     <row r="10" spans="2:13">
@@ -19354,28 +19572,28 @@
         <v>51</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
     </row>
     <row r="11" spans="2:13">
@@ -19383,28 +19601,28 @@
         <v>53</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
     </row>
     <row r="12" spans="2:13">
@@ -19412,28 +19630,28 @@
         <v>55</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
     </row>
     <row r="13" spans="2:13">
@@ -19441,28 +19659,28 @@
         <v>59</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="H13" s="3" t="s">
         <v>300</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
     </row>
     <row r="14" spans="2:13">
@@ -19470,28 +19688,28 @@
         <v>63</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
     </row>
     <row r="15" spans="2:13">
@@ -19499,43 +19717,57 @@
         <v>66</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>340</v>
+        <v>397</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>392</v>
+        <v>399</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>393</v>
+        <v>400</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>394</v>
+        <v>401</v>
       </c>
     </row>
     <row r="16" spans="2:13">
       <c r="B16" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
+      <c r="F16" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>407</v>
+      </c>
       <c r="M16" s="3" t="s">
-        <v>395</v>
+        <v>408</v>
       </c>
     </row>
     <row r="17" spans="2:13">
@@ -19543,28 +19775,28 @@
         <v>70</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>396</v>
+        <v>409</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>398</v>
+        <v>411</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>399</v>
+        <v>412</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>400</v>
+        <v>413</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>401</v>
+        <v>414</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>402</v>
+        <v>415</v>
       </c>
     </row>
     <row r="18" spans="2:13">
@@ -19572,28 +19804,28 @@
         <v>72</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>403</v>
+        <v>416</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>404</v>
+        <v>417</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>405</v>
+        <v>418</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>406</v>
+        <v>419</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>407</v>
+        <v>420</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>408</v>
+        <v>421</v>
       </c>
       <c r="L18" s="3" t="s">
-        <v>409</v>
+        <v>422</v>
       </c>
       <c r="M18" s="3" t="s">
-        <v>410</v>
+        <v>423</v>
       </c>
     </row>
     <row r="19" spans="2:13">
@@ -19601,28 +19833,28 @@
         <v>74</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>411</v>
+        <v>424</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>412</v>
+        <v>425</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>413</v>
+        <v>426</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>414</v>
+        <v>427</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>415</v>
+        <v>428</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>416</v>
+        <v>429</v>
       </c>
       <c r="L19" s="3" t="s">
-        <v>417</v>
+        <v>430</v>
       </c>
       <c r="M19" s="3" t="s">
-        <v>418</v>
+        <v>431</v>
       </c>
     </row>
     <row r="20" spans="2:13">
@@ -19630,28 +19862,28 @@
         <v>76</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>419</v>
+        <v>432</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>420</v>
+        <v>433</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>421</v>
+        <v>434</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>422</v>
+        <v>435</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>423</v>
+        <v>436</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>424</v>
+        <v>437</v>
       </c>
       <c r="L20" s="3" t="s">
-        <v>425</v>
+        <v>438</v>
       </c>
       <c r="M20" s="3" t="s">
-        <v>426</v>
+        <v>439</v>
       </c>
     </row>
     <row r="21" spans="2:13">
@@ -19659,28 +19891,28 @@
         <v>78</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>427</v>
+        <v>440</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>428</v>
+        <v>441</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>429</v>
+        <v>442</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>430</v>
+        <v>344</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>431</v>
+        <v>443</v>
       </c>
       <c r="L21" s="3" t="s">
-        <v>432</v>
+        <v>444</v>
       </c>
       <c r="M21" s="3" t="s">
-        <v>433</v>
+        <v>445</v>
       </c>
     </row>
     <row r="22" spans="2:13">
@@ -19691,25 +19923,25 @@
         <v>300</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>434</v>
+        <v>446</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>435</v>
+        <v>447</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>436</v>
+        <v>448</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>437</v>
+        <v>449</v>
       </c>
       <c r="L22" s="3" t="s">
-        <v>438</v>
+        <v>450</v>
       </c>
       <c r="M22" s="3" t="s">
-        <v>439</v>
+        <v>451</v>
       </c>
     </row>
     <row r="23" spans="2:13">
@@ -19717,28 +19949,28 @@
         <v>82</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>440</v>
+        <v>452</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>441</v>
+        <v>453</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>327</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>442</v>
+        <v>454</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>443</v>
+        <v>455</v>
       </c>
       <c r="L23" s="3" t="s">
-        <v>444</v>
+        <v>456</v>
       </c>
       <c r="M23" s="3" t="s">
-        <v>445</v>
+        <v>457</v>
       </c>
     </row>
     <row r="24" spans="2:13">
@@ -19746,70 +19978,86 @@
         <v>84</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>446</v>
+        <v>458</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>447</v>
+        <v>459</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>448</v>
+        <v>460</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>449</v>
+        <v>461</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>450</v>
+        <v>462</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>451</v>
+        <v>463</v>
       </c>
       <c r="L24" s="3" t="s">
-        <v>452</v>
+        <v>464</v>
       </c>
       <c r="M24" s="3" t="s">
-        <v>453</v>
+        <v>465</v>
       </c>
     </row>
     <row r="25" spans="2:13">
       <c r="B25" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
-      <c r="M25" s="3"/>
+      <c r="F25" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>468</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>469</v>
+      </c>
+      <c r="K25" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="L25" s="3" t="s">
+        <v>471</v>
+      </c>
+      <c r="M25" s="3" t="s">
+        <v>472</v>
+      </c>
     </row>
     <row r="26" spans="2:13">
       <c r="B26" s="2" t="s">
         <v>88</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>454</v>
+        <v>473</v>
       </c>
       <c r="G26" s="3" t="s">
         <v>300</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>420</v>
+        <v>433</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>455</v>
+        <v>474</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>456</v>
+        <v>475</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>457</v>
+        <v>476</v>
       </c>
       <c r="L26" s="3" t="s">
-        <v>458</v>
+        <v>477</v>
       </c>
       <c r="M26" s="3" t="s">
-        <v>459</v>
+        <v>478</v>
       </c>
     </row>
     <row r="27" spans="2:13">
@@ -19817,28 +20065,28 @@
         <v>90</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>460</v>
+        <v>479</v>
       </c>
       <c r="G27" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>481</v>
+      </c>
+      <c r="I27" s="3" t="s">
         <v>461</v>
       </c>
-      <c r="H27" s="3" t="s">
-        <v>462</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>449</v>
-      </c>
       <c r="J27" s="3" t="s">
-        <v>463</v>
+        <v>482</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>464</v>
+        <v>483</v>
       </c>
       <c r="L27" s="3" t="s">
-        <v>465</v>
+        <v>484</v>
       </c>
       <c r="M27" s="3" t="s">
-        <v>466</v>
+        <v>485</v>
       </c>
     </row>
     <row r="28" spans="2:13">
@@ -19849,25 +20097,25 @@
         <v>300</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>468</v>
+        <v>487</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>469</v>
+        <v>488</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>470</v>
+        <v>489</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>471</v>
+        <v>490</v>
       </c>
       <c r="L28" s="3" t="s">
-        <v>472</v>
+        <v>491</v>
       </c>
       <c r="M28" s="3" t="s">
-        <v>473</v>
+        <v>492</v>
       </c>
     </row>
     <row r="29" spans="2:13">
@@ -19875,28 +20123,28 @@
         <v>94</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>474</v>
+        <v>493</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>475</v>
+        <v>494</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>476</v>
+        <v>495</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>477</v>
+        <v>496</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>478</v>
+        <v>497</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>479</v>
+        <v>498</v>
       </c>
       <c r="L29" s="3" t="s">
-        <v>480</v>
+        <v>499</v>
       </c>
       <c r="M29" s="3" t="s">
-        <v>481</v>
+        <v>500</v>
       </c>
     </row>
     <row r="30" spans="2:13">
@@ -19904,28 +20152,28 @@
         <v>96</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>482</v>
+        <v>501</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>483</v>
+        <v>502</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>484</v>
+        <v>503</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>413</v>
+        <v>426</v>
       </c>
       <c r="L30" s="3" t="s">
-        <v>485</v>
+        <v>504</v>
       </c>
       <c r="M30" s="3" t="s">
-        <v>486</v>
+        <v>505</v>
       </c>
     </row>
     <row r="31" spans="2:13">
@@ -19933,28 +20181,28 @@
         <v>98</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>487</v>
+        <v>506</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>488</v>
+        <v>507</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>489</v>
+        <v>508</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>490</v>
+        <v>509</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>491</v>
+        <v>510</v>
       </c>
       <c r="K31" s="3" t="s">
-        <v>492</v>
+        <v>511</v>
       </c>
       <c r="L31" s="3" t="s">
-        <v>493</v>
+        <v>512</v>
       </c>
       <c r="M31" s="3" t="s">
-        <v>494</v>
+        <v>513</v>
       </c>
     </row>
     <row r="32" spans="2:13">
@@ -19962,28 +20210,28 @@
         <v>100</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>495</v>
+        <v>514</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>496</v>
+        <v>515</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>497</v>
+        <v>516</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>421</v>
+        <v>434</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>498</v>
+        <v>517</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>499</v>
+        <v>518</v>
       </c>
       <c r="L32" s="3" t="s">
-        <v>500</v>
+        <v>519</v>
       </c>
       <c r="M32" s="3" t="s">
-        <v>501</v>
+        <v>520</v>
       </c>
     </row>
     <row r="33" spans="2:13">
@@ -19991,28 +20239,28 @@
         <v>102</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>502</v>
+        <v>521</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>340</v>
+        <v>397</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>503</v>
+        <v>522</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>313</v>
       </c>
       <c r="K33" s="3" t="s">
-        <v>415</v>
+        <v>428</v>
       </c>
       <c r="L33" s="3" t="s">
-        <v>417</v>
+        <v>430</v>
       </c>
       <c r="M33" s="3" t="s">
-        <v>504</v>
+        <v>523</v>
       </c>
     </row>
     <row r="34" spans="2:13">
@@ -20020,28 +20268,28 @@
         <v>104</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>505</v>
+        <v>524</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>506</v>
+        <v>525</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>340</v>
+        <v>397</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>507</v>
+        <v>526</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>508</v>
+        <v>527</v>
       </c>
       <c r="K34" s="3" t="s">
-        <v>509</v>
+        <v>528</v>
       </c>
       <c r="L34" s="3" t="s">
-        <v>510</v>
+        <v>529</v>
       </c>
       <c r="M34" s="3" t="s">
-        <v>511</v>
+        <v>530</v>
       </c>
     </row>
     <row r="35" spans="2:13">
@@ -20049,28 +20297,28 @@
         <v>106</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>512</v>
+        <v>531</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>513</v>
+        <v>532</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>514</v>
+        <v>533</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>515</v>
+        <v>534</v>
       </c>
       <c r="J35" s="3" t="s">
         <v>319</v>
       </c>
       <c r="K35" s="3" t="s">
-        <v>516</v>
+        <v>535</v>
       </c>
       <c r="L35" s="3" t="s">
-        <v>517</v>
+        <v>536</v>
       </c>
       <c r="M35" s="3" t="s">
-        <v>425</v>
+        <v>438</v>
       </c>
     </row>
     <row r="36" spans="2:13">
@@ -20078,28 +20326,28 @@
         <v>108</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>518</v>
+        <v>537</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>519</v>
+        <v>538</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>454</v>
+        <v>473</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>520</v>
+        <v>539</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>521</v>
+        <v>540</v>
       </c>
       <c r="K36" s="3" t="s">
-        <v>522</v>
+        <v>541</v>
       </c>
       <c r="L36" s="3" t="s">
-        <v>523</v>
+        <v>542</v>
       </c>
       <c r="M36" s="3" t="s">
-        <v>524</v>
+        <v>543</v>
       </c>
     </row>
     <row r="37" spans="2:13">
@@ -20107,28 +20355,28 @@
         <v>110</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>525</v>
+        <v>544</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>526</v>
+        <v>545</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>527</v>
+        <v>546</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>528</v>
+        <v>547</v>
       </c>
       <c r="J37" s="3" t="s">
-        <v>529</v>
+        <v>548</v>
       </c>
       <c r="K37" s="3" t="s">
-        <v>530</v>
+        <v>549</v>
       </c>
       <c r="L37" s="3" t="s">
-        <v>531</v>
+        <v>550</v>
       </c>
       <c r="M37" s="3" t="s">
-        <v>532</v>
+        <v>551</v>
       </c>
     </row>
     <row r="38" spans="2:13">
@@ -20136,28 +20384,28 @@
         <v>112</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>533</v>
+        <v>552</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>535</v>
+        <v>554</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>536</v>
+        <v>555</v>
       </c>
       <c r="J38" s="3" t="s">
-        <v>537</v>
+        <v>556</v>
       </c>
       <c r="K38" s="3" t="s">
-        <v>538</v>
+        <v>557</v>
       </c>
       <c r="L38" s="3" t="s">
-        <v>539</v>
+        <v>558</v>
       </c>
       <c r="M38" s="3" t="s">
-        <v>540</v>
+        <v>559</v>
       </c>
     </row>
     <row r="39" spans="2:13">
@@ -20165,28 +20413,28 @@
         <v>114</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>541</v>
+        <v>560</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>542</v>
+        <v>561</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>543</v>
+        <v>562</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>544</v>
+        <v>563</v>
       </c>
       <c r="J39" s="3" t="s">
-        <v>545</v>
+        <v>564</v>
       </c>
       <c r="K39" s="3" t="s">
-        <v>415</v>
+        <v>428</v>
       </c>
       <c r="L39" s="3" t="s">
-        <v>546</v>
+        <v>565</v>
       </c>
       <c r="M39" s="3" t="s">
-        <v>547</v>
+        <v>566</v>
       </c>
     </row>
     <row r="40" spans="2:13">
@@ -20197,25 +20445,25 @@
         <v>309</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>548</v>
+        <v>567</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>549</v>
+        <v>568</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>550</v>
+        <v>569</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>551</v>
+        <v>570</v>
       </c>
       <c r="K40" s="3" t="s">
-        <v>552</v>
+        <v>571</v>
       </c>
       <c r="L40" s="3" t="s">
-        <v>553</v>
+        <v>572</v>
       </c>
       <c r="M40" s="3" t="s">
-        <v>554</v>
+        <v>573</v>
       </c>
     </row>
     <row r="41" spans="2:13">
@@ -20223,28 +20471,28 @@
         <v>118</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>555</v>
+        <v>574</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>556</v>
+        <v>575</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>557</v>
+        <v>576</v>
       </c>
       <c r="I41" s="3" t="s">
-        <v>558</v>
+        <v>577</v>
       </c>
       <c r="J41" s="3" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="K41" s="3" t="s">
-        <v>559</v>
+        <v>578</v>
       </c>
       <c r="L41" s="3" t="s">
-        <v>560</v>
+        <v>579</v>
       </c>
       <c r="M41" s="3" t="s">
-        <v>561</v>
+        <v>580</v>
       </c>
     </row>
     <row r="42" spans="2:13">
@@ -20252,28 +20500,28 @@
         <v>120</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>562</v>
+        <v>581</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>563</v>
+        <v>582</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>564</v>
+        <v>583</v>
       </c>
       <c r="I42" s="3" t="s">
-        <v>565</v>
+        <v>584</v>
       </c>
       <c r="J42" s="3" t="s">
-        <v>415</v>
+        <v>428</v>
       </c>
       <c r="K42" s="3" t="s">
-        <v>566</v>
+        <v>585</v>
       </c>
       <c r="L42" s="3" t="s">
-        <v>567</v>
+        <v>586</v>
       </c>
       <c r="M42" s="3" t="s">
-        <v>568</v>
+        <v>587</v>
       </c>
     </row>
     <row r="43" spans="2:13">
@@ -20284,54 +20532,54 @@
         <v>300</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>569</v>
+        <v>467</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>570</v>
+        <v>588</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="J43" s="3" t="s">
-        <v>413</v>
+        <v>426</v>
       </c>
       <c r="K43" s="3" t="s">
-        <v>571</v>
+        <v>589</v>
       </c>
       <c r="L43" s="3" t="s">
-        <v>572</v>
+        <v>590</v>
       </c>
       <c r="M43" s="3" t="s">
-        <v>573</v>
+        <v>591</v>
       </c>
     </row>
     <row r="44" spans="2:13">
       <c r="B44" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="F44" s="4" t="s">
-        <v>574</v>
-      </c>
-      <c r="G44" s="4" t="s">
-        <v>575</v>
-      </c>
-      <c r="H44" s="4" t="s">
-        <v>576</v>
-      </c>
-      <c r="I44" s="4" t="s">
-        <v>577</v>
-      </c>
-      <c r="J44" s="4" t="s">
-        <v>578</v>
-      </c>
-      <c r="K44" s="4" t="s">
-        <v>579</v>
-      </c>
-      <c r="L44" s="4" t="s">
-        <v>580</v>
-      </c>
-      <c r="M44" s="4" t="s">
-        <v>581</v>
+      <c r="F44" s="3" t="s">
+        <v>592</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>593</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>594</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>595</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>596</v>
+      </c>
+      <c r="K44" s="3" t="s">
+        <v>597</v>
+      </c>
+      <c r="L44" s="3" t="s">
+        <v>598</v>
+      </c>
+      <c r="M44" s="3" t="s">
+        <v>599</v>
       </c>
     </row>
     <row r="45" spans="2:13">
@@ -20339,208 +20587,208 @@
         <v>126</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>582</v>
+        <v>600</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>583</v>
+        <v>601</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>584</v>
+        <v>602</v>
       </c>
       <c r="I45" s="3" t="s">
-        <v>502</v>
+        <v>521</v>
       </c>
       <c r="J45" s="3" t="s">
-        <v>585</v>
+        <v>603</v>
       </c>
       <c r="K45" s="3" t="s">
-        <v>586</v>
+        <v>604</v>
       </c>
       <c r="L45" s="3" t="s">
-        <v>587</v>
+        <v>605</v>
       </c>
       <c r="M45" s="3" t="s">
-        <v>588</v>
+        <v>606</v>
       </c>
     </row>
     <row r="46" spans="2:13">
       <c r="B46" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="E46" s="4"/>
+      <c r="E46" s="3"/>
       <c r="F46" s="3" t="s">
-        <v>488</v>
+        <v>507</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>589</v>
+        <v>607</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>590</v>
+        <v>608</v>
       </c>
       <c r="I46" s="3" t="s">
-        <v>591</v>
+        <v>609</v>
       </c>
       <c r="J46" s="3" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="K46" s="3" t="s">
-        <v>592</v>
+        <v>610</v>
       </c>
       <c r="L46" s="3" t="s">
-        <v>593</v>
+        <v>611</v>
       </c>
       <c r="M46" s="3" t="s">
-        <v>594</v>
+        <v>612</v>
       </c>
     </row>
     <row r="47" spans="2:13">
       <c r="B47" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="E47" s="4"/>
+      <c r="E47" s="3"/>
       <c r="F47" s="3" t="s">
-        <v>595</v>
+        <v>613</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>596</v>
+        <v>614</v>
       </c>
       <c r="H47" s="3" t="s">
-        <v>597</v>
+        <v>615</v>
       </c>
       <c r="I47" s="3" t="s">
-        <v>449</v>
+        <v>461</v>
       </c>
       <c r="J47" s="3" t="s">
-        <v>598</v>
+        <v>616</v>
       </c>
       <c r="K47" s="3" t="s">
-        <v>599</v>
+        <v>617</v>
       </c>
       <c r="L47" s="3" t="s">
-        <v>600</v>
+        <v>618</v>
       </c>
       <c r="M47" s="3" t="s">
-        <v>601</v>
+        <v>619</v>
       </c>
     </row>
     <row r="48" spans="2:13">
       <c r="B48" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="E48" s="4"/>
+      <c r="E48" s="3"/>
       <c r="F48" s="3" t="s">
-        <v>602</v>
+        <v>620</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>603</v>
+        <v>621</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>327</v>
       </c>
       <c r="I48" s="3" t="s">
-        <v>604</v>
+        <v>622</v>
       </c>
       <c r="J48" s="3" t="s">
-        <v>605</v>
+        <v>623</v>
       </c>
       <c r="K48" s="3" t="s">
-        <v>413</v>
+        <v>426</v>
       </c>
       <c r="L48" s="3" t="s">
-        <v>606</v>
+        <v>624</v>
       </c>
       <c r="M48" s="3" t="s">
-        <v>607</v>
+        <v>625</v>
       </c>
     </row>
     <row r="49" spans="2:13">
       <c r="B49" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="E49" s="4"/>
+      <c r="E49" s="3"/>
       <c r="F49" s="3" t="s">
-        <v>608</v>
+        <v>626</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>420</v>
+        <v>433</v>
       </c>
       <c r="H49" s="3" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="I49" s="3" t="s">
-        <v>609</v>
+        <v>627</v>
       </c>
       <c r="J49" s="3" t="s">
-        <v>610</v>
+        <v>628</v>
       </c>
       <c r="K49" s="3" t="s">
-        <v>611</v>
+        <v>629</v>
       </c>
       <c r="L49" s="3" t="s">
-        <v>612</v>
+        <v>630</v>
       </c>
       <c r="M49" s="3" t="s">
-        <v>613</v>
+        <v>631</v>
       </c>
     </row>
     <row r="50" spans="2:13">
       <c r="B50" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="E50" s="4"/>
+      <c r="E50" s="3"/>
       <c r="F50" s="3" t="s">
-        <v>614</v>
+        <v>632</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>615</v>
+        <v>633</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>616</v>
+        <v>634</v>
       </c>
       <c r="I50" s="3" t="s">
-        <v>617</v>
+        <v>635</v>
       </c>
       <c r="J50" s="3" t="s">
-        <v>618</v>
+        <v>636</v>
       </c>
       <c r="K50" s="3" t="s">
-        <v>619</v>
+        <v>637</v>
       </c>
       <c r="L50" s="3" t="s">
-        <v>620</v>
+        <v>638</v>
       </c>
       <c r="M50" s="3" t="s">
-        <v>621</v>
+        <v>639</v>
       </c>
     </row>
     <row r="51" spans="2:13">
       <c r="B51" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="E51" s="4"/>
+      <c r="E51" s="3"/>
       <c r="F51" s="3" t="s">
-        <v>622</v>
+        <v>640</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>623</v>
+        <v>641</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>624</v>
+        <v>642</v>
       </c>
       <c r="I51" s="3" t="s">
-        <v>625</v>
+        <v>643</v>
       </c>
       <c r="J51" s="3" t="s">
-        <v>626</v>
+        <v>644</v>
       </c>
       <c r="K51" s="3" t="s">
-        <v>627</v>
+        <v>645</v>
       </c>
       <c r="L51" s="3" t="s">
-        <v>628</v>
+        <v>646</v>
       </c>
       <c r="M51" s="3" t="s">
-        <v>629</v>
+        <v>647</v>
       </c>
     </row>
     <row r="52" spans="2:13">
@@ -20548,28 +20796,28 @@
         <v>140</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>301</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="I52" s="3" t="s">
-        <v>596</v>
+        <v>614</v>
       </c>
       <c r="J52" s="3" t="s">
-        <v>630</v>
+        <v>648</v>
       </c>
       <c r="K52" s="3" t="s">
-        <v>631</v>
+        <v>649</v>
       </c>
       <c r="L52" s="3" t="s">
-        <v>632</v>
+        <v>650</v>
       </c>
       <c r="M52" s="3" t="s">
-        <v>633</v>
+        <v>651</v>
       </c>
     </row>
     <row r="53" spans="2:13">
@@ -20577,28 +20825,28 @@
         <v>142</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>541</v>
+        <v>560</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>634</v>
+        <v>652</v>
       </c>
       <c r="H53" s="3" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="I53" s="3" t="s">
-        <v>635</v>
+        <v>653</v>
       </c>
       <c r="J53" s="3" t="s">
-        <v>636</v>
+        <v>654</v>
       </c>
       <c r="K53" s="3" t="s">
-        <v>637</v>
+        <v>655</v>
       </c>
       <c r="L53" s="3" t="s">
-        <v>638</v>
+        <v>656</v>
       </c>
       <c r="M53" s="3" t="s">
-        <v>572</v>
+        <v>590</v>
       </c>
     </row>
     <row r="54" spans="2:13">
@@ -20606,28 +20854,28 @@
         <v>144</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>639</v>
+        <v>657</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>441</v>
+        <v>453</v>
       </c>
       <c r="H54" s="3" t="s">
-        <v>640</v>
+        <v>658</v>
       </c>
       <c r="I54" s="3" t="s">
-        <v>641</v>
+        <v>659</v>
       </c>
       <c r="J54" s="3" t="s">
-        <v>642</v>
+        <v>660</v>
       </c>
       <c r="K54" s="3" t="s">
-        <v>643</v>
+        <v>661</v>
       </c>
       <c r="L54" s="3" t="s">
-        <v>644</v>
+        <v>662</v>
       </c>
       <c r="M54" s="3" t="s">
-        <v>645</v>
+        <v>663</v>
       </c>
     </row>
     <row r="55" spans="2:13">
@@ -20635,28 +20883,28 @@
         <v>146</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>646</v>
+        <v>664</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>647</v>
+        <v>665</v>
       </c>
       <c r="H55" s="3" t="s">
-        <v>648</v>
+        <v>666</v>
       </c>
       <c r="I55" s="3" t="s">
-        <v>649</v>
+        <v>667</v>
       </c>
       <c r="J55" s="3" t="s">
-        <v>650</v>
+        <v>668</v>
       </c>
       <c r="K55" s="3" t="s">
-        <v>651</v>
+        <v>669</v>
       </c>
       <c r="L55" s="3" t="s">
-        <v>652</v>
+        <v>670</v>
       </c>
       <c r="M55" s="3" t="s">
-        <v>494</v>
+        <v>513</v>
       </c>
     </row>
     <row r="56" spans="2:13">
@@ -20667,25 +20915,25 @@
         <v>333</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>414</v>
+        <v>427</v>
       </c>
       <c r="H56" s="3" t="s">
-        <v>653</v>
+        <v>671</v>
       </c>
       <c r="I56" s="3" t="s">
-        <v>654</v>
+        <v>672</v>
       </c>
       <c r="J56" s="3" t="s">
-        <v>655</v>
+        <v>673</v>
       </c>
       <c r="K56" s="3" t="s">
-        <v>656</v>
+        <v>674</v>
       </c>
       <c r="L56" s="3" t="s">
-        <v>657</v>
+        <v>675</v>
       </c>
       <c r="M56" s="3" t="s">
-        <v>658</v>
+        <v>676</v>
       </c>
     </row>
     <row r="57" spans="2:13">
@@ -20693,28 +20941,28 @@
         <v>150</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>659</v>
+        <v>677</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>569</v>
+        <v>467</v>
       </c>
       <c r="H57" s="3" t="s">
-        <v>660</v>
+        <v>678</v>
       </c>
       <c r="I57" s="3" t="s">
-        <v>661</v>
+        <v>679</v>
       </c>
       <c r="J57" s="3" t="s">
-        <v>662</v>
+        <v>680</v>
       </c>
       <c r="K57" s="3" t="s">
-        <v>663</v>
+        <v>681</v>
       </c>
       <c r="L57" s="3" t="s">
-        <v>664</v>
+        <v>682</v>
       </c>
       <c r="M57" s="3" t="s">
-        <v>665</v>
+        <v>683</v>
       </c>
     </row>
     <row r="58" spans="2:13">
@@ -20722,28 +20970,28 @@
         <v>152</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>666</v>
+        <v>684</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>667</v>
+        <v>685</v>
       </c>
       <c r="H58" s="3" t="s">
-        <v>668</v>
+        <v>686</v>
       </c>
       <c r="I58" s="3" t="s">
-        <v>669</v>
+        <v>687</v>
       </c>
       <c r="J58" s="3" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="K58" s="3" t="s">
-        <v>670</v>
+        <v>688</v>
       </c>
       <c r="L58" s="3" t="s">
-        <v>671</v>
+        <v>689</v>
       </c>
       <c r="M58" s="3" t="s">
-        <v>672</v>
+        <v>690</v>
       </c>
     </row>
     <row r="59" spans="2:13">
@@ -20764,28 +21012,28 @@
         <v>155</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>673</v>
+        <v>691</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>674</v>
+        <v>692</v>
       </c>
       <c r="H60" s="3" t="s">
-        <v>675</v>
+        <v>693</v>
       </c>
       <c r="I60" s="3" t="s">
-        <v>676</v>
+        <v>694</v>
       </c>
       <c r="J60" s="3" t="s">
-        <v>677</v>
+        <v>695</v>
       </c>
       <c r="K60" s="3" t="s">
-        <v>678</v>
+        <v>696</v>
       </c>
       <c r="L60" s="3" t="s">
-        <v>679</v>
+        <v>697</v>
       </c>
       <c r="M60" s="3" t="s">
-        <v>680</v>
+        <v>698</v>
       </c>
     </row>
     <row r="61" spans="2:13">
@@ -20793,28 +21041,28 @@
         <v>157</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>569</v>
+        <v>467</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>630</v>
+        <v>648</v>
       </c>
       <c r="H61" s="3" t="s">
-        <v>400</v>
+        <v>413</v>
       </c>
       <c r="I61" s="3" t="s">
-        <v>681</v>
+        <v>699</v>
       </c>
       <c r="J61" s="3" t="s">
-        <v>682</v>
+        <v>700</v>
       </c>
       <c r="K61" s="3" t="s">
-        <v>683</v>
+        <v>701</v>
       </c>
       <c r="L61" s="3" t="s">
-        <v>684</v>
+        <v>702</v>
       </c>
       <c r="M61" s="3" t="s">
-        <v>685</v>
+        <v>703</v>
       </c>
     </row>
     <row r="62" spans="2:13">
@@ -20822,28 +21070,28 @@
         <v>159</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>563</v>
+        <v>582</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>686</v>
+        <v>704</v>
       </c>
       <c r="H62" s="3" t="s">
-        <v>687</v>
+        <v>705</v>
       </c>
       <c r="I62" s="3" t="s">
-        <v>688</v>
+        <v>706</v>
       </c>
       <c r="J62" s="3" t="s">
-        <v>689</v>
+        <v>707</v>
       </c>
       <c r="K62" s="3" t="s">
-        <v>690</v>
+        <v>708</v>
       </c>
       <c r="L62" s="3" t="s">
-        <v>691</v>
+        <v>709</v>
       </c>
       <c r="M62" s="3" t="s">
-        <v>692</v>
+        <v>710</v>
       </c>
     </row>
     <row r="63" spans="2:13">
@@ -20851,28 +21099,28 @@
         <v>161</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>673</v>
+        <v>691</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>693</v>
+        <v>711</v>
       </c>
       <c r="H63" s="3" t="s">
-        <v>563</v>
+        <v>582</v>
       </c>
       <c r="I63" s="3" t="s">
-        <v>694</v>
+        <v>712</v>
       </c>
       <c r="J63" s="3" t="s">
         <v>311</v>
       </c>
       <c r="K63" s="3" t="s">
-        <v>695</v>
+        <v>713</v>
       </c>
       <c r="L63" s="3" t="s">
-        <v>696</v>
+        <v>714</v>
       </c>
       <c r="M63" s="3" t="s">
-        <v>697</v>
+        <v>715</v>
       </c>
     </row>
     <row r="64" spans="2:13">
@@ -20880,47 +21128,57 @@
         <v>163</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>698</v>
+        <v>716</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>699</v>
+        <v>717</v>
       </c>
       <c r="H64" s="3" t="s">
-        <v>700</v>
+        <v>718</v>
       </c>
       <c r="I64" s="3" t="s">
-        <v>701</v>
+        <v>719</v>
       </c>
       <c r="J64" s="3" t="s">
-        <v>702</v>
+        <v>720</v>
       </c>
       <c r="K64" s="3" t="s">
-        <v>703</v>
+        <v>721</v>
       </c>
       <c r="L64" s="3" t="s">
-        <v>704</v>
+        <v>722</v>
       </c>
       <c r="M64" s="3" t="s">
-        <v>705</v>
+        <v>723</v>
       </c>
     </row>
     <row r="65" spans="2:13">
       <c r="B65" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="F65" s="3"/>
-      <c r="G65" s="3"/>
-      <c r="H65" s="3"/>
-      <c r="I65" s="3"/>
-      <c r="J65" s="3"/>
-      <c r="K65" s="3" t="s">
-        <v>706</v>
-      </c>
-      <c r="L65" s="3" t="s">
-        <v>707</v>
-      </c>
-      <c r="M65" s="3" t="s">
-        <v>708</v>
+      <c r="F65" s="3" t="s">
+        <v>724</v>
+      </c>
+      <c r="G65" s="3" t="s">
+        <v>725</v>
+      </c>
+      <c r="H65" s="3" t="s">
+        <v>726</v>
+      </c>
+      <c r="I65" t="s">
+        <v>397</v>
+      </c>
+      <c r="J65" t="s">
+        <v>727</v>
+      </c>
+      <c r="K65" s="1" t="s">
+        <v>728</v>
+      </c>
+      <c r="L65" s="1" t="s">
+        <v>729</v>
+      </c>
+      <c r="M65" s="1" t="s">
+        <v>590</v>
       </c>
     </row>
     <row r="66" spans="2:13">
@@ -20928,28 +21186,28 @@
         <v>167</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>709</v>
+        <v>730</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>710</v>
+        <v>402</v>
       </c>
       <c r="H66" s="3" t="s">
-        <v>711</v>
+        <v>731</v>
       </c>
       <c r="I66" s="3" t="s">
-        <v>712</v>
+        <v>732</v>
       </c>
       <c r="J66" s="3" t="s">
-        <v>713</v>
+        <v>733</v>
       </c>
       <c r="K66" s="3" t="s">
-        <v>714</v>
+        <v>734</v>
       </c>
       <c r="L66" s="3" t="s">
-        <v>715</v>
+        <v>735</v>
       </c>
       <c r="M66" s="3" t="s">
-        <v>716</v>
+        <v>736</v>
       </c>
     </row>
     <row r="67" spans="2:13">
@@ -20957,28 +21215,28 @@
         <v>169</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>717</v>
+        <v>737</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>718</v>
+        <v>738</v>
       </c>
       <c r="H67" s="3" t="s">
-        <v>719</v>
+        <v>739</v>
       </c>
       <c r="I67" s="3" t="s">
-        <v>720</v>
+        <v>740</v>
       </c>
       <c r="J67" s="3" t="s">
-        <v>721</v>
+        <v>741</v>
       </c>
       <c r="K67" s="3" t="s">
-        <v>722</v>
+        <v>742</v>
       </c>
       <c r="L67" s="3" t="s">
-        <v>723</v>
+        <v>743</v>
       </c>
       <c r="M67" s="3" t="s">
-        <v>724</v>
+        <v>744</v>
       </c>
     </row>
     <row r="68" spans="2:13">
@@ -20986,28 +21244,28 @@
         <v>171</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>725</v>
+        <v>745</v>
       </c>
       <c r="G68" s="3" t="s">
         <v>333</v>
       </c>
       <c r="H68" s="3" t="s">
-        <v>726</v>
+        <v>746</v>
       </c>
       <c r="I68" s="3" t="s">
-        <v>727</v>
+        <v>747</v>
       </c>
       <c r="J68" s="3" t="s">
-        <v>728</v>
+        <v>748</v>
       </c>
       <c r="K68" s="3" t="s">
-        <v>729</v>
+        <v>749</v>
       </c>
       <c r="L68" s="3" t="s">
-        <v>730</v>
+        <v>750</v>
       </c>
       <c r="M68" s="3" t="s">
-        <v>494</v>
+        <v>513</v>
       </c>
     </row>
     <row r="69" spans="2:13">
@@ -21015,28 +21273,28 @@
         <v>173</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>731</v>
+        <v>751</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>732</v>
+        <v>752</v>
       </c>
       <c r="H69" s="3" t="s">
-        <v>429</v>
+        <v>442</v>
       </c>
       <c r="I69" s="3" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="J69" s="3" t="s">
-        <v>456</v>
+        <v>475</v>
       </c>
       <c r="K69" s="3" t="s">
         <v>319</v>
       </c>
       <c r="L69" s="3" t="s">
-        <v>733</v>
+        <v>753</v>
       </c>
       <c r="M69" s="3" t="s">
-        <v>734</v>
+        <v>754</v>
       </c>
     </row>
     <row r="70" spans="2:13">
@@ -21044,28 +21302,28 @@
         <v>175</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>735</v>
+        <v>755</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>736</v>
+        <v>756</v>
       </c>
       <c r="H70" s="3" t="s">
-        <v>737</v>
+        <v>757</v>
       </c>
       <c r="I70" s="3" t="s">
-        <v>738</v>
+        <v>758</v>
       </c>
       <c r="J70" s="3" t="s">
-        <v>739</v>
+        <v>759</v>
       </c>
       <c r="K70" s="3" t="s">
-        <v>740</v>
+        <v>760</v>
       </c>
       <c r="L70" s="3" t="s">
-        <v>741</v>
+        <v>761</v>
       </c>
       <c r="M70" s="3" t="s">
-        <v>742</v>
+        <v>762</v>
       </c>
     </row>
     <row r="71" spans="2:13">
@@ -21073,28 +21331,28 @@
         <v>177</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>556</v>
+        <v>575</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>743</v>
+        <v>404</v>
       </c>
       <c r="H71" s="3" t="s">
-        <v>744</v>
+        <v>763</v>
       </c>
       <c r="I71" s="3" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="J71" s="3" t="s">
-        <v>408</v>
+        <v>421</v>
       </c>
       <c r="K71" s="3" t="s">
-        <v>745</v>
+        <v>764</v>
       </c>
       <c r="L71" s="3" t="s">
-        <v>746</v>
+        <v>765</v>
       </c>
       <c r="M71" s="3" t="s">
-        <v>747</v>
+        <v>766</v>
       </c>
     </row>
     <row r="72" spans="2:13">
@@ -21102,28 +21360,28 @@
         <v>179</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>630</v>
+        <v>648</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>468</v>
+        <v>487</v>
       </c>
       <c r="H72" s="3" t="s">
-        <v>748</v>
+        <v>767</v>
       </c>
       <c r="I72" s="3" t="s">
-        <v>749</v>
+        <v>768</v>
       </c>
       <c r="J72" s="3" t="s">
-        <v>691</v>
+        <v>709</v>
       </c>
       <c r="K72" s="3" t="s">
-        <v>464</v>
+        <v>483</v>
       </c>
       <c r="L72" s="3" t="s">
-        <v>750</v>
+        <v>769</v>
       </c>
       <c r="M72" s="3" t="s">
-        <v>751</v>
+        <v>770</v>
       </c>
     </row>
     <row r="73" spans="2:13">
@@ -21131,28 +21389,28 @@
         <v>181</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>752</v>
+        <v>771</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>753</v>
+        <v>772</v>
       </c>
       <c r="H73" s="3" t="s">
-        <v>754</v>
+        <v>773</v>
       </c>
       <c r="I73" s="3" t="s">
-        <v>441</v>
+        <v>453</v>
       </c>
       <c r="J73" s="3" t="s">
-        <v>755</v>
+        <v>774</v>
       </c>
       <c r="K73" s="3" t="s">
-        <v>756</v>
+        <v>775</v>
       </c>
       <c r="L73" s="3" t="s">
-        <v>757</v>
+        <v>776</v>
       </c>
       <c r="M73" s="3" t="s">
-        <v>758</v>
+        <v>777</v>
       </c>
     </row>
     <row r="74" spans="2:13">
@@ -21160,28 +21418,28 @@
         <v>183</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>759</v>
+        <v>778</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>760</v>
+        <v>779</v>
       </c>
       <c r="H74" s="3" t="s">
-        <v>468</v>
+        <v>487</v>
       </c>
       <c r="I74" s="3" t="s">
-        <v>761</v>
+        <v>780</v>
       </c>
       <c r="J74" s="3" t="s">
-        <v>762</v>
+        <v>781</v>
       </c>
       <c r="K74" s="3" t="s">
-        <v>763</v>
+        <v>782</v>
       </c>
       <c r="L74" s="3" t="s">
-        <v>764</v>
+        <v>783</v>
       </c>
       <c r="M74" s="3" t="s">
-        <v>765</v>
+        <v>784</v>
       </c>
     </row>
     <row r="75" spans="2:13">
@@ -21189,28 +21447,28 @@
         <v>185</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>766</v>
+        <v>785</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>767</v>
+        <v>786</v>
       </c>
       <c r="H75" s="3" t="s">
-        <v>768</v>
+        <v>787</v>
       </c>
       <c r="I75" s="3" t="s">
-        <v>769</v>
+        <v>788</v>
       </c>
       <c r="J75" s="3" t="s">
-        <v>770</v>
+        <v>789</v>
       </c>
       <c r="K75" s="3" t="s">
-        <v>408</v>
+        <v>421</v>
       </c>
       <c r="L75" s="3" t="s">
-        <v>771</v>
+        <v>790</v>
       </c>
       <c r="M75" s="3" t="s">
-        <v>772</v>
+        <v>791</v>
       </c>
     </row>
     <row r="76" spans="2:13">
@@ -21218,28 +21476,28 @@
         <v>187</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>556</v>
+        <v>575</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>569</v>
+        <v>467</v>
       </c>
       <c r="H76" s="3" t="s">
-        <v>773</v>
+        <v>792</v>
       </c>
       <c r="I76" s="3" t="s">
-        <v>774</v>
+        <v>793</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>311</v>
       </c>
       <c r="K76" s="3" t="s">
-        <v>775</v>
+        <v>794</v>
       </c>
       <c r="L76" s="3" t="s">
-        <v>776</v>
+        <v>795</v>
       </c>
       <c r="M76" s="3" t="s">
-        <v>777</v>
+        <v>796</v>
       </c>
     </row>
     <row r="77" spans="2:13">
@@ -21247,28 +21505,28 @@
         <v>189</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>630</v>
+        <v>648</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>743</v>
+        <v>404</v>
       </c>
       <c r="H77" s="3" t="s">
-        <v>556</v>
+        <v>575</v>
       </c>
       <c r="I77" s="3" t="s">
-        <v>778</v>
+        <v>797</v>
       </c>
       <c r="J77" s="3" t="s">
-        <v>779</v>
+        <v>798</v>
       </c>
       <c r="K77" s="3" t="s">
-        <v>780</v>
+        <v>799</v>
       </c>
       <c r="L77" s="3" t="s">
-        <v>781</v>
+        <v>800</v>
       </c>
       <c r="M77" s="3" t="s">
-        <v>692</v>
+        <v>710</v>
       </c>
     </row>
     <row r="78" spans="2:13">
@@ -21276,28 +21534,28 @@
         <v>191</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>782</v>
+        <v>801</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="H78" s="3" t="s">
-        <v>783</v>
+        <v>802</v>
       </c>
       <c r="I78" s="3" t="s">
-        <v>784</v>
+        <v>803</v>
       </c>
       <c r="J78" s="3" t="s">
-        <v>785</v>
+        <v>804</v>
       </c>
       <c r="K78" s="3" t="s">
-        <v>786</v>
+        <v>805</v>
       </c>
       <c r="L78" s="3" t="s">
-        <v>787</v>
+        <v>806</v>
       </c>
       <c r="M78" s="3" t="s">
-        <v>788</v>
+        <v>807</v>
       </c>
     </row>
     <row r="79" spans="2:13">
@@ -21331,28 +21589,28 @@
         <v>196</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>789</v>
+        <v>808</v>
       </c>
       <c r="H81" s="3" t="s">
-        <v>790</v>
+        <v>407</v>
       </c>
       <c r="I81" s="3" t="s">
-        <v>791</v>
+        <v>809</v>
       </c>
       <c r="J81" s="3" t="s">
-        <v>792</v>
+        <v>810</v>
       </c>
       <c r="K81" s="3" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="L81" s="3" t="s">
-        <v>793</v>
+        <v>811</v>
       </c>
       <c r="M81" s="3" t="s">
-        <v>794</v>
+        <v>812</v>
       </c>
     </row>
     <row r="82" spans="2:13">
@@ -21360,28 +21618,28 @@
         <v>198</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>795</v>
+        <v>813</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>710</v>
+        <v>402</v>
       </c>
       <c r="H82" s="3" t="s">
-        <v>796</v>
+        <v>814</v>
       </c>
       <c r="I82" s="3" t="s">
-        <v>797</v>
+        <v>815</v>
       </c>
       <c r="J82" s="3" t="s">
-        <v>798</v>
+        <v>816</v>
       </c>
       <c r="K82" s="3" t="s">
-        <v>799</v>
+        <v>817</v>
       </c>
       <c r="L82" s="3" t="s">
-        <v>800</v>
+        <v>818</v>
       </c>
       <c r="M82" s="3" t="s">
-        <v>801</v>
+        <v>819</v>
       </c>
     </row>
     <row r="83" spans="2:13">
@@ -21389,28 +21647,28 @@
         <v>200</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>802</v>
+        <v>820</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>803</v>
+        <v>821</v>
       </c>
       <c r="H83" s="3" t="s">
-        <v>804</v>
+        <v>822</v>
       </c>
       <c r="I83" s="3" t="s">
-        <v>805</v>
+        <v>823</v>
       </c>
       <c r="J83" s="3" t="s">
-        <v>464</v>
+        <v>483</v>
       </c>
       <c r="K83" s="3" t="s">
-        <v>806</v>
+        <v>824</v>
       </c>
       <c r="L83" s="3" t="s">
-        <v>807</v>
+        <v>825</v>
       </c>
       <c r="M83" s="3" t="s">
-        <v>808</v>
+        <v>826</v>
       </c>
     </row>
     <row r="84" spans="2:13">
@@ -21418,28 +21676,28 @@
         <v>202</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>710</v>
+        <v>402</v>
       </c>
       <c r="H84" s="3" t="s">
-        <v>429</v>
+        <v>442</v>
       </c>
       <c r="I84" s="3" t="s">
-        <v>809</v>
+        <v>827</v>
       </c>
       <c r="J84" s="3" t="s">
-        <v>810</v>
+        <v>828</v>
       </c>
       <c r="K84" s="3" t="s">
-        <v>811</v>
+        <v>829</v>
       </c>
       <c r="L84" s="3" t="s">
-        <v>750</v>
+        <v>769</v>
       </c>
       <c r="M84" s="3" t="s">
-        <v>812</v>
+        <v>830</v>
       </c>
     </row>
     <row r="85" spans="2:13">
@@ -21447,28 +21705,28 @@
         <v>204</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>813</v>
+        <v>831</v>
       </c>
       <c r="G85" s="3" t="s">
-        <v>706</v>
+        <v>724</v>
       </c>
       <c r="H85" s="3" t="s">
-        <v>814</v>
+        <v>832</v>
       </c>
       <c r="I85" s="3" t="s">
-        <v>414</v>
+        <v>427</v>
       </c>
       <c r="J85" s="3" t="s">
-        <v>815</v>
+        <v>833</v>
       </c>
       <c r="K85" s="3" t="s">
-        <v>816</v>
+        <v>834</v>
       </c>
       <c r="L85" s="3" t="s">
-        <v>450</v>
+        <v>462</v>
       </c>
       <c r="M85" s="3" t="s">
-        <v>689</v>
+        <v>707</v>
       </c>
     </row>
     <row r="86" spans="2:13">
@@ -21476,28 +21734,28 @@
         <v>206</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>817</v>
+        <v>835</v>
       </c>
       <c r="G86" s="3" t="s">
         <v>333</v>
       </c>
       <c r="H86" s="3" t="s">
-        <v>541</v>
+        <v>560</v>
       </c>
       <c r="I86" s="3" t="s">
-        <v>818</v>
+        <v>836</v>
       </c>
       <c r="J86" s="3" t="s">
-        <v>819</v>
+        <v>837</v>
       </c>
       <c r="K86" s="3" t="s">
-        <v>820</v>
+        <v>838</v>
       </c>
       <c r="L86" s="3" t="s">
-        <v>821</v>
+        <v>839</v>
       </c>
       <c r="M86" s="3" t="s">
-        <v>822</v>
+        <v>840</v>
       </c>
     </row>
     <row r="87" spans="2:13">
@@ -21505,28 +21763,28 @@
         <v>208</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>823</v>
+        <v>300</v>
       </c>
       <c r="G87" s="3" t="s">
-        <v>300</v>
+        <v>841</v>
       </c>
       <c r="H87" s="3" t="s">
-        <v>824</v>
+        <v>487</v>
       </c>
       <c r="I87" s="3" t="s">
-        <v>468</v>
+        <v>842</v>
       </c>
       <c r="J87" s="3" t="s">
-        <v>825</v>
+        <v>843</v>
       </c>
       <c r="K87" s="3" t="s">
-        <v>826</v>
+        <v>844</v>
       </c>
       <c r="L87" s="3" t="s">
-        <v>827</v>
-      </c>
-      <c r="M87" s="3" t="s">
-        <v>828</v>
+        <v>845</v>
+      </c>
+      <c r="M87" t="s">
+        <v>846</v>
       </c>
     </row>
     <row r="88" spans="2:13">
@@ -21534,28 +21792,28 @@
         <v>210</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>829</v>
+        <v>847</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>830</v>
+        <v>848</v>
       </c>
       <c r="H88" s="3" t="s">
-        <v>831</v>
+        <v>849</v>
       </c>
       <c r="I88" s="3" t="s">
-        <v>832</v>
+        <v>850</v>
       </c>
       <c r="J88" s="3" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="K88" s="3" t="s">
-        <v>833</v>
+        <v>851</v>
       </c>
       <c r="L88" s="3" t="s">
-        <v>834</v>
+        <v>852</v>
       </c>
       <c r="M88" s="3" t="s">
-        <v>835</v>
+        <v>853</v>
       </c>
     </row>
     <row r="89" spans="2:13">
@@ -21563,28 +21821,28 @@
         <v>212</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>836</v>
+        <v>854</v>
       </c>
       <c r="G89" s="3" t="s">
-        <v>837</v>
+        <v>855</v>
       </c>
       <c r="H89" s="3" t="s">
-        <v>710</v>
+        <v>402</v>
       </c>
       <c r="I89" s="3" t="s">
-        <v>838</v>
+        <v>856</v>
       </c>
       <c r="J89" s="3" t="s">
-        <v>839</v>
+        <v>857</v>
       </c>
       <c r="K89" s="3" t="s">
-        <v>840</v>
+        <v>858</v>
       </c>
       <c r="L89" s="3" t="s">
-        <v>841</v>
+        <v>859</v>
       </c>
       <c r="M89" s="3" t="s">
-        <v>842</v>
+        <v>860</v>
       </c>
     </row>
     <row r="90" spans="2:13">
@@ -21598,22 +21856,22 @@
         <v>325</v>
       </c>
       <c r="H90" s="3" t="s">
-        <v>634</v>
+        <v>652</v>
       </c>
       <c r="I90" s="3" t="s">
-        <v>843</v>
+        <v>861</v>
       </c>
       <c r="J90" s="3" t="s">
-        <v>844</v>
+        <v>862</v>
       </c>
       <c r="K90" s="3" t="s">
-        <v>845</v>
+        <v>863</v>
       </c>
       <c r="L90" s="3" t="s">
-        <v>846</v>
+        <v>864</v>
       </c>
       <c r="M90" s="3" t="s">
-        <v>847</v>
+        <v>865</v>
       </c>
     </row>
     <row r="91" spans="2:13">
@@ -21621,28 +21879,28 @@
         <v>216</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>731</v>
+        <v>751</v>
       </c>
       <c r="G91" s="3" t="s">
-        <v>848</v>
+        <v>866</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>325</v>
       </c>
       <c r="I91" s="3" t="s">
-        <v>849</v>
+        <v>867</v>
       </c>
       <c r="J91" s="3" t="s">
-        <v>408</v>
+        <v>421</v>
       </c>
       <c r="K91" s="3" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="L91" s="3" t="s">
-        <v>850</v>
+        <v>868</v>
       </c>
       <c r="M91" s="3" t="s">
-        <v>851</v>
+        <v>869</v>
       </c>
     </row>
     <row r="92" spans="2:13">
@@ -21650,28 +21908,28 @@
         <v>218</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>852</v>
+        <v>870</v>
       </c>
       <c r="G92" s="3" t="s">
         <v>301</v>
       </c>
       <c r="H92" s="3" t="s">
-        <v>853</v>
+        <v>871</v>
       </c>
       <c r="I92" s="3" t="s">
-        <v>854</v>
+        <v>872</v>
       </c>
       <c r="J92" s="3" t="s">
-        <v>430</v>
+        <v>344</v>
       </c>
       <c r="K92" s="3" t="s">
-        <v>855</v>
+        <v>873</v>
       </c>
       <c r="L92" s="3" t="s">
-        <v>856</v>
+        <v>874</v>
       </c>
       <c r="M92" s="3" t="s">
-        <v>857</v>
+        <v>875</v>
       </c>
     </row>
     <row r="93" spans="2:13">
@@ -21679,28 +21937,28 @@
         <v>220</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>858</v>
+        <v>876</v>
       </c>
       <c r="G93" s="3" t="s">
-        <v>859</v>
+        <v>877</v>
       </c>
       <c r="H93" s="3" t="s">
-        <v>429</v>
+        <v>442</v>
       </c>
       <c r="I93" s="3" t="s">
-        <v>860</v>
+        <v>878</v>
       </c>
       <c r="J93" s="3" t="s">
-        <v>861</v>
+        <v>879</v>
       </c>
       <c r="K93" s="3" t="s">
-        <v>862</v>
+        <v>880</v>
       </c>
       <c r="L93" s="3" t="s">
-        <v>863</v>
+        <v>881</v>
       </c>
       <c r="M93" s="3" t="s">
-        <v>864</v>
+        <v>882</v>
       </c>
     </row>
     <row r="94" spans="2:13">
@@ -21708,28 +21966,28 @@
         <v>222</v>
       </c>
       <c r="F94" s="3" t="s">
-        <v>596</v>
+        <v>614</v>
       </c>
       <c r="G94" s="3" t="s">
-        <v>865</v>
+        <v>883</v>
       </c>
       <c r="H94" s="3" t="s">
-        <v>866</v>
+        <v>884</v>
       </c>
       <c r="I94" s="3" t="s">
-        <v>867</v>
+        <v>885</v>
       </c>
       <c r="J94" s="3" t="s">
-        <v>868</v>
+        <v>886</v>
       </c>
       <c r="K94" s="3" t="s">
-        <v>869</v>
+        <v>887</v>
       </c>
       <c r="L94" s="3" t="s">
-        <v>870</v>
+        <v>888</v>
       </c>
       <c r="M94" s="3" t="s">
-        <v>871</v>
+        <v>889</v>
       </c>
     </row>
     <row r="95" spans="2:13">
@@ -21737,28 +21995,28 @@
         <v>224</v>
       </c>
       <c r="F95" s="3" t="s">
-        <v>872</v>
+        <v>890</v>
       </c>
       <c r="G95" s="3" t="s">
-        <v>873</v>
+        <v>891</v>
       </c>
       <c r="H95" s="3" t="s">
-        <v>874</v>
+        <v>892</v>
       </c>
       <c r="I95" s="3" t="s">
-        <v>875</v>
+        <v>893</v>
       </c>
       <c r="J95" s="3" t="s">
-        <v>876</v>
+        <v>345</v>
       </c>
       <c r="K95" s="3" t="s">
-        <v>877</v>
+        <v>894</v>
       </c>
       <c r="L95" s="3" t="s">
-        <v>878</v>
+        <v>895</v>
       </c>
       <c r="M95" s="3" t="s">
-        <v>879</v>
+        <v>896</v>
       </c>
     </row>
     <row r="96" spans="2:13">
@@ -21766,72 +22024,86 @@
         <v>226</v>
       </c>
       <c r="F96" s="3" t="s">
-        <v>880</v>
+        <v>897</v>
       </c>
       <c r="G96" s="3" t="s">
-        <v>881</v>
+        <v>898</v>
       </c>
       <c r="H96" s="3" t="s">
         <v>301</v>
       </c>
       <c r="I96" s="3" t="s">
-        <v>882</v>
+        <v>899</v>
       </c>
       <c r="J96" s="3" t="s">
-        <v>883</v>
+        <v>900</v>
       </c>
       <c r="K96" s="3" t="s">
-        <v>884</v>
+        <v>901</v>
       </c>
       <c r="L96" s="3" t="s">
-        <v>885</v>
+        <v>902</v>
       </c>
       <c r="M96" s="3" t="s">
-        <v>886</v>
+        <v>903</v>
       </c>
     </row>
     <row r="97" spans="2:13">
       <c r="B97" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="F97" s="3"/>
-      <c r="G97" s="3"/>
-      <c r="H97" s="3"/>
-      <c r="I97" s="3"/>
-      <c r="J97" s="3"/>
-      <c r="K97" s="3"/>
+      <c r="F97" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="G97" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="H97" s="3" t="s">
+        <v>904</v>
+      </c>
+      <c r="I97" s="3" t="s">
+        <v>905</v>
+      </c>
+      <c r="J97" s="3" t="s">
+        <v>906</v>
+      </c>
+      <c r="K97" s="3" t="s">
+        <v>907</v>
+      </c>
       <c r="L97" s="3" t="s">
-        <v>887</v>
-      </c>
-      <c r="M97" s="3"/>
+        <v>908</v>
+      </c>
+      <c r="M97" s="3" t="s">
+        <v>909</v>
+      </c>
     </row>
     <row r="98" spans="2:13">
       <c r="B98" s="2" t="s">
         <v>229</v>
       </c>
       <c r="F98" s="3" t="s">
-        <v>415</v>
+        <v>428</v>
       </c>
       <c r="G98" s="3" t="s">
-        <v>555</v>
+        <v>574</v>
       </c>
       <c r="H98" s="3" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="I98" s="3" t="s">
-        <v>888</v>
+        <v>910</v>
       </c>
       <c r="J98" s="3" t="s">
-        <v>889</v>
+        <v>911</v>
       </c>
       <c r="K98" s="3" t="s">
-        <v>456</v>
+        <v>475</v>
       </c>
       <c r="L98" s="3" t="s">
-        <v>890</v>
+        <v>912</v>
       </c>
       <c r="M98" s="3" t="s">
-        <v>891</v>
+        <v>913</v>
       </c>
     </row>
     <row r="99" spans="2:13">
@@ -21839,28 +22111,28 @@
         <v>231</v>
       </c>
       <c r="F99" s="3" t="s">
-        <v>892</v>
+        <v>914</v>
       </c>
       <c r="G99" s="3" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="H99" s="3" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="I99" s="3" t="s">
-        <v>893</v>
+        <v>915</v>
       </c>
       <c r="J99" s="3" t="s">
-        <v>894</v>
+        <v>916</v>
       </c>
       <c r="K99" s="3" t="s">
-        <v>895</v>
+        <v>917</v>
       </c>
       <c r="L99" s="3" t="s">
-        <v>896</v>
+        <v>918</v>
       </c>
       <c r="M99" s="3" t="s">
-        <v>897</v>
+        <v>919</v>
       </c>
     </row>
     <row r="100" spans="2:13">
@@ -21868,28 +22140,28 @@
         <v>233</v>
       </c>
       <c r="F100" s="3" t="s">
-        <v>898</v>
+        <v>920</v>
       </c>
       <c r="G100" s="3" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>327</v>
       </c>
       <c r="I100" s="3" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="J100" s="3" t="s">
-        <v>899</v>
+        <v>921</v>
       </c>
       <c r="K100" s="3" t="s">
-        <v>900</v>
+        <v>922</v>
       </c>
       <c r="L100" s="3" t="s">
-        <v>901</v>
+        <v>923</v>
       </c>
       <c r="M100" s="3" t="s">
-        <v>902</v>
+        <v>924</v>
       </c>
     </row>
     <row r="101" spans="2:13">
@@ -21897,28 +22169,28 @@
         <v>235</v>
       </c>
       <c r="F101" s="3" t="s">
-        <v>795</v>
+        <v>813</v>
       </c>
       <c r="G101" s="3" t="s">
-        <v>903</v>
+        <v>925</v>
       </c>
       <c r="H101" s="3" t="s">
-        <v>904</v>
+        <v>926</v>
       </c>
       <c r="I101" s="3" t="s">
-        <v>905</v>
+        <v>927</v>
       </c>
       <c r="J101" s="3" t="s">
-        <v>906</v>
+        <v>928</v>
       </c>
       <c r="K101" s="3" t="s">
-        <v>907</v>
+        <v>929</v>
       </c>
       <c r="L101" s="3" t="s">
-        <v>908</v>
+        <v>930</v>
       </c>
       <c r="M101" s="3" t="s">
-        <v>909</v>
+        <v>931</v>
       </c>
     </row>
     <row r="102" spans="2:13">
@@ -21926,28 +22198,28 @@
         <v>237</v>
       </c>
       <c r="F102" s="3" t="s">
-        <v>880</v>
+        <v>897</v>
       </c>
       <c r="G102" s="3" t="s">
-        <v>910</v>
+        <v>932</v>
       </c>
       <c r="H102" s="3" t="s">
-        <v>911</v>
+        <v>933</v>
       </c>
       <c r="I102" s="3" t="s">
-        <v>912</v>
+        <v>934</v>
       </c>
       <c r="J102" s="3" t="s">
-        <v>913</v>
+        <v>935</v>
       </c>
       <c r="K102" s="3" t="s">
-        <v>914</v>
+        <v>936</v>
       </c>
       <c r="L102" s="3" t="s">
-        <v>915</v>
+        <v>937</v>
       </c>
       <c r="M102" s="3" t="s">
-        <v>916</v>
+        <v>938</v>
       </c>
     </row>
     <row r="103" spans="2:13">
@@ -21955,28 +22227,28 @@
         <v>239</v>
       </c>
       <c r="F103" s="3" t="s">
-        <v>917</v>
+        <v>939</v>
       </c>
       <c r="G103" s="3" t="s">
-        <v>918</v>
+        <v>940</v>
       </c>
       <c r="H103" s="3" t="s">
-        <v>919</v>
+        <v>941</v>
       </c>
       <c r="I103" s="3" t="s">
-        <v>920</v>
+        <v>942</v>
       </c>
       <c r="J103" s="3" t="s">
-        <v>921</v>
+        <v>943</v>
       </c>
       <c r="K103" s="3" t="s">
-        <v>922</v>
+        <v>944</v>
       </c>
       <c r="L103" s="3" t="s">
-        <v>923</v>
+        <v>945</v>
       </c>
       <c r="M103" s="3" t="s">
-        <v>924</v>
+        <v>946</v>
       </c>
     </row>
     <row r="104" spans="2:13">
@@ -21987,25 +22259,25 @@
         <v>333</v>
       </c>
       <c r="G104" s="3" t="s">
-        <v>925</v>
+        <v>947</v>
       </c>
       <c r="H104" s="3" t="s">
-        <v>596</v>
+        <v>614</v>
       </c>
       <c r="I104" s="3" t="s">
-        <v>926</v>
+        <v>948</v>
       </c>
       <c r="J104" s="3" t="s">
-        <v>927</v>
+        <v>949</v>
       </c>
       <c r="K104" s="3" t="s">
-        <v>928</v>
+        <v>950</v>
       </c>
       <c r="L104" s="3" t="s">
-        <v>929</v>
+        <v>951</v>
       </c>
       <c r="M104" s="3" t="s">
-        <v>930</v>
+        <v>952</v>
       </c>
     </row>
     <row r="105" spans="2:13">
@@ -22013,28 +22285,28 @@
         <v>243</v>
       </c>
       <c r="F105" s="3" t="s">
-        <v>710</v>
+        <v>402</v>
       </c>
       <c r="G105" s="3" t="s">
-        <v>925</v>
+        <v>947</v>
       </c>
       <c r="H105" s="3" t="s">
-        <v>556</v>
+        <v>575</v>
       </c>
       <c r="I105" s="3" t="s">
         <v>333</v>
       </c>
       <c r="J105" s="3" t="s">
-        <v>655</v>
+        <v>673</v>
       </c>
       <c r="K105" s="3" t="s">
-        <v>931</v>
+        <v>953</v>
       </c>
       <c r="L105" s="3" t="s">
-        <v>932</v>
+        <v>954</v>
       </c>
       <c r="M105" s="3" t="s">
-        <v>933</v>
+        <v>955</v>
       </c>
     </row>
     <row r="106" spans="2:13">
@@ -22042,28 +22314,28 @@
         <v>245</v>
       </c>
       <c r="F106" s="3" t="s">
-        <v>710</v>
+        <v>402</v>
       </c>
       <c r="G106" s="3" t="s">
-        <v>934</v>
+        <v>956</v>
       </c>
       <c r="H106" s="3" t="s">
-        <v>935</v>
+        <v>957</v>
       </c>
       <c r="I106" s="3" t="s">
-        <v>936</v>
+        <v>958</v>
       </c>
       <c r="J106" s="3" t="s">
-        <v>937</v>
+        <v>959</v>
       </c>
       <c r="K106" s="3" t="s">
-        <v>938</v>
+        <v>960</v>
       </c>
       <c r="L106" s="3" t="s">
-        <v>415</v>
+        <v>428</v>
       </c>
       <c r="M106" s="3" t="s">
-        <v>939</v>
+        <v>961</v>
       </c>
     </row>
     <row r="107" spans="2:13">
@@ -22071,28 +22343,28 @@
         <v>247</v>
       </c>
       <c r="F107" s="3" t="s">
-        <v>940</v>
+        <v>962</v>
       </c>
       <c r="G107" s="3" t="s">
-        <v>941</v>
+        <v>963</v>
       </c>
       <c r="H107" s="3" t="s">
-        <v>942</v>
+        <v>964</v>
       </c>
       <c r="I107" s="3" t="s">
-        <v>420</v>
+        <v>433</v>
       </c>
       <c r="J107" s="3" t="s">
-        <v>943</v>
+        <v>965</v>
       </c>
       <c r="K107" s="3" t="s">
-        <v>691</v>
+        <v>709</v>
       </c>
       <c r="L107" s="3" t="s">
-        <v>808</v>
+        <v>826</v>
       </c>
       <c r="M107" s="3" t="s">
-        <v>944</v>
+        <v>966</v>
       </c>
     </row>
     <row r="108" spans="2:13">
@@ -22100,28 +22372,28 @@
         <v>249</v>
       </c>
       <c r="F108" s="3" t="s">
-        <v>945</v>
+        <v>967</v>
       </c>
       <c r="G108" s="3" t="s">
-        <v>946</v>
+        <v>968</v>
       </c>
       <c r="H108" s="3" t="s">
         <v>318</v>
       </c>
       <c r="I108" s="3" t="s">
-        <v>947</v>
+        <v>969</v>
       </c>
       <c r="J108" s="3" t="s">
-        <v>408</v>
+        <v>421</v>
       </c>
       <c r="K108" s="3" t="s">
-        <v>948</v>
+        <v>970</v>
       </c>
       <c r="L108" s="3" t="s">
-        <v>949</v>
+        <v>971</v>
       </c>
       <c r="M108" s="3" t="s">
-        <v>950</v>
+        <v>972</v>
       </c>
     </row>
     <row r="109" spans="2:13">
@@ -22129,28 +22401,28 @@
         <v>251</v>
       </c>
       <c r="F109" s="3" t="s">
-        <v>824</v>
+        <v>841</v>
       </c>
       <c r="G109" s="3" t="s">
-        <v>951</v>
+        <v>973</v>
       </c>
       <c r="H109" s="3" t="s">
-        <v>952</v>
+        <v>974</v>
       </c>
       <c r="I109" s="3" t="s">
-        <v>953</v>
+        <v>975</v>
       </c>
       <c r="J109" s="3" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="K109" s="3" t="s">
-        <v>954</v>
+        <v>976</v>
       </c>
       <c r="L109" s="3" t="s">
-        <v>955</v>
+        <v>977</v>
       </c>
       <c r="M109" s="3" t="s">
-        <v>956</v>
+        <v>978</v>
       </c>
     </row>
     <row r="110" spans="2:13">
@@ -22158,28 +22430,28 @@
         <v>253</v>
       </c>
       <c r="F110" s="3" t="s">
-        <v>957</v>
+        <v>979</v>
       </c>
       <c r="G110" s="3" t="s">
-        <v>958</v>
+        <v>980</v>
       </c>
       <c r="H110" s="3" t="s">
-        <v>959</v>
+        <v>981</v>
       </c>
       <c r="I110" s="3" t="s">
-        <v>960</v>
+        <v>982</v>
       </c>
       <c r="J110" s="3" t="s">
-        <v>961</v>
+        <v>983</v>
       </c>
       <c r="K110" s="3" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="L110" s="3" t="s">
-        <v>962</v>
+        <v>984</v>
       </c>
       <c r="M110" s="3" t="s">
-        <v>963</v>
+        <v>985</v>
       </c>
     </row>
     <row r="111" spans="2:13">
@@ -22187,28 +22459,28 @@
         <v>255</v>
       </c>
       <c r="F111" s="3" t="s">
-        <v>964</v>
+        <v>986</v>
       </c>
       <c r="G111" s="3" t="s">
-        <v>965</v>
+        <v>987</v>
       </c>
       <c r="H111" s="3" t="s">
-        <v>408</v>
+        <v>421</v>
       </c>
       <c r="I111" s="3" t="s">
-        <v>966</v>
+        <v>988</v>
       </c>
       <c r="J111" s="3" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="K111" s="3" t="s">
-        <v>967</v>
+        <v>989</v>
       </c>
       <c r="L111" s="3" t="s">
-        <v>968</v>
+        <v>990</v>
       </c>
       <c r="M111" s="3" t="s">
-        <v>750</v>
+        <v>769</v>
       </c>
     </row>
     <row r="112" spans="2:13">
@@ -22216,28 +22488,28 @@
         <v>257</v>
       </c>
       <c r="F112" s="3" t="s">
-        <v>468</v>
+        <v>487</v>
       </c>
       <c r="G112" s="3" t="s">
-        <v>969</v>
+        <v>991</v>
       </c>
       <c r="H112" s="3" t="s">
-        <v>970</v>
+        <v>992</v>
       </c>
       <c r="I112" s="3" t="s">
-        <v>971</v>
+        <v>993</v>
       </c>
       <c r="J112" s="3" t="s">
-        <v>972</v>
+        <v>994</v>
       </c>
       <c r="K112" s="3" t="s">
-        <v>973</v>
+        <v>995</v>
       </c>
       <c r="L112" s="3" t="s">
-        <v>974</v>
+        <v>996</v>
       </c>
       <c r="M112" s="3" t="s">
-        <v>975</v>
+        <v>997</v>
       </c>
     </row>
     <row r="113" spans="2:13">
@@ -22245,28 +22517,28 @@
         <v>259</v>
       </c>
       <c r="F113" s="3" t="s">
-        <v>976</v>
+        <v>998</v>
       </c>
       <c r="G113" s="3" t="s">
-        <v>880</v>
+        <v>897</v>
       </c>
       <c r="H113" s="3" t="s">
-        <v>977</v>
+        <v>999</v>
       </c>
       <c r="I113" s="3" t="s">
-        <v>978</v>
+        <v>1000</v>
       </c>
       <c r="J113" s="3" t="s">
-        <v>979</v>
+        <v>1001</v>
       </c>
       <c r="K113" s="3" t="s">
-        <v>980</v>
+        <v>1002</v>
       </c>
       <c r="L113" s="3" t="s">
-        <v>981</v>
+        <v>1003</v>
       </c>
       <c r="M113" s="3" t="s">
-        <v>982</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="114" spans="2:13">
@@ -22274,28 +22546,28 @@
         <v>261</v>
       </c>
       <c r="F114" s="3" t="s">
-        <v>427</v>
+        <v>440</v>
       </c>
       <c r="G114" s="3" t="s">
-        <v>983</v>
+        <v>1005</v>
       </c>
       <c r="H114" s="3" t="s">
         <v>335</v>
       </c>
       <c r="I114" s="3" t="s">
-        <v>984</v>
+        <v>1006</v>
       </c>
       <c r="J114" s="3" t="s">
-        <v>985</v>
+        <v>1007</v>
       </c>
       <c r="K114" s="3" t="s">
-        <v>986</v>
+        <v>1008</v>
       </c>
       <c r="L114" s="3" t="s">
-        <v>987</v>
+        <v>1009</v>
       </c>
       <c r="M114" s="3" t="s">
-        <v>988</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="115" spans="2:13">
@@ -22303,28 +22575,28 @@
         <v>263</v>
       </c>
       <c r="F115" s="3" t="s">
-        <v>989</v>
+        <v>1011</v>
       </c>
       <c r="G115" s="3" t="s">
-        <v>990</v>
+        <v>1012</v>
       </c>
       <c r="H115" s="3" t="s">
-        <v>991</v>
+        <v>1013</v>
       </c>
       <c r="I115" s="3" t="s">
-        <v>992</v>
+        <v>1014</v>
       </c>
       <c r="J115" s="3" t="s">
-        <v>993</v>
+        <v>1015</v>
       </c>
       <c r="K115" s="3" t="s">
-        <v>747</v>
+        <v>766</v>
       </c>
       <c r="L115" s="3" t="s">
-        <v>994</v>
+        <v>1016</v>
       </c>
       <c r="M115" s="3" t="s">
-        <v>995</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="116" spans="2:13">
@@ -22332,28 +22604,28 @@
         <v>265</v>
       </c>
       <c r="F116" s="3" t="s">
-        <v>996</v>
+        <v>1018</v>
       </c>
       <c r="G116" s="3" t="s">
-        <v>747</v>
+        <v>766</v>
       </c>
       <c r="H116" s="3" t="s">
-        <v>997</v>
+        <v>1019</v>
       </c>
       <c r="I116" s="3" t="s">
-        <v>998</v>
+        <v>1020</v>
       </c>
       <c r="J116" s="3" t="s">
-        <v>999</v>
+        <v>1021</v>
       </c>
       <c r="K116" s="3" t="s">
-        <v>1000</v>
+        <v>1022</v>
       </c>
       <c r="L116" s="3" t="s">
-        <v>1001</v>
+        <v>1023</v>
       </c>
       <c r="M116" s="3" t="s">
-        <v>741</v>
+        <v>761</v>
       </c>
     </row>
     <row r="117" spans="2:13">
@@ -22361,28 +22633,28 @@
         <v>267</v>
       </c>
       <c r="F117" s="3" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="G117" s="3" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="H117" s="3" t="s">
-        <v>1002</v>
+        <v>1024</v>
       </c>
       <c r="I117" s="3" t="s">
-        <v>1003</v>
+        <v>1025</v>
       </c>
       <c r="J117" s="3" t="s">
-        <v>1004</v>
+        <v>1026</v>
       </c>
       <c r="K117" s="3" t="s">
-        <v>1005</v>
+        <v>1027</v>
       </c>
       <c r="L117" s="3" t="s">
-        <v>1006</v>
+        <v>1028</v>
       </c>
       <c r="M117" s="3" t="s">
-        <v>549</v>
+        <v>568</v>
       </c>
     </row>
     <row r="118" spans="2:13">
@@ -22390,28 +22662,28 @@
         <v>269</v>
       </c>
       <c r="F118" s="3" t="s">
-        <v>903</v>
+        <v>925</v>
       </c>
       <c r="G118" s="3" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="H118" s="3" t="s">
-        <v>1007</v>
+        <v>1029</v>
       </c>
       <c r="I118" s="3" t="s">
-        <v>1008</v>
+        <v>1030</v>
       </c>
       <c r="J118" s="3" t="s">
-        <v>516</v>
+        <v>535</v>
       </c>
       <c r="K118" s="3" t="s">
-        <v>1009</v>
+        <v>1031</v>
       </c>
       <c r="L118" s="3" t="s">
-        <v>1010</v>
+        <v>1032</v>
       </c>
       <c r="M118" s="3" t="s">
-        <v>1011</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="119" spans="2:13">
@@ -22419,28 +22691,28 @@
         <v>270</v>
       </c>
       <c r="F119" s="3" t="s">
-        <v>1012</v>
+        <v>1034</v>
       </c>
       <c r="G119" s="3" t="s">
-        <v>550</v>
+        <v>569</v>
       </c>
       <c r="H119" s="3" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="I119" s="3" t="s">
-        <v>1013</v>
+        <v>1035</v>
       </c>
       <c r="J119" s="3" t="s">
-        <v>1014</v>
+        <v>1036</v>
       </c>
       <c r="K119" s="3" t="s">
-        <v>1015</v>
+        <v>1037</v>
       </c>
       <c r="L119" s="3" t="s">
-        <v>1016</v>
+        <v>1038</v>
       </c>
       <c r="M119" s="3" t="s">
-        <v>1017</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="120" spans="2:13">
@@ -22448,28 +22720,28 @@
         <v>272</v>
       </c>
       <c r="F120" s="3" t="s">
-        <v>1018</v>
+        <v>1040</v>
       </c>
       <c r="G120" s="3" t="s">
-        <v>1019</v>
+        <v>1041</v>
       </c>
       <c r="H120" s="3" t="s">
-        <v>699</v>
+        <v>717</v>
       </c>
       <c r="I120" s="3" t="s">
-        <v>608</v>
+        <v>626</v>
       </c>
       <c r="J120" s="3" t="s">
-        <v>1020</v>
+        <v>1042</v>
       </c>
       <c r="K120" s="3" t="s">
-        <v>1021</v>
+        <v>1043</v>
       </c>
       <c r="L120" s="3" t="s">
-        <v>1022</v>
+        <v>1044</v>
       </c>
       <c r="M120" s="3" t="s">
-        <v>1023</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="121" spans="2:13">
@@ -22477,28 +22749,28 @@
         <v>274</v>
       </c>
       <c r="F121" s="3" t="s">
-        <v>910</v>
+        <v>932</v>
       </c>
       <c r="G121" s="3" t="s">
-        <v>1024</v>
+        <v>1046</v>
       </c>
       <c r="H121" s="3" t="s">
-        <v>1025</v>
+        <v>1047</v>
       </c>
       <c r="I121" s="3" t="s">
-        <v>430</v>
+        <v>344</v>
       </c>
       <c r="J121" s="3" t="s">
-        <v>1026</v>
+        <v>1048</v>
       </c>
       <c r="K121" s="3" t="s">
-        <v>1027</v>
+        <v>1049</v>
       </c>
       <c r="L121" s="3" t="s">
-        <v>1028</v>
+        <v>1050</v>
       </c>
       <c r="M121" s="3" t="s">
-        <v>1029</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="122" spans="2:13">
@@ -22506,28 +22778,28 @@
         <v>276</v>
       </c>
       <c r="F122" s="3" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="G122" s="3" t="s">
-        <v>824</v>
+        <v>841</v>
       </c>
       <c r="H122" s="3" t="s">
-        <v>584</v>
+        <v>602</v>
       </c>
       <c r="I122" s="3" t="s">
-        <v>1030</v>
+        <v>1052</v>
       </c>
       <c r="J122" s="3" t="s">
-        <v>1031</v>
+        <v>1053</v>
       </c>
       <c r="K122" s="3" t="s">
-        <v>1032</v>
+        <v>1054</v>
       </c>
       <c r="L122" s="3" t="s">
-        <v>1033</v>
+        <v>1055</v>
       </c>
       <c r="M122" s="3" t="s">
-        <v>1034</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="123" spans="2:13">
@@ -22538,25 +22810,25 @@
         <v>319</v>
       </c>
       <c r="G123" s="3" t="s">
-        <v>969</v>
+        <v>991</v>
       </c>
       <c r="H123" s="3" t="s">
-        <v>1035</v>
+        <v>1057</v>
       </c>
       <c r="I123" s="3" t="s">
-        <v>790</v>
+        <v>407</v>
       </c>
       <c r="J123" s="3" t="s">
-        <v>1036</v>
+        <v>1058</v>
       </c>
       <c r="K123" s="3" t="s">
-        <v>545</v>
+        <v>564</v>
       </c>
       <c r="L123" s="3" t="s">
-        <v>1037</v>
+        <v>1059</v>
       </c>
       <c r="M123" s="3" t="s">
-        <v>1038</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="124" spans="2:13">
@@ -22564,28 +22836,28 @@
         <v>279</v>
       </c>
       <c r="F124" s="3" t="s">
-        <v>454</v>
+        <v>473</v>
       </c>
       <c r="G124" s="3" t="s">
-        <v>421</v>
+        <v>434</v>
       </c>
       <c r="H124" s="3" t="s">
-        <v>1039</v>
+        <v>1061</v>
       </c>
       <c r="I124" s="3" t="s">
-        <v>1040</v>
+        <v>1062</v>
       </c>
       <c r="J124" s="3" t="s">
-        <v>1041</v>
+        <v>1063</v>
       </c>
       <c r="K124" s="3" t="s">
-        <v>1042</v>
+        <v>1064</v>
       </c>
       <c r="L124" s="3" t="s">
-        <v>1043</v>
+        <v>1065</v>
       </c>
       <c r="M124" s="3" t="s">
-        <v>1044</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="125" spans="2:13">
@@ -22593,79 +22865,79 @@
         <v>281</v>
       </c>
       <c r="F125" s="3" t="s">
-        <v>1045</v>
+        <v>1067</v>
       </c>
       <c r="G125" s="3" t="s">
-        <v>556</v>
+        <v>575</v>
       </c>
       <c r="H125" s="3" t="s">
-        <v>1046</v>
+        <v>1068</v>
       </c>
       <c r="I125" s="3" t="s">
-        <v>462</v>
+        <v>481</v>
       </c>
       <c r="J125" s="3" t="s">
-        <v>1047</v>
+        <v>1069</v>
       </c>
       <c r="K125" s="3" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="L125" s="3" t="s">
-        <v>1048</v>
+        <v>1070</v>
       </c>
       <c r="M125" s="3" t="s">
-        <v>1049</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="126" ht="14" spans="6:13">
-      <c r="F126" s="5"/>
-      <c r="G126" s="5"/>
-      <c r="H126" s="5"/>
-      <c r="I126" s="5"/>
-      <c r="J126" s="5"/>
-      <c r="K126" s="5"/>
-      <c r="L126" s="5"/>
-      <c r="M126" s="5"/>
+      <c r="F126" s="4"/>
+      <c r="G126" s="4"/>
+      <c r="H126" s="4"/>
+      <c r="I126" s="4"/>
+      <c r="J126" s="4"/>
+      <c r="K126" s="4"/>
+      <c r="L126" s="4"/>
+      <c r="M126" s="4"/>
     </row>
     <row r="127" ht="14" spans="6:13">
-      <c r="F127" s="5"/>
-      <c r="G127" s="5"/>
-      <c r="H127" s="5"/>
-      <c r="I127" s="5"/>
-      <c r="J127" s="5"/>
-      <c r="K127" s="5"/>
-      <c r="L127" s="5"/>
-      <c r="M127" s="5"/>
+      <c r="F127" s="4"/>
+      <c r="G127" s="4"/>
+      <c r="H127" s="4"/>
+      <c r="I127" s="4"/>
+      <c r="J127" s="4"/>
+      <c r="K127" s="4"/>
+      <c r="L127" s="4"/>
+      <c r="M127" s="4"/>
     </row>
     <row r="128" ht="14" spans="6:13">
-      <c r="F128" s="5"/>
-      <c r="G128" s="5"/>
-      <c r="H128" s="5"/>
-      <c r="I128" s="5"/>
-      <c r="J128" s="5"/>
-      <c r="K128" s="5"/>
-      <c r="L128" s="5"/>
-      <c r="M128" s="5"/>
+      <c r="F128" s="4"/>
+      <c r="G128" s="4"/>
+      <c r="H128" s="4"/>
+      <c r="I128" s="4"/>
+      <c r="J128" s="4"/>
+      <c r="K128" s="4"/>
+      <c r="L128" s="4"/>
+      <c r="M128" s="4"/>
     </row>
     <row r="151" ht="14" spans="6:13">
-      <c r="F151" s="6"/>
-      <c r="G151" s="6"/>
-      <c r="H151" s="6"/>
-      <c r="I151" s="6"/>
-      <c r="J151" s="6"/>
-      <c r="K151" s="6"/>
-      <c r="L151" s="6"/>
-      <c r="M151" s="6"/>
+      <c r="F151" s="5"/>
+      <c r="G151" s="5"/>
+      <c r="H151" s="5"/>
+      <c r="I151" s="5"/>
+      <c r="J151" s="5"/>
+      <c r="K151" s="5"/>
+      <c r="L151" s="5"/>
+      <c r="M151" s="5"/>
     </row>
     <row r="152" ht="14" spans="6:13">
-      <c r="F152" s="6"/>
-      <c r="G152" s="6"/>
-      <c r="H152" s="6"/>
-      <c r="I152" s="6"/>
-      <c r="J152" s="6"/>
-      <c r="K152" s="6"/>
-      <c r="L152" s="6"/>
-      <c r="M152" s="6"/>
+      <c r="F152" s="5"/>
+      <c r="G152" s="5"/>
+      <c r="H152" s="5"/>
+      <c r="I152" s="5"/>
+      <c r="J152" s="5"/>
+      <c r="K152" s="5"/>
+      <c r="L152" s="5"/>
+      <c r="M152" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Doc/ExcelConfig/Datas/dota/BuildingLevelUpConfig.xlsx
+++ b/Doc/ExcelConfig/Datas/dota/BuildingLevelUpConfig.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1562" uniqueCount="1072">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1570" uniqueCount="1077">
   <si>
     <t>##</t>
   </si>
@@ -2440,6 +2440,21 @@
   </si>
   <si>
     <t>special_bonus_imba_phoenix_8</t>
+  </si>
+  <si>
+    <t>special_bonus_imba_puck_phase_shift_attacks</t>
+  </si>
+  <si>
+    <t>special_bonus_imba_puck_waning_rift_cooldown</t>
+  </si>
+  <si>
+    <t>special_bonus_imba_puck_illusory_orb_speed</t>
+  </si>
+  <si>
+    <t>special_bonus_imba_puck_waning_rift_range</t>
+  </si>
+  <si>
+    <t>special_bonus_imba_puck_dream_coil_targets</t>
   </si>
   <si>
     <t>special_bonus_imba_pudge_4</t>
@@ -3868,7 +3883,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3878,6 +3893,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -4268,8 +4284,8 @@
   <sheetPr/>
   <dimension ref="A1:L496"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E459" workbookViewId="0">
-      <selection activeCell="K93" sqref="K93:L96"/>
+    <sheetView tabSelected="1" topLeftCell="C294" workbookViewId="0">
+      <selection activeCell="K313" sqref="K313:L316"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -4297,47 +4313,47 @@
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="12" t="s">
+      <c r="D1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="12" t="s">
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
     </row>
     <row r="3" ht="15" spans="1:12">
       <c r="A3" t="s">
@@ -4355,16 +4371,16 @@
       <c r="H3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="13" t="s">
+      <c r="I3" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="J3" s="14" t="s">
+      <c r="J3" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="K3" s="15" t="s">
+      <c r="K3" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="L3" s="15" t="s">
+      <c r="L3" s="16" t="s">
         <v>20</v>
       </c>
     </row>
@@ -4378,10 +4394,10 @@
       <c r="C4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="8" t="s">
         <v>24</v>
       </c>
       <c r="F4" t="s">
@@ -4393,16 +4409,16 @@
       <c r="H4" t="s">
         <v>27</v>
       </c>
-      <c r="I4" s="13" t="s">
+      <c r="I4" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="J4" s="16" t="s">
+      <c r="J4" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="K4" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="L4" s="18" t="s">
+      <c r="K4" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="L4" s="19" t="s">
         <v>31</v>
       </c>
     </row>
@@ -13296,7 +13312,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="313" ht="15" spans="2:10">
+    <row r="313" ht="15" spans="2:12">
       <c r="B313" s="2" t="s">
         <v>194</v>
       </c>
@@ -13324,8 +13340,16 @@
       <c r="J313">
         <v>1</v>
       </c>
-    </row>
-    <row r="314" ht="15" spans="2:10">
+      <c r="K313" t="str">
+        <f>VLOOKUP(B313,Sheet3!$B:$M,5,0)</f>
+        <v>special_bonus_imba_puck_phase_shift_attacks</v>
+      </c>
+      <c r="L313" t="str">
+        <f>VLOOKUP(B313,Sheet3!$B:$M,6,0)</f>
+        <v>special_bonus_imba_cast_range_200</v>
+      </c>
+    </row>
+    <row r="314" ht="15" spans="2:12">
       <c r="B314" s="2"/>
       <c r="E314">
         <v>3</v>
@@ -13342,8 +13366,16 @@
       <c r="J314">
         <v>2</v>
       </c>
-    </row>
-    <row r="315" ht="15" spans="2:10">
+      <c r="K314" t="str">
+        <f>VLOOKUP(B313,Sheet3!$B:$M,7,0)</f>
+        <v>special_bonus_imba_spell_amplify_15</v>
+      </c>
+      <c r="L314" t="str">
+        <f>VLOOKUP(B313,Sheet3!$B:$M,8,0)</f>
+        <v>special_bonus_imba_attack_damage_90</v>
+      </c>
+    </row>
+    <row r="315" ht="15" spans="2:12">
       <c r="B315" s="2"/>
       <c r="E315">
         <v>4</v>
@@ -13360,8 +13392,16 @@
       <c r="J315">
         <v>3</v>
       </c>
-    </row>
-    <row r="316" ht="15" spans="2:10">
+      <c r="K315" t="str">
+        <f>VLOOKUP(B313,Sheet3!$B:$M,9,0)</f>
+        <v>special_bonus_imba_puck_waning_rift_cooldown</v>
+      </c>
+      <c r="L315" t="str">
+        <f>VLOOKUP(B313,Sheet3!$B:$M,10,0)</f>
+        <v>special_bonus_imba_puck_illusory_orb_speed</v>
+      </c>
+    </row>
+    <row r="316" ht="15" spans="2:12">
       <c r="B316" s="2"/>
       <c r="E316">
         <v>5</v>
@@ -13377,6 +13417,14 @@
       </c>
       <c r="J316">
         <v>4</v>
+      </c>
+      <c r="K316" t="str">
+        <f>VLOOKUP(B313,Sheet3!$B:$M,11,0)</f>
+        <v>special_bonus_imba_puck_waning_rift_range</v>
+      </c>
+      <c r="L316" t="str">
+        <f>VLOOKUP(B313,Sheet3!$B:$M,12,0)</f>
+        <v>special_bonus_imba_puck_dream_coil_targets</v>
       </c>
     </row>
     <row r="317" ht="15" spans="2:12">
@@ -19290,8 +19338,8 @@
   <sheetPr/>
   <dimension ref="B1:M152"/>
   <sheetViews>
-    <sheetView topLeftCell="G52" workbookViewId="0">
-      <selection activeCell="M65" sqref="M65"/>
+    <sheetView topLeftCell="D55" workbookViewId="0">
+      <selection activeCell="L80" sqref="L80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -21575,14 +21623,30 @@
       <c r="B80" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="F80" s="3"/>
-      <c r="G80" s="3"/>
-      <c r="H80" s="3"/>
-      <c r="I80" s="3"/>
-      <c r="J80" s="3"/>
-      <c r="K80" s="3"/>
-      <c r="L80" s="3"/>
-      <c r="M80" s="3"/>
+      <c r="F80" s="3" t="s">
+        <v>808</v>
+      </c>
+      <c r="G80" s="4" t="s">
+        <v>433</v>
+      </c>
+      <c r="H80" s="3" t="s">
+        <v>535</v>
+      </c>
+      <c r="I80" s="4" t="s">
+        <v>453</v>
+      </c>
+      <c r="J80" s="4" t="s">
+        <v>809</v>
+      </c>
+      <c r="K80" s="4" t="s">
+        <v>810</v>
+      </c>
+      <c r="L80" s="4" t="s">
+        <v>811</v>
+      </c>
+      <c r="M80" s="3" t="s">
+        <v>812</v>
+      </c>
     </row>
     <row r="81" spans="2:13">
       <c r="B81" s="2" t="s">
@@ -21592,25 +21656,25 @@
         <v>364</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>808</v>
+        <v>813</v>
       </c>
       <c r="H81" s="3" t="s">
         <v>407</v>
       </c>
       <c r="I81" s="3" t="s">
-        <v>809</v>
+        <v>814</v>
       </c>
       <c r="J81" s="3" t="s">
-        <v>810</v>
+        <v>815</v>
       </c>
       <c r="K81" s="3" t="s">
         <v>367</v>
       </c>
       <c r="L81" s="3" t="s">
-        <v>811</v>
+        <v>816</v>
       </c>
       <c r="M81" s="3" t="s">
-        <v>812</v>
+        <v>817</v>
       </c>
     </row>
     <row r="82" spans="2:13">
@@ -21618,28 +21682,28 @@
         <v>198</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>813</v>
+        <v>818</v>
       </c>
       <c r="G82" s="3" t="s">
         <v>402</v>
       </c>
       <c r="H82" s="3" t="s">
-        <v>814</v>
+        <v>819</v>
       </c>
       <c r="I82" s="3" t="s">
-        <v>815</v>
+        <v>820</v>
       </c>
       <c r="J82" s="3" t="s">
-        <v>816</v>
+        <v>821</v>
       </c>
       <c r="K82" s="3" t="s">
-        <v>817</v>
+        <v>822</v>
       </c>
       <c r="L82" s="3" t="s">
-        <v>818</v>
+        <v>823</v>
       </c>
       <c r="M82" s="3" t="s">
-        <v>819</v>
+        <v>824</v>
       </c>
     </row>
     <row r="83" spans="2:13">
@@ -21647,28 +21711,28 @@
         <v>200</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>820</v>
+        <v>825</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>821</v>
+        <v>826</v>
       </c>
       <c r="H83" s="3" t="s">
-        <v>822</v>
+        <v>827</v>
       </c>
       <c r="I83" s="3" t="s">
-        <v>823</v>
+        <v>828</v>
       </c>
       <c r="J83" s="3" t="s">
         <v>483</v>
       </c>
       <c r="K83" s="3" t="s">
-        <v>824</v>
+        <v>829</v>
       </c>
       <c r="L83" s="3" t="s">
-        <v>825</v>
+        <v>830</v>
       </c>
       <c r="M83" s="3" t="s">
-        <v>826</v>
+        <v>831</v>
       </c>
     </row>
     <row r="84" spans="2:13">
@@ -21685,19 +21749,19 @@
         <v>442</v>
       </c>
       <c r="I84" s="3" t="s">
-        <v>827</v>
+        <v>832</v>
       </c>
       <c r="J84" s="3" t="s">
-        <v>828</v>
+        <v>833</v>
       </c>
       <c r="K84" s="3" t="s">
-        <v>829</v>
+        <v>834</v>
       </c>
       <c r="L84" s="3" t="s">
         <v>769</v>
       </c>
       <c r="M84" s="3" t="s">
-        <v>830</v>
+        <v>835</v>
       </c>
     </row>
     <row r="85" spans="2:13">
@@ -21705,22 +21769,22 @@
         <v>204</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>831</v>
+        <v>836</v>
       </c>
       <c r="G85" s="3" t="s">
         <v>724</v>
       </c>
       <c r="H85" s="3" t="s">
-        <v>832</v>
+        <v>837</v>
       </c>
       <c r="I85" s="3" t="s">
         <v>427</v>
       </c>
       <c r="J85" s="3" t="s">
-        <v>833</v>
+        <v>838</v>
       </c>
       <c r="K85" s="3" t="s">
-        <v>834</v>
+        <v>839</v>
       </c>
       <c r="L85" s="3" t="s">
         <v>462</v>
@@ -21734,7 +21798,7 @@
         <v>206</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>835</v>
+        <v>840</v>
       </c>
       <c r="G86" s="3" t="s">
         <v>333</v>
@@ -21743,19 +21807,19 @@
         <v>560</v>
       </c>
       <c r="I86" s="3" t="s">
-        <v>836</v>
+        <v>841</v>
       </c>
       <c r="J86" s="3" t="s">
-        <v>837</v>
+        <v>842</v>
       </c>
       <c r="K86" s="3" t="s">
-        <v>838</v>
+        <v>843</v>
       </c>
       <c r="L86" s="3" t="s">
-        <v>839</v>
+        <v>844</v>
       </c>
       <c r="M86" s="3" t="s">
-        <v>840</v>
+        <v>845</v>
       </c>
     </row>
     <row r="87" spans="2:13">
@@ -21766,25 +21830,25 @@
         <v>300</v>
       </c>
       <c r="G87" s="3" t="s">
-        <v>841</v>
+        <v>846</v>
       </c>
       <c r="H87" s="3" t="s">
         <v>487</v>
       </c>
       <c r="I87" s="3" t="s">
-        <v>842</v>
+        <v>847</v>
       </c>
       <c r="J87" s="3" t="s">
-        <v>843</v>
+        <v>848</v>
       </c>
       <c r="K87" s="3" t="s">
-        <v>844</v>
+        <v>849</v>
       </c>
       <c r="L87" s="3" t="s">
-        <v>845</v>
+        <v>850</v>
       </c>
       <c r="M87" t="s">
-        <v>846</v>
+        <v>851</v>
       </c>
     </row>
     <row r="88" spans="2:13">
@@ -21792,28 +21856,28 @@
         <v>210</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>847</v>
+        <v>852</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>848</v>
+        <v>853</v>
       </c>
       <c r="H88" s="3" t="s">
-        <v>849</v>
+        <v>854</v>
       </c>
       <c r="I88" s="3" t="s">
-        <v>850</v>
+        <v>855</v>
       </c>
       <c r="J88" s="3" t="s">
         <v>374</v>
       </c>
       <c r="K88" s="3" t="s">
-        <v>851</v>
+        <v>856</v>
       </c>
       <c r="L88" s="3" t="s">
-        <v>852</v>
+        <v>857</v>
       </c>
       <c r="M88" s="3" t="s">
-        <v>853</v>
+        <v>858</v>
       </c>
     </row>
     <row r="89" spans="2:13">
@@ -21821,28 +21885,28 @@
         <v>212</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>854</v>
+        <v>859</v>
       </c>
       <c r="G89" s="3" t="s">
-        <v>855</v>
+        <v>860</v>
       </c>
       <c r="H89" s="3" t="s">
         <v>402</v>
       </c>
       <c r="I89" s="3" t="s">
-        <v>856</v>
+        <v>861</v>
       </c>
       <c r="J89" s="3" t="s">
-        <v>857</v>
+        <v>862</v>
       </c>
       <c r="K89" s="3" t="s">
-        <v>858</v>
+        <v>863</v>
       </c>
       <c r="L89" s="3" t="s">
-        <v>859</v>
+        <v>864</v>
       </c>
       <c r="M89" s="3" t="s">
-        <v>860</v>
+        <v>865</v>
       </c>
     </row>
     <row r="90" spans="2:13">
@@ -21859,19 +21923,19 @@
         <v>652</v>
       </c>
       <c r="I90" s="3" t="s">
-        <v>861</v>
+        <v>866</v>
       </c>
       <c r="J90" s="3" t="s">
-        <v>862</v>
+        <v>867</v>
       </c>
       <c r="K90" s="3" t="s">
-        <v>863</v>
+        <v>868</v>
       </c>
       <c r="L90" s="3" t="s">
-        <v>864</v>
+        <v>869</v>
       </c>
       <c r="M90" s="3" t="s">
-        <v>865</v>
+        <v>870</v>
       </c>
     </row>
     <row r="91" spans="2:13">
@@ -21882,13 +21946,13 @@
         <v>751</v>
       </c>
       <c r="G91" s="3" t="s">
-        <v>866</v>
+        <v>871</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>325</v>
       </c>
       <c r="I91" s="3" t="s">
-        <v>867</v>
+        <v>872</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>421</v>
@@ -21897,10 +21961,10 @@
         <v>367</v>
       </c>
       <c r="L91" s="3" t="s">
-        <v>868</v>
+        <v>873</v>
       </c>
       <c r="M91" s="3" t="s">
-        <v>869</v>
+        <v>874</v>
       </c>
     </row>
     <row r="92" spans="2:13">
@@ -21908,28 +21972,28 @@
         <v>218</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>870</v>
+        <v>875</v>
       </c>
       <c r="G92" s="3" t="s">
         <v>301</v>
       </c>
       <c r="H92" s="3" t="s">
-        <v>871</v>
+        <v>876</v>
       </c>
       <c r="I92" s="3" t="s">
-        <v>872</v>
+        <v>877</v>
       </c>
       <c r="J92" s="3" t="s">
         <v>344</v>
       </c>
       <c r="K92" s="3" t="s">
-        <v>873</v>
+        <v>878</v>
       </c>
       <c r="L92" s="3" t="s">
-        <v>874</v>
+        <v>879</v>
       </c>
       <c r="M92" s="3" t="s">
-        <v>875</v>
+        <v>880</v>
       </c>
     </row>
     <row r="93" spans="2:13">
@@ -21937,28 +22001,28 @@
         <v>220</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>876</v>
+        <v>881</v>
       </c>
       <c r="G93" s="3" t="s">
-        <v>877</v>
+        <v>882</v>
       </c>
       <c r="H93" s="3" t="s">
         <v>442</v>
       </c>
       <c r="I93" s="3" t="s">
-        <v>878</v>
+        <v>883</v>
       </c>
       <c r="J93" s="3" t="s">
-        <v>879</v>
+        <v>884</v>
       </c>
       <c r="K93" s="3" t="s">
-        <v>880</v>
+        <v>885</v>
       </c>
       <c r="L93" s="3" t="s">
-        <v>881</v>
+        <v>886</v>
       </c>
       <c r="M93" s="3" t="s">
-        <v>882</v>
+        <v>887</v>
       </c>
     </row>
     <row r="94" spans="2:13">
@@ -21969,25 +22033,25 @@
         <v>614</v>
       </c>
       <c r="G94" s="3" t="s">
-        <v>883</v>
+        <v>888</v>
       </c>
       <c r="H94" s="3" t="s">
-        <v>884</v>
+        <v>889</v>
       </c>
       <c r="I94" s="3" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
       <c r="J94" s="3" t="s">
-        <v>886</v>
+        <v>891</v>
       </c>
       <c r="K94" s="3" t="s">
-        <v>887</v>
+        <v>892</v>
       </c>
       <c r="L94" s="3" t="s">
-        <v>888</v>
+        <v>893</v>
       </c>
       <c r="M94" s="3" t="s">
-        <v>889</v>
+        <v>894</v>
       </c>
     </row>
     <row r="95" spans="2:13">
@@ -21995,28 +22059,28 @@
         <v>224</v>
       </c>
       <c r="F95" s="3" t="s">
-        <v>890</v>
+        <v>895</v>
       </c>
       <c r="G95" s="3" t="s">
-        <v>891</v>
+        <v>896</v>
       </c>
       <c r="H95" s="3" t="s">
-        <v>892</v>
+        <v>897</v>
       </c>
       <c r="I95" s="3" t="s">
-        <v>893</v>
+        <v>898</v>
       </c>
       <c r="J95" s="3" t="s">
         <v>345</v>
       </c>
       <c r="K95" s="3" t="s">
-        <v>894</v>
+        <v>899</v>
       </c>
       <c r="L95" s="3" t="s">
-        <v>895</v>
+        <v>900</v>
       </c>
       <c r="M95" s="3" t="s">
-        <v>896</v>
+        <v>901</v>
       </c>
     </row>
     <row r="96" spans="2:13">
@@ -22024,28 +22088,28 @@
         <v>226</v>
       </c>
       <c r="F96" s="3" t="s">
-        <v>897</v>
+        <v>902</v>
       </c>
       <c r="G96" s="3" t="s">
-        <v>898</v>
+        <v>903</v>
       </c>
       <c r="H96" s="3" t="s">
         <v>301</v>
       </c>
       <c r="I96" s="3" t="s">
-        <v>899</v>
+        <v>904</v>
       </c>
       <c r="J96" s="3" t="s">
-        <v>900</v>
+        <v>905</v>
       </c>
       <c r="K96" s="3" t="s">
-        <v>901</v>
+        <v>906</v>
       </c>
       <c r="L96" s="3" t="s">
-        <v>902</v>
+        <v>907</v>
       </c>
       <c r="M96" s="3" t="s">
-        <v>903</v>
+        <v>908</v>
       </c>
     </row>
     <row r="97" spans="2:13">
@@ -22059,22 +22123,22 @@
         <v>402</v>
       </c>
       <c r="H97" s="3" t="s">
-        <v>904</v>
+        <v>909</v>
       </c>
       <c r="I97" s="3" t="s">
-        <v>905</v>
+        <v>910</v>
       </c>
       <c r="J97" s="3" t="s">
-        <v>906</v>
+        <v>911</v>
       </c>
       <c r="K97" s="3" t="s">
-        <v>907</v>
+        <v>912</v>
       </c>
       <c r="L97" s="3" t="s">
-        <v>908</v>
+        <v>913</v>
       </c>
       <c r="M97" s="3" t="s">
-        <v>909</v>
+        <v>914</v>
       </c>
     </row>
     <row r="98" spans="2:13">
@@ -22091,19 +22155,19 @@
         <v>348</v>
       </c>
       <c r="I98" s="3" t="s">
-        <v>910</v>
+        <v>915</v>
       </c>
       <c r="J98" s="3" t="s">
-        <v>911</v>
+        <v>916</v>
       </c>
       <c r="K98" s="3" t="s">
         <v>475</v>
       </c>
       <c r="L98" s="3" t="s">
-        <v>912</v>
+        <v>917</v>
       </c>
       <c r="M98" s="3" t="s">
-        <v>913</v>
+        <v>918</v>
       </c>
     </row>
     <row r="99" spans="2:13">
@@ -22111,7 +22175,7 @@
         <v>231</v>
       </c>
       <c r="F99" s="3" t="s">
-        <v>914</v>
+        <v>919</v>
       </c>
       <c r="G99" s="3" t="s">
         <v>394</v>
@@ -22120,19 +22184,19 @@
         <v>351</v>
       </c>
       <c r="I99" s="3" t="s">
-        <v>915</v>
+        <v>920</v>
       </c>
       <c r="J99" s="3" t="s">
-        <v>916</v>
+        <v>921</v>
       </c>
       <c r="K99" s="3" t="s">
-        <v>917</v>
+        <v>922</v>
       </c>
       <c r="L99" s="3" t="s">
-        <v>918</v>
+        <v>923</v>
       </c>
       <c r="M99" s="3" t="s">
-        <v>919</v>
+        <v>924</v>
       </c>
     </row>
     <row r="100" spans="2:13">
@@ -22140,7 +22204,7 @@
         <v>233</v>
       </c>
       <c r="F100" s="3" t="s">
-        <v>920</v>
+        <v>925</v>
       </c>
       <c r="G100" s="3" t="s">
         <v>364</v>
@@ -22152,16 +22216,16 @@
         <v>371</v>
       </c>
       <c r="J100" s="3" t="s">
-        <v>921</v>
+        <v>926</v>
       </c>
       <c r="K100" s="3" t="s">
-        <v>922</v>
+        <v>927</v>
       </c>
       <c r="L100" s="3" t="s">
-        <v>923</v>
+        <v>928</v>
       </c>
       <c r="M100" s="3" t="s">
-        <v>924</v>
+        <v>929</v>
       </c>
     </row>
     <row r="101" spans="2:13">
@@ -22169,28 +22233,28 @@
         <v>235</v>
       </c>
       <c r="F101" s="3" t="s">
-        <v>813</v>
+        <v>818</v>
       </c>
       <c r="G101" s="3" t="s">
-        <v>925</v>
+        <v>930</v>
       </c>
       <c r="H101" s="3" t="s">
-        <v>926</v>
+        <v>931</v>
       </c>
       <c r="I101" s="3" t="s">
-        <v>927</v>
+        <v>932</v>
       </c>
       <c r="J101" s="3" t="s">
-        <v>928</v>
+        <v>933</v>
       </c>
       <c r="K101" s="3" t="s">
-        <v>929</v>
+        <v>934</v>
       </c>
       <c r="L101" s="3" t="s">
-        <v>930</v>
+        <v>935</v>
       </c>
       <c r="M101" s="3" t="s">
-        <v>931</v>
+        <v>936</v>
       </c>
     </row>
     <row r="102" spans="2:13">
@@ -22198,28 +22262,28 @@
         <v>237</v>
       </c>
       <c r="F102" s="3" t="s">
-        <v>897</v>
+        <v>902</v>
       </c>
       <c r="G102" s="3" t="s">
-        <v>932</v>
+        <v>937</v>
       </c>
       <c r="H102" s="3" t="s">
-        <v>933</v>
+        <v>938</v>
       </c>
       <c r="I102" s="3" t="s">
-        <v>934</v>
+        <v>939</v>
       </c>
       <c r="J102" s="3" t="s">
-        <v>935</v>
+        <v>940</v>
       </c>
       <c r="K102" s="3" t="s">
-        <v>936</v>
+        <v>941</v>
       </c>
       <c r="L102" s="3" t="s">
-        <v>937</v>
+        <v>942</v>
       </c>
       <c r="M102" s="3" t="s">
-        <v>938</v>
+        <v>943</v>
       </c>
     </row>
     <row r="103" spans="2:13">
@@ -22227,28 +22291,28 @@
         <v>239</v>
       </c>
       <c r="F103" s="3" t="s">
-        <v>939</v>
+        <v>944</v>
       </c>
       <c r="G103" s="3" t="s">
-        <v>940</v>
+        <v>945</v>
       </c>
       <c r="H103" s="3" t="s">
-        <v>941</v>
+        <v>946</v>
       </c>
       <c r="I103" s="3" t="s">
-        <v>942</v>
+        <v>947</v>
       </c>
       <c r="J103" s="3" t="s">
-        <v>943</v>
+        <v>948</v>
       </c>
       <c r="K103" s="3" t="s">
-        <v>944</v>
+        <v>949</v>
       </c>
       <c r="L103" s="3" t="s">
-        <v>945</v>
+        <v>950</v>
       </c>
       <c r="M103" s="3" t="s">
-        <v>946</v>
+        <v>951</v>
       </c>
     </row>
     <row r="104" spans="2:13">
@@ -22259,25 +22323,25 @@
         <v>333</v>
       </c>
       <c r="G104" s="3" t="s">
-        <v>947</v>
+        <v>952</v>
       </c>
       <c r="H104" s="3" t="s">
         <v>614</v>
       </c>
       <c r="I104" s="3" t="s">
-        <v>948</v>
+        <v>953</v>
       </c>
       <c r="J104" s="3" t="s">
-        <v>949</v>
+        <v>954</v>
       </c>
       <c r="K104" s="3" t="s">
-        <v>950</v>
+        <v>955</v>
       </c>
       <c r="L104" s="3" t="s">
-        <v>951</v>
+        <v>956</v>
       </c>
       <c r="M104" s="3" t="s">
-        <v>952</v>
+        <v>957</v>
       </c>
     </row>
     <row r="105" spans="2:13">
@@ -22288,7 +22352,7 @@
         <v>402</v>
       </c>
       <c r="G105" s="3" t="s">
-        <v>947</v>
+        <v>952</v>
       </c>
       <c r="H105" s="3" t="s">
         <v>575</v>
@@ -22300,13 +22364,13 @@
         <v>673</v>
       </c>
       <c r="K105" s="3" t="s">
-        <v>953</v>
+        <v>958</v>
       </c>
       <c r="L105" s="3" t="s">
-        <v>954</v>
+        <v>959</v>
       </c>
       <c r="M105" s="3" t="s">
-        <v>955</v>
+        <v>960</v>
       </c>
     </row>
     <row r="106" spans="2:13">
@@ -22317,25 +22381,25 @@
         <v>402</v>
       </c>
       <c r="G106" s="3" t="s">
-        <v>956</v>
+        <v>961</v>
       </c>
       <c r="H106" s="3" t="s">
-        <v>957</v>
+        <v>962</v>
       </c>
       <c r="I106" s="3" t="s">
-        <v>958</v>
+        <v>963</v>
       </c>
       <c r="J106" s="3" t="s">
-        <v>959</v>
+        <v>964</v>
       </c>
       <c r="K106" s="3" t="s">
-        <v>960</v>
+        <v>965</v>
       </c>
       <c r="L106" s="3" t="s">
         <v>428</v>
       </c>
       <c r="M106" s="3" t="s">
-        <v>961</v>
+        <v>966</v>
       </c>
     </row>
     <row r="107" spans="2:13">
@@ -22343,28 +22407,28 @@
         <v>247</v>
       </c>
       <c r="F107" s="3" t="s">
-        <v>962</v>
+        <v>967</v>
       </c>
       <c r="G107" s="3" t="s">
-        <v>963</v>
+        <v>968</v>
       </c>
       <c r="H107" s="3" t="s">
-        <v>964</v>
+        <v>969</v>
       </c>
       <c r="I107" s="3" t="s">
         <v>433</v>
       </c>
       <c r="J107" s="3" t="s">
-        <v>965</v>
+        <v>970</v>
       </c>
       <c r="K107" s="3" t="s">
         <v>709</v>
       </c>
       <c r="L107" s="3" t="s">
-        <v>826</v>
+        <v>831</v>
       </c>
       <c r="M107" s="3" t="s">
-        <v>966</v>
+        <v>971</v>
       </c>
     </row>
     <row r="108" spans="2:13">
@@ -22372,28 +22436,28 @@
         <v>249</v>
       </c>
       <c r="F108" s="3" t="s">
-        <v>967</v>
+        <v>972</v>
       </c>
       <c r="G108" s="3" t="s">
-        <v>968</v>
+        <v>973</v>
       </c>
       <c r="H108" s="3" t="s">
         <v>318</v>
       </c>
       <c r="I108" s="3" t="s">
-        <v>969</v>
+        <v>974</v>
       </c>
       <c r="J108" s="3" t="s">
         <v>421</v>
       </c>
       <c r="K108" s="3" t="s">
-        <v>970</v>
+        <v>975</v>
       </c>
       <c r="L108" s="3" t="s">
-        <v>971</v>
+        <v>976</v>
       </c>
       <c r="M108" s="3" t="s">
-        <v>972</v>
+        <v>977</v>
       </c>
     </row>
     <row r="109" spans="2:13">
@@ -22401,28 +22465,28 @@
         <v>251</v>
       </c>
       <c r="F109" s="3" t="s">
-        <v>841</v>
+        <v>846</v>
       </c>
       <c r="G109" s="3" t="s">
-        <v>973</v>
+        <v>978</v>
       </c>
       <c r="H109" s="3" t="s">
-        <v>974</v>
+        <v>979</v>
       </c>
       <c r="I109" s="3" t="s">
-        <v>975</v>
+        <v>980</v>
       </c>
       <c r="J109" s="3" t="s">
         <v>367</v>
       </c>
       <c r="K109" s="3" t="s">
-        <v>976</v>
+        <v>981</v>
       </c>
       <c r="L109" s="3" t="s">
-        <v>977</v>
+        <v>982</v>
       </c>
       <c r="M109" s="3" t="s">
-        <v>978</v>
+        <v>983</v>
       </c>
     </row>
     <row r="110" spans="2:13">
@@ -22430,28 +22494,28 @@
         <v>253</v>
       </c>
       <c r="F110" s="3" t="s">
-        <v>979</v>
+        <v>984</v>
       </c>
       <c r="G110" s="3" t="s">
-        <v>980</v>
+        <v>985</v>
       </c>
       <c r="H110" s="3" t="s">
-        <v>981</v>
+        <v>986</v>
       </c>
       <c r="I110" s="3" t="s">
-        <v>982</v>
+        <v>987</v>
       </c>
       <c r="J110" s="3" t="s">
-        <v>983</v>
+        <v>988</v>
       </c>
       <c r="K110" s="3" t="s">
         <v>371</v>
       </c>
       <c r="L110" s="3" t="s">
-        <v>984</v>
+        <v>989</v>
       </c>
       <c r="M110" s="3" t="s">
-        <v>985</v>
+        <v>990</v>
       </c>
     </row>
     <row r="111" spans="2:13">
@@ -22459,25 +22523,25 @@
         <v>255</v>
       </c>
       <c r="F111" s="3" t="s">
-        <v>986</v>
+        <v>991</v>
       </c>
       <c r="G111" s="3" t="s">
-        <v>987</v>
+        <v>992</v>
       </c>
       <c r="H111" s="3" t="s">
         <v>421</v>
       </c>
       <c r="I111" s="3" t="s">
-        <v>988</v>
+        <v>993</v>
       </c>
       <c r="J111" s="3" t="s">
         <v>410</v>
       </c>
       <c r="K111" s="3" t="s">
-        <v>989</v>
+        <v>994</v>
       </c>
       <c r="L111" s="3" t="s">
-        <v>990</v>
+        <v>995</v>
       </c>
       <c r="M111" s="3" t="s">
         <v>769</v>
@@ -22491,25 +22555,25 @@
         <v>487</v>
       </c>
       <c r="G112" s="3" t="s">
-        <v>991</v>
+        <v>996</v>
       </c>
       <c r="H112" s="3" t="s">
-        <v>992</v>
+        <v>997</v>
       </c>
       <c r="I112" s="3" t="s">
-        <v>993</v>
+        <v>998</v>
       </c>
       <c r="J112" s="3" t="s">
-        <v>994</v>
+        <v>999</v>
       </c>
       <c r="K112" s="3" t="s">
-        <v>995</v>
+        <v>1000</v>
       </c>
       <c r="L112" s="3" t="s">
-        <v>996</v>
+        <v>1001</v>
       </c>
       <c r="M112" s="3" t="s">
-        <v>997</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="113" spans="2:13">
@@ -22517,28 +22581,28 @@
         <v>259</v>
       </c>
       <c r="F113" s="3" t="s">
-        <v>998</v>
+        <v>1003</v>
       </c>
       <c r="G113" s="3" t="s">
-        <v>897</v>
+        <v>902</v>
       </c>
       <c r="H113" s="3" t="s">
-        <v>999</v>
+        <v>1004</v>
       </c>
       <c r="I113" s="3" t="s">
-        <v>1000</v>
+        <v>1005</v>
       </c>
       <c r="J113" s="3" t="s">
-        <v>1001</v>
+        <v>1006</v>
       </c>
       <c r="K113" s="3" t="s">
-        <v>1002</v>
+        <v>1007</v>
       </c>
       <c r="L113" s="3" t="s">
-        <v>1003</v>
+        <v>1008</v>
       </c>
       <c r="M113" s="3" t="s">
-        <v>1004</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="114" spans="2:13">
@@ -22549,25 +22613,25 @@
         <v>440</v>
       </c>
       <c r="G114" s="3" t="s">
-        <v>1005</v>
+        <v>1010</v>
       </c>
       <c r="H114" s="3" t="s">
         <v>335</v>
       </c>
       <c r="I114" s="3" t="s">
-        <v>1006</v>
+        <v>1011</v>
       </c>
       <c r="J114" s="3" t="s">
-        <v>1007</v>
+        <v>1012</v>
       </c>
       <c r="K114" s="3" t="s">
-        <v>1008</v>
+        <v>1013</v>
       </c>
       <c r="L114" s="3" t="s">
-        <v>1009</v>
+        <v>1014</v>
       </c>
       <c r="M114" s="3" t="s">
-        <v>1010</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="115" spans="2:13">
@@ -22575,28 +22639,28 @@
         <v>263</v>
       </c>
       <c r="F115" s="3" t="s">
-        <v>1011</v>
+        <v>1016</v>
       </c>
       <c r="G115" s="3" t="s">
-        <v>1012</v>
+        <v>1017</v>
       </c>
       <c r="H115" s="3" t="s">
-        <v>1013</v>
+        <v>1018</v>
       </c>
       <c r="I115" s="3" t="s">
-        <v>1014</v>
+        <v>1019</v>
       </c>
       <c r="J115" s="3" t="s">
-        <v>1015</v>
+        <v>1020</v>
       </c>
       <c r="K115" s="3" t="s">
         <v>766</v>
       </c>
       <c r="L115" s="3" t="s">
-        <v>1016</v>
+        <v>1021</v>
       </c>
       <c r="M115" s="3" t="s">
-        <v>1017</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="116" spans="2:13">
@@ -22604,25 +22668,25 @@
         <v>265</v>
       </c>
       <c r="F116" s="3" t="s">
-        <v>1018</v>
+        <v>1023</v>
       </c>
       <c r="G116" s="3" t="s">
         <v>766</v>
       </c>
       <c r="H116" s="3" t="s">
-        <v>1019</v>
+        <v>1024</v>
       </c>
       <c r="I116" s="3" t="s">
-        <v>1020</v>
+        <v>1025</v>
       </c>
       <c r="J116" s="3" t="s">
-        <v>1021</v>
+        <v>1026</v>
       </c>
       <c r="K116" s="3" t="s">
-        <v>1022</v>
+        <v>1027</v>
       </c>
       <c r="L116" s="3" t="s">
-        <v>1023</v>
+        <v>1028</v>
       </c>
       <c r="M116" s="3" t="s">
         <v>761</v>
@@ -22639,19 +22703,19 @@
         <v>394</v>
       </c>
       <c r="H117" s="3" t="s">
-        <v>1024</v>
+        <v>1029</v>
       </c>
       <c r="I117" s="3" t="s">
-        <v>1025</v>
+        <v>1030</v>
       </c>
       <c r="J117" s="3" t="s">
-        <v>1026</v>
+        <v>1031</v>
       </c>
       <c r="K117" s="3" t="s">
-        <v>1027</v>
+        <v>1032</v>
       </c>
       <c r="L117" s="3" t="s">
-        <v>1028</v>
+        <v>1033</v>
       </c>
       <c r="M117" s="3" t="s">
         <v>568</v>
@@ -22662,28 +22726,28 @@
         <v>269</v>
       </c>
       <c r="F118" s="3" t="s">
-        <v>925</v>
+        <v>930</v>
       </c>
       <c r="G118" s="3" t="s">
         <v>394</v>
       </c>
       <c r="H118" s="3" t="s">
-        <v>1029</v>
+        <v>1034</v>
       </c>
       <c r="I118" s="3" t="s">
-        <v>1030</v>
+        <v>1035</v>
       </c>
       <c r="J118" s="3" t="s">
         <v>535</v>
       </c>
       <c r="K118" s="3" t="s">
-        <v>1031</v>
+        <v>1036</v>
       </c>
       <c r="L118" s="3" t="s">
-        <v>1032</v>
+        <v>1037</v>
       </c>
       <c r="M118" s="3" t="s">
-        <v>1033</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="119" spans="2:13">
@@ -22691,7 +22755,7 @@
         <v>270</v>
       </c>
       <c r="F119" s="3" t="s">
-        <v>1034</v>
+        <v>1039</v>
       </c>
       <c r="G119" s="3" t="s">
         <v>569</v>
@@ -22700,19 +22764,19 @@
         <v>374</v>
       </c>
       <c r="I119" s="3" t="s">
-        <v>1035</v>
+        <v>1040</v>
       </c>
       <c r="J119" s="3" t="s">
-        <v>1036</v>
+        <v>1041</v>
       </c>
       <c r="K119" s="3" t="s">
-        <v>1037</v>
+        <v>1042</v>
       </c>
       <c r="L119" s="3" t="s">
-        <v>1038</v>
+        <v>1043</v>
       </c>
       <c r="M119" s="3" t="s">
-        <v>1039</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="120" spans="2:13">
@@ -22720,10 +22784,10 @@
         <v>272</v>
       </c>
       <c r="F120" s="3" t="s">
-        <v>1040</v>
+        <v>1045</v>
       </c>
       <c r="G120" s="3" t="s">
-        <v>1041</v>
+        <v>1046</v>
       </c>
       <c r="H120" s="3" t="s">
         <v>717</v>
@@ -22732,16 +22796,16 @@
         <v>626</v>
       </c>
       <c r="J120" s="3" t="s">
-        <v>1042</v>
+        <v>1047</v>
       </c>
       <c r="K120" s="3" t="s">
-        <v>1043</v>
+        <v>1048</v>
       </c>
       <c r="L120" s="3" t="s">
-        <v>1044</v>
+        <v>1049</v>
       </c>
       <c r="M120" s="3" t="s">
-        <v>1045</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="121" spans="2:13">
@@ -22749,28 +22813,28 @@
         <v>274</v>
       </c>
       <c r="F121" s="3" t="s">
-        <v>932</v>
+        <v>937</v>
       </c>
       <c r="G121" s="3" t="s">
-        <v>1046</v>
+        <v>1051</v>
       </c>
       <c r="H121" s="3" t="s">
-        <v>1047</v>
+        <v>1052</v>
       </c>
       <c r="I121" s="3" t="s">
         <v>344</v>
       </c>
       <c r="J121" s="3" t="s">
-        <v>1048</v>
+        <v>1053</v>
       </c>
       <c r="K121" s="3" t="s">
-        <v>1049</v>
+        <v>1054</v>
       </c>
       <c r="L121" s="3" t="s">
-        <v>1050</v>
+        <v>1055</v>
       </c>
       <c r="M121" s="3" t="s">
-        <v>1051</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="122" spans="2:13">
@@ -22781,25 +22845,25 @@
         <v>380</v>
       </c>
       <c r="G122" s="3" t="s">
-        <v>841</v>
+        <v>846</v>
       </c>
       <c r="H122" s="3" t="s">
         <v>602</v>
       </c>
       <c r="I122" s="3" t="s">
-        <v>1052</v>
+        <v>1057</v>
       </c>
       <c r="J122" s="3" t="s">
-        <v>1053</v>
+        <v>1058</v>
       </c>
       <c r="K122" s="3" t="s">
-        <v>1054</v>
+        <v>1059</v>
       </c>
       <c r="L122" s="3" t="s">
-        <v>1055</v>
+        <v>1060</v>
       </c>
       <c r="M122" s="3" t="s">
-        <v>1056</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="123" spans="2:13">
@@ -22810,25 +22874,25 @@
         <v>319</v>
       </c>
       <c r="G123" s="3" t="s">
-        <v>991</v>
+        <v>996</v>
       </c>
       <c r="H123" s="3" t="s">
-        <v>1057</v>
+        <v>1062</v>
       </c>
       <c r="I123" s="3" t="s">
         <v>407</v>
       </c>
       <c r="J123" s="3" t="s">
-        <v>1058</v>
+        <v>1063</v>
       </c>
       <c r="K123" s="3" t="s">
         <v>564</v>
       </c>
       <c r="L123" s="3" t="s">
-        <v>1059</v>
+        <v>1064</v>
       </c>
       <c r="M123" s="3" t="s">
-        <v>1060</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="124" spans="2:13">
@@ -22842,22 +22906,22 @@
         <v>434</v>
       </c>
       <c r="H124" s="3" t="s">
-        <v>1061</v>
+        <v>1066</v>
       </c>
       <c r="I124" s="3" t="s">
-        <v>1062</v>
+        <v>1067</v>
       </c>
       <c r="J124" s="3" t="s">
-        <v>1063</v>
+        <v>1068</v>
       </c>
       <c r="K124" s="3" t="s">
-        <v>1064</v>
+        <v>1069</v>
       </c>
       <c r="L124" s="3" t="s">
-        <v>1065</v>
+        <v>1070</v>
       </c>
       <c r="M124" s="3" t="s">
-        <v>1066</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="125" spans="2:13">
@@ -22865,79 +22929,79 @@
         <v>281</v>
       </c>
       <c r="F125" s="3" t="s">
-        <v>1067</v>
+        <v>1072</v>
       </c>
       <c r="G125" s="3" t="s">
         <v>575</v>
       </c>
       <c r="H125" s="3" t="s">
-        <v>1068</v>
+        <v>1073</v>
       </c>
       <c r="I125" s="3" t="s">
         <v>481</v>
       </c>
       <c r="J125" s="3" t="s">
-        <v>1069</v>
+        <v>1074</v>
       </c>
       <c r="K125" s="3" t="s">
         <v>367</v>
       </c>
       <c r="L125" s="3" t="s">
-        <v>1070</v>
+        <v>1075</v>
       </c>
       <c r="M125" s="3" t="s">
-        <v>1071</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="126" ht="14" spans="6:13">
-      <c r="F126" s="4"/>
-      <c r="G126" s="4"/>
-      <c r="H126" s="4"/>
-      <c r="I126" s="4"/>
-      <c r="J126" s="4"/>
-      <c r="K126" s="4"/>
-      <c r="L126" s="4"/>
-      <c r="M126" s="4"/>
+      <c r="F126" s="5"/>
+      <c r="G126" s="5"/>
+      <c r="H126" s="5"/>
+      <c r="I126" s="5"/>
+      <c r="J126" s="5"/>
+      <c r="K126" s="5"/>
+      <c r="L126" s="5"/>
+      <c r="M126" s="5"/>
     </row>
     <row r="127" ht="14" spans="6:13">
-      <c r="F127" s="4"/>
-      <c r="G127" s="4"/>
-      <c r="H127" s="4"/>
-      <c r="I127" s="4"/>
-      <c r="J127" s="4"/>
-      <c r="K127" s="4"/>
-      <c r="L127" s="4"/>
-      <c r="M127" s="4"/>
+      <c r="F127" s="5"/>
+      <c r="G127" s="5"/>
+      <c r="H127" s="5"/>
+      <c r="I127" s="5"/>
+      <c r="J127" s="5"/>
+      <c r="K127" s="5"/>
+      <c r="L127" s="5"/>
+      <c r="M127" s="5"/>
     </row>
     <row r="128" ht="14" spans="6:13">
-      <c r="F128" s="4"/>
-      <c r="G128" s="4"/>
-      <c r="H128" s="4"/>
-      <c r="I128" s="4"/>
-      <c r="J128" s="4"/>
-      <c r="K128" s="4"/>
-      <c r="L128" s="4"/>
-      <c r="M128" s="4"/>
+      <c r="F128" s="5"/>
+      <c r="G128" s="5"/>
+      <c r="H128" s="5"/>
+      <c r="I128" s="5"/>
+      <c r="J128" s="5"/>
+      <c r="K128" s="5"/>
+      <c r="L128" s="5"/>
+      <c r="M128" s="5"/>
     </row>
     <row r="151" ht="14" spans="6:13">
-      <c r="F151" s="5"/>
-      <c r="G151" s="5"/>
-      <c r="H151" s="5"/>
-      <c r="I151" s="5"/>
-      <c r="J151" s="5"/>
-      <c r="K151" s="5"/>
-      <c r="L151" s="5"/>
-      <c r="M151" s="5"/>
+      <c r="F151" s="6"/>
+      <c r="G151" s="6"/>
+      <c r="H151" s="6"/>
+      <c r="I151" s="6"/>
+      <c r="J151" s="6"/>
+      <c r="K151" s="6"/>
+      <c r="L151" s="6"/>
+      <c r="M151" s="6"/>
     </row>
     <row r="152" ht="14" spans="6:13">
-      <c r="F152" s="5"/>
-      <c r="G152" s="5"/>
-      <c r="H152" s="5"/>
-      <c r="I152" s="5"/>
-      <c r="J152" s="5"/>
-      <c r="K152" s="5"/>
-      <c r="L152" s="5"/>
-      <c r="M152" s="5"/>
+      <c r="F152" s="6"/>
+      <c r="G152" s="6"/>
+      <c r="H152" s="6"/>
+      <c r="I152" s="6"/>
+      <c r="J152" s="6"/>
+      <c r="K152" s="6"/>
+      <c r="L152" s="6"/>
+      <c r="M152" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Doc/ExcelConfig/Datas/dota/BuildingLevelUpConfig.xlsx
+++ b/Doc/ExcelConfig/Datas/dota/BuildingLevelUpConfig.xlsx
@@ -3883,7 +3883,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3893,7 +3893,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -4284,8 +4283,8 @@
   <sheetPr/>
   <dimension ref="A1:L496"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C294" workbookViewId="0">
-      <selection activeCell="K313" sqref="K313:L316"/>
+    <sheetView tabSelected="1" topLeftCell="A332" workbookViewId="0">
+      <selection activeCell="F339" sqref="F339"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -4313,47 +4312,47 @@
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="13" t="s">
+      <c r="D1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="13" t="s">
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
     </row>
     <row r="3" ht="15" spans="1:12">
       <c r="A3" t="s">
@@ -4371,16 +4370,16 @@
       <c r="H3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="14" t="s">
+      <c r="I3" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="J3" s="15" t="s">
+      <c r="J3" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="K3" s="16" t="s">
+      <c r="K3" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="L3" s="16" t="s">
+      <c r="L3" s="15" t="s">
         <v>20</v>
       </c>
     </row>
@@ -4394,10 +4393,10 @@
       <c r="C4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="7" t="s">
         <v>24</v>
       </c>
       <c r="F4" t="s">
@@ -4409,16 +4408,16 @@
       <c r="H4" t="s">
         <v>27</v>
       </c>
-      <c r="I4" s="14" t="s">
+      <c r="I4" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="J4" s="17" t="s">
+      <c r="J4" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="K4" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="L4" s="19" t="s">
+      <c r="K4" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="L4" s="18" t="s">
         <v>31</v>
       </c>
     </row>
@@ -21626,22 +21625,22 @@
       <c r="F80" s="3" t="s">
         <v>808</v>
       </c>
-      <c r="G80" s="4" t="s">
+      <c r="G80" s="3" t="s">
         <v>433</v>
       </c>
       <c r="H80" s="3" t="s">
         <v>535</v>
       </c>
-      <c r="I80" s="4" t="s">
+      <c r="I80" s="3" t="s">
         <v>453</v>
       </c>
-      <c r="J80" s="4" t="s">
+      <c r="J80" s="3" t="s">
         <v>809</v>
       </c>
-      <c r="K80" s="4" t="s">
+      <c r="K80" s="3" t="s">
         <v>810</v>
       </c>
-      <c r="L80" s="4" t="s">
+      <c r="L80" s="3" t="s">
         <v>811</v>
       </c>
       <c r="M80" s="3" t="s">
@@ -22954,54 +22953,54 @@
       </c>
     </row>
     <row r="126" ht="14" spans="6:13">
-      <c r="F126" s="5"/>
-      <c r="G126" s="5"/>
-      <c r="H126" s="5"/>
-      <c r="I126" s="5"/>
-      <c r="J126" s="5"/>
-      <c r="K126" s="5"/>
-      <c r="L126" s="5"/>
-      <c r="M126" s="5"/>
+      <c r="F126" s="4"/>
+      <c r="G126" s="4"/>
+      <c r="H126" s="4"/>
+      <c r="I126" s="4"/>
+      <c r="J126" s="4"/>
+      <c r="K126" s="4"/>
+      <c r="L126" s="4"/>
+      <c r="M126" s="4"/>
     </row>
     <row r="127" ht="14" spans="6:13">
-      <c r="F127" s="5"/>
-      <c r="G127" s="5"/>
-      <c r="H127" s="5"/>
-      <c r="I127" s="5"/>
-      <c r="J127" s="5"/>
-      <c r="K127" s="5"/>
-      <c r="L127" s="5"/>
-      <c r="M127" s="5"/>
+      <c r="F127" s="4"/>
+      <c r="G127" s="4"/>
+      <c r="H127" s="4"/>
+      <c r="I127" s="4"/>
+      <c r="J127" s="4"/>
+      <c r="K127" s="4"/>
+      <c r="L127" s="4"/>
+      <c r="M127" s="4"/>
     </row>
     <row r="128" ht="14" spans="6:13">
-      <c r="F128" s="5"/>
-      <c r="G128" s="5"/>
-      <c r="H128" s="5"/>
-      <c r="I128" s="5"/>
-      <c r="J128" s="5"/>
-      <c r="K128" s="5"/>
-      <c r="L128" s="5"/>
-      <c r="M128" s="5"/>
+      <c r="F128" s="4"/>
+      <c r="G128" s="4"/>
+      <c r="H128" s="4"/>
+      <c r="I128" s="4"/>
+      <c r="J128" s="4"/>
+      <c r="K128" s="4"/>
+      <c r="L128" s="4"/>
+      <c r="M128" s="4"/>
     </row>
     <row r="151" ht="14" spans="6:13">
-      <c r="F151" s="6"/>
-      <c r="G151" s="6"/>
-      <c r="H151" s="6"/>
-      <c r="I151" s="6"/>
-      <c r="J151" s="6"/>
-      <c r="K151" s="6"/>
-      <c r="L151" s="6"/>
-      <c r="M151" s="6"/>
+      <c r="F151" s="5"/>
+      <c r="G151" s="5"/>
+      <c r="H151" s="5"/>
+      <c r="I151" s="5"/>
+      <c r="J151" s="5"/>
+      <c r="K151" s="5"/>
+      <c r="L151" s="5"/>
+      <c r="M151" s="5"/>
     </row>
     <row r="152" ht="14" spans="6:13">
-      <c r="F152" s="6"/>
-      <c r="G152" s="6"/>
-      <c r="H152" s="6"/>
-      <c r="I152" s="6"/>
-      <c r="J152" s="6"/>
-      <c r="K152" s="6"/>
-      <c r="L152" s="6"/>
-      <c r="M152" s="6"/>
+      <c r="F152" s="5"/>
+      <c r="G152" s="5"/>
+      <c r="H152" s="5"/>
+      <c r="I152" s="5"/>
+      <c r="J152" s="5"/>
+      <c r="K152" s="5"/>
+      <c r="L152" s="5"/>
+      <c r="M152" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Doc/ExcelConfig/Datas/dota/BuildingLevelUpConfig.xlsx
+++ b/Doc/ExcelConfig/Datas/dota/BuildingLevelUpConfig.xlsx
@@ -24,12 +24,12 @@
     <t>Id</t>
   </si>
   <si>
-    <t>BindHeroId</t>
-  </si>
-  <si>
     <t>IsValid</t>
   </si>
   <si>
+    <t>BattleScore</t>
+  </si>
+  <si>
     <t>*Bundles</t>
   </si>
   <si>
@@ -45,12 +45,12 @@
     <t>string</t>
   </si>
   <si>
+    <t>bool</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
-    <t>bool</t>
-  </si>
-  <si>
     <t>list,int</t>
   </si>
   <si>
@@ -90,10 +90,10 @@
     <t>主键</t>
   </si>
   <si>
-    <t>绑定单位ID</t>
-  </si>
-  <si>
     <t>是否启用</t>
+  </si>
+  <si>
+    <t>初始战力</t>
   </si>
   <si>
     <t>套装</t>
@@ -3904,7 +3904,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3935,7 +3935,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4306,14 +4305,14 @@
   <dimension ref="A1:M496"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29:E32"/>
+      <selection activeCell="C1" sqref="C$1:C$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="2" max="2" width="36.4545454545455" customWidth="1"/>
-    <col min="3" max="3" width="12.8181818181818" customWidth="1"/>
-    <col min="4" max="4" width="9.54545454545454" customWidth="1"/>
+    <col min="3" max="3" width="9.54545454545454" customWidth="1"/>
+    <col min="4" max="4" width="12.9090909090909" customWidth="1"/>
     <col min="5" max="5" width="28" customWidth="1"/>
     <col min="6" max="6" width="6.54545454545455" customWidth="1"/>
     <col min="7" max="7" width="24.1818181818182" customWidth="1"/>
@@ -4332,7 +4331,7 @@
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="6" t="s">
@@ -4348,11 +4347,11 @@
       <c r="H1" s="7"/>
       <c r="I1" s="7"/>
       <c r="J1" s="7"/>
-      <c r="K1" s="13" t="s">
+      <c r="K1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="8" t="s">
@@ -4361,10 +4360,10 @@
       <c r="B2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="9" t="s">
         <v>10</v>
       </c>
       <c r="E2" s="10" t="s">
@@ -4376,12 +4375,12 @@
       <c r="G2" s="11"/>
       <c r="H2" s="11"/>
       <c r="I2" s="11"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="13" t="s">
+      <c r="J2" s="13"/>
+      <c r="K2" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
     </row>
     <row r="3" ht="15" spans="1:13">
       <c r="A3" t="s">
@@ -4399,16 +4398,16 @@
       <c r="I3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="J3" s="14" t="s">
+      <c r="J3" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="K3" s="15" t="s">
+      <c r="K3" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="L3" s="16" t="s">
+      <c r="L3" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="M3" s="16" t="s">
+      <c r="M3" s="15" t="s">
         <v>22</v>
       </c>
     </row>
@@ -4419,7 +4418,7 @@
       <c r="B4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="11" t="s">
         <v>24</v>
       </c>
       <c r="D4" s="11" t="s">
@@ -4440,16 +4439,16 @@
       <c r="I4" t="s">
         <v>30</v>
       </c>
-      <c r="J4" s="14" t="s">
+      <c r="J4" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="K4" s="17" t="s">
+      <c r="K4" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="L4" s="18" t="s">
+      <c r="L4" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="M4" s="19" t="s">
+      <c r="M4" s="18" t="s">
         <v>34</v>
       </c>
     </row>
@@ -4458,10 +4457,10 @@
         <v>35</v>
       </c>
       <c r="C5">
-        <v>10001</v>
+        <v>1</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="F5">
         <v>2</v>
@@ -4490,7 +4489,7 @@
         <v>special_bonus_imba_attack_speed_30</v>
       </c>
     </row>
-    <row r="6" ht="15" spans="6:13">
+    <row r="6" spans="6:13">
       <c r="F6">
         <v>3</v>
       </c>
@@ -4518,7 +4517,7 @@
         <v>special_bonus_imba_spell_lifesteal_10</v>
       </c>
     </row>
-    <row r="7" ht="15" spans="6:13">
+    <row r="7" spans="6:13">
       <c r="F7">
         <v>4</v>
       </c>
@@ -4546,7 +4545,7 @@
         <v>special_bonus_imba_abaddon_6</v>
       </c>
     </row>
-    <row r="8" ht="15" spans="6:13">
+    <row r="8" spans="6:13">
       <c r="F8">
         <v>5</v>
       </c>
@@ -4579,12 +4578,12 @@
         <v>38</v>
       </c>
       <c r="C9">
-        <v>10002</v>
+        <v>1</v>
       </c>
       <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9" s="12"/>
+        <v>210</v>
+      </c>
+      <c r="E9" s="3"/>
       <c r="F9">
         <v>2</v>
       </c>
@@ -4704,10 +4703,10 @@
         <v>39</v>
       </c>
       <c r="C13">
-        <v>10003</v>
+        <v>1</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>220</v>
       </c>
       <c r="F13">
         <v>2</v>
@@ -4828,10 +4827,10 @@
         <v>43</v>
       </c>
       <c r="C17">
-        <v>10004</v>
+        <v>1</v>
       </c>
       <c r="D17">
-        <v>1</v>
+        <v>230</v>
       </c>
       <c r="F17">
         <v>2</v>
@@ -4952,10 +4951,10 @@
         <v>44</v>
       </c>
       <c r="C21">
-        <v>10005</v>
+        <v>1</v>
       </c>
       <c r="D21">
-        <v>1</v>
+        <v>240</v>
       </c>
       <c r="F21">
         <v>2</v>
@@ -5076,10 +5075,10 @@
         <v>49</v>
       </c>
       <c r="C25">
-        <v>10006</v>
+        <v>1</v>
       </c>
       <c r="D25">
-        <v>1</v>
+        <v>250</v>
       </c>
       <c r="F25">
         <v>2</v>
@@ -5200,12 +5199,12 @@
         <v>51</v>
       </c>
       <c r="C29">
-        <v>10007</v>
+        <v>1</v>
       </c>
       <c r="D29">
-        <v>1</v>
-      </c>
-      <c r="E29" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="E29" s="3" t="s">
         <v>52</v>
       </c>
       <c r="F29">
@@ -5237,7 +5236,7 @@
     </row>
     <row r="30" ht="15" spans="2:13">
       <c r="B30" s="2"/>
-      <c r="E30" s="12" t="s">
+      <c r="E30" s="3" t="s">
         <v>54</v>
       </c>
       <c r="F30">
@@ -5269,7 +5268,7 @@
     </row>
     <row r="31" ht="15" spans="2:13">
       <c r="B31" s="2"/>
-      <c r="E31" s="12" t="s">
+      <c r="E31" s="3" t="s">
         <v>55</v>
       </c>
       <c r="F31">
@@ -5301,7 +5300,7 @@
     </row>
     <row r="32" ht="15" spans="2:13">
       <c r="B32" s="2"/>
-      <c r="E32" s="12" t="s">
+      <c r="E32" s="3" t="s">
         <v>56</v>
       </c>
       <c r="F32">
@@ -5336,10 +5335,10 @@
         <v>58</v>
       </c>
       <c r="C33">
-        <v>10008</v>
+        <v>1</v>
       </c>
       <c r="D33">
-        <v>1</v>
+        <v>210</v>
       </c>
       <c r="F33">
         <v>2</v>
@@ -5460,10 +5459,10 @@
         <v>60</v>
       </c>
       <c r="C37">
-        <v>10009</v>
+        <v>1</v>
       </c>
       <c r="D37">
-        <v>1</v>
+        <v>220</v>
       </c>
       <c r="F37">
         <v>2</v>
@@ -5584,10 +5583,10 @@
         <v>62</v>
       </c>
       <c r="C41">
-        <v>10010</v>
+        <v>1</v>
       </c>
       <c r="D41">
-        <v>1</v>
+        <v>230</v>
       </c>
       <c r="F41">
         <v>2</v>
@@ -5708,10 +5707,10 @@
         <v>66</v>
       </c>
       <c r="C45">
-        <v>10011</v>
+        <v>1</v>
       </c>
       <c r="D45">
-        <v>1</v>
+        <v>240</v>
       </c>
       <c r="F45">
         <v>2</v>
@@ -5832,10 +5831,10 @@
         <v>70</v>
       </c>
       <c r="C49">
-        <v>10012</v>
+        <v>1</v>
       </c>
       <c r="D49">
-        <v>1</v>
+        <v>250</v>
       </c>
       <c r="F49">
         <v>2</v>
@@ -5956,10 +5955,10 @@
         <v>73</v>
       </c>
       <c r="C53">
-        <v>10013</v>
+        <v>1</v>
       </c>
       <c r="D53">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="F53">
         <v>2</v>
@@ -6071,10 +6070,10 @@
         <v>75</v>
       </c>
       <c r="C57">
-        <v>10014</v>
+        <v>1</v>
       </c>
       <c r="D57">
-        <v>1</v>
+        <v>210</v>
       </c>
       <c r="F57">
         <v>2</v>
@@ -6186,10 +6185,10 @@
         <v>77</v>
       </c>
       <c r="C61">
-        <v>10015</v>
+        <v>1</v>
       </c>
       <c r="D61">
-        <v>1</v>
+        <v>220</v>
       </c>
       <c r="F61">
         <v>2</v>
@@ -6301,10 +6300,10 @@
         <v>79</v>
       </c>
       <c r="C65">
-        <v>10016</v>
+        <v>1</v>
       </c>
       <c r="D65">
-        <v>1</v>
+        <v>230</v>
       </c>
       <c r="F65">
         <v>2</v>
@@ -6416,10 +6415,10 @@
         <v>81</v>
       </c>
       <c r="C69">
-        <v>10017</v>
+        <v>1</v>
       </c>
       <c r="D69">
-        <v>1</v>
+        <v>240</v>
       </c>
       <c r="F69">
         <v>2</v>
@@ -6531,10 +6530,10 @@
         <v>83</v>
       </c>
       <c r="C73">
-        <v>10018</v>
+        <v>1</v>
       </c>
       <c r="D73">
-        <v>1</v>
+        <v>250</v>
       </c>
       <c r="F73">
         <v>2</v>
@@ -6646,10 +6645,10 @@
         <v>85</v>
       </c>
       <c r="C77">
-        <v>10019</v>
+        <v>1</v>
       </c>
       <c r="D77">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="F77">
         <v>2</v>
@@ -6761,10 +6760,10 @@
         <v>87</v>
       </c>
       <c r="C81">
-        <v>10020</v>
+        <v>1</v>
       </c>
       <c r="D81">
-        <v>1</v>
+        <v>210</v>
       </c>
       <c r="F81">
         <v>2</v>
@@ -6876,10 +6875,10 @@
         <v>89</v>
       </c>
       <c r="C85">
-        <v>10021</v>
+        <v>1</v>
       </c>
       <c r="D85">
-        <v>1</v>
+        <v>220</v>
       </c>
       <c r="F85">
         <v>2</v>
@@ -6991,10 +6990,10 @@
         <v>91</v>
       </c>
       <c r="C89">
-        <v>10022</v>
+        <v>1</v>
       </c>
       <c r="D89">
-        <v>1</v>
+        <v>230</v>
       </c>
       <c r="F89">
         <v>2</v>
@@ -7106,10 +7105,10 @@
         <v>93</v>
       </c>
       <c r="C93">
-        <v>10023</v>
+        <v>1</v>
       </c>
       <c r="D93">
-        <v>1</v>
+        <v>240</v>
       </c>
       <c r="F93">
         <v>2</v>
@@ -7221,10 +7220,10 @@
         <v>95</v>
       </c>
       <c r="C97">
-        <v>10024</v>
+        <v>1</v>
       </c>
       <c r="D97">
-        <v>1</v>
+        <v>250</v>
       </c>
       <c r="F97">
         <v>2</v>
@@ -7336,10 +7335,10 @@
         <v>97</v>
       </c>
       <c r="C101">
-        <v>10025</v>
+        <v>1</v>
       </c>
       <c r="D101">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="F101">
         <v>2</v>
@@ -7451,10 +7450,10 @@
         <v>99</v>
       </c>
       <c r="C105">
-        <v>10026</v>
+        <v>1</v>
       </c>
       <c r="D105">
-        <v>1</v>
+        <v>210</v>
       </c>
       <c r="F105">
         <v>2</v>
@@ -7566,10 +7565,10 @@
         <v>101</v>
       </c>
       <c r="C109">
-        <v>10027</v>
+        <v>1</v>
       </c>
       <c r="D109">
-        <v>1</v>
+        <v>220</v>
       </c>
       <c r="F109">
         <v>2</v>
@@ -7681,10 +7680,10 @@
         <v>103</v>
       </c>
       <c r="C113">
-        <v>10028</v>
+        <v>1</v>
       </c>
       <c r="D113">
-        <v>1</v>
+        <v>230</v>
       </c>
       <c r="F113">
         <v>2</v>
@@ -7796,10 +7795,10 @@
         <v>105</v>
       </c>
       <c r="C117">
-        <v>10029</v>
+        <v>1</v>
       </c>
       <c r="D117">
-        <v>1</v>
+        <v>240</v>
       </c>
       <c r="F117">
         <v>2</v>
@@ -7911,10 +7910,10 @@
         <v>107</v>
       </c>
       <c r="C121">
-        <v>10030</v>
+        <v>1</v>
       </c>
       <c r="D121">
-        <v>1</v>
+        <v>250</v>
       </c>
       <c r="F121">
         <v>2</v>
@@ -8026,10 +8025,10 @@
         <v>109</v>
       </c>
       <c r="C125">
-        <v>10031</v>
+        <v>1</v>
       </c>
       <c r="D125">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="F125">
         <v>2</v>
@@ -8141,10 +8140,10 @@
         <v>111</v>
       </c>
       <c r="C129">
-        <v>10032</v>
+        <v>1</v>
       </c>
       <c r="D129">
-        <v>1</v>
+        <v>210</v>
       </c>
       <c r="F129">
         <v>2</v>
@@ -8256,10 +8255,10 @@
         <v>113</v>
       </c>
       <c r="C133">
-        <v>10033</v>
+        <v>1</v>
       </c>
       <c r="D133">
-        <v>1</v>
+        <v>220</v>
       </c>
       <c r="F133">
         <v>2</v>
@@ -8371,10 +8370,10 @@
         <v>115</v>
       </c>
       <c r="C137">
-        <v>10034</v>
+        <v>1</v>
       </c>
       <c r="D137">
-        <v>1</v>
+        <v>230</v>
       </c>
       <c r="F137">
         <v>2</v>
@@ -8486,10 +8485,10 @@
         <v>117</v>
       </c>
       <c r="C141">
-        <v>10035</v>
+        <v>1</v>
       </c>
       <c r="D141">
-        <v>1</v>
+        <v>240</v>
       </c>
       <c r="F141">
         <v>2</v>
@@ -8601,10 +8600,10 @@
         <v>119</v>
       </c>
       <c r="C145">
-        <v>10036</v>
+        <v>1</v>
       </c>
       <c r="D145">
-        <v>1</v>
+        <v>250</v>
       </c>
       <c r="F145">
         <v>2</v>
@@ -8716,10 +8715,10 @@
         <v>121</v>
       </c>
       <c r="C149">
-        <v>10037</v>
+        <v>1</v>
       </c>
       <c r="D149">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="F149">
         <v>2</v>
@@ -8831,10 +8830,10 @@
         <v>123</v>
       </c>
       <c r="C153">
-        <v>10038</v>
+        <v>1</v>
       </c>
       <c r="D153">
-        <v>1</v>
+        <v>210</v>
       </c>
       <c r="F153">
         <v>2</v>
@@ -8946,10 +8945,10 @@
         <v>125</v>
       </c>
       <c r="C157">
-        <v>10039</v>
+        <v>1</v>
       </c>
       <c r="D157">
-        <v>1</v>
+        <v>220</v>
       </c>
       <c r="F157">
         <v>2</v>
@@ -9061,10 +9060,10 @@
         <v>127</v>
       </c>
       <c r="C161">
-        <v>10040</v>
+        <v>1</v>
       </c>
       <c r="D161">
-        <v>1</v>
+        <v>230</v>
       </c>
       <c r="F161">
         <v>2</v>
@@ -9176,10 +9175,10 @@
         <v>129</v>
       </c>
       <c r="C165">
-        <v>10041</v>
+        <v>1</v>
       </c>
       <c r="D165">
-        <v>1</v>
+        <v>240</v>
       </c>
       <c r="F165">
         <v>2</v>
@@ -9291,10 +9290,10 @@
         <v>131</v>
       </c>
       <c r="C169">
-        <v>10042</v>
+        <v>1</v>
       </c>
       <c r="D169">
-        <v>1</v>
+        <v>250</v>
       </c>
       <c r="F169">
         <v>2</v>
@@ -9406,10 +9405,10 @@
         <v>133</v>
       </c>
       <c r="C173">
-        <v>10043</v>
+        <v>1</v>
       </c>
       <c r="D173">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="F173">
         <v>2</v>
@@ -9521,10 +9520,10 @@
         <v>135</v>
       </c>
       <c r="C177">
-        <v>10044</v>
+        <v>1</v>
       </c>
       <c r="D177">
-        <v>1</v>
+        <v>210</v>
       </c>
       <c r="F177">
         <v>2</v>
@@ -9636,10 +9635,10 @@
         <v>137</v>
       </c>
       <c r="C181">
-        <v>10045</v>
+        <v>1</v>
       </c>
       <c r="D181">
-        <v>1</v>
+        <v>220</v>
       </c>
       <c r="F181">
         <v>2</v>
@@ -9751,10 +9750,10 @@
         <v>139</v>
       </c>
       <c r="C185">
-        <v>10046</v>
+        <v>1</v>
       </c>
       <c r="D185">
-        <v>1</v>
+        <v>230</v>
       </c>
       <c r="F185">
         <v>2</v>
@@ -9866,10 +9865,10 @@
         <v>141</v>
       </c>
       <c r="C189">
-        <v>10047</v>
+        <v>1</v>
       </c>
       <c r="D189">
-        <v>1</v>
+        <v>240</v>
       </c>
       <c r="F189">
         <v>2</v>
@@ -9981,10 +9980,10 @@
         <v>143</v>
       </c>
       <c r="C193">
-        <v>10048</v>
+        <v>1</v>
       </c>
       <c r="D193">
-        <v>1</v>
+        <v>250</v>
       </c>
       <c r="F193">
         <v>2</v>
@@ -10096,10 +10095,10 @@
         <v>145</v>
       </c>
       <c r="C197">
-        <v>10049</v>
+        <v>1</v>
       </c>
       <c r="D197">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="F197">
         <v>2</v>
@@ -10211,10 +10210,10 @@
         <v>147</v>
       </c>
       <c r="C201">
-        <v>10050</v>
+        <v>1</v>
       </c>
       <c r="D201">
-        <v>1</v>
+        <v>210</v>
       </c>
       <c r="F201">
         <v>2</v>
@@ -10326,10 +10325,10 @@
         <v>149</v>
       </c>
       <c r="C205">
-        <v>10051</v>
+        <v>1</v>
       </c>
       <c r="D205">
-        <v>1</v>
+        <v>220</v>
       </c>
       <c r="F205">
         <v>2</v>
@@ -10441,10 +10440,10 @@
         <v>151</v>
       </c>
       <c r="C209">
-        <v>10052</v>
+        <v>1</v>
       </c>
       <c r="D209">
-        <v>1</v>
+        <v>230</v>
       </c>
       <c r="F209">
         <v>2</v>
@@ -10556,10 +10555,10 @@
         <v>153</v>
       </c>
       <c r="C213">
-        <v>10053</v>
+        <v>1</v>
       </c>
       <c r="D213">
-        <v>1</v>
+        <v>240</v>
       </c>
       <c r="F213">
         <v>2</v>
@@ -10671,10 +10670,10 @@
         <v>155</v>
       </c>
       <c r="C217">
-        <v>10054</v>
+        <v>1</v>
       </c>
       <c r="D217">
-        <v>1</v>
+        <v>250</v>
       </c>
       <c r="F217">
         <v>2</v>
@@ -10786,10 +10785,10 @@
         <v>157</v>
       </c>
       <c r="C221">
-        <v>10055</v>
+        <v>1</v>
       </c>
       <c r="D221">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="F221">
         <v>2</v>
@@ -10901,10 +10900,10 @@
         <v>159</v>
       </c>
       <c r="C225">
-        <v>10056</v>
+        <v>1</v>
       </c>
       <c r="D225">
-        <v>1</v>
+        <v>210</v>
       </c>
       <c r="F225">
         <v>2</v>
@@ -11016,10 +11015,10 @@
         <v>161</v>
       </c>
       <c r="C229">
-        <v>10057</v>
+        <v>1</v>
       </c>
       <c r="D229">
-        <v>1</v>
+        <v>220</v>
       </c>
       <c r="F229">
         <v>2</v>
@@ -11096,10 +11095,10 @@
         <v>162</v>
       </c>
       <c r="C233">
-        <v>10058</v>
+        <v>1</v>
       </c>
       <c r="D233">
-        <v>1</v>
+        <v>230</v>
       </c>
       <c r="F233">
         <v>2</v>
@@ -11211,10 +11210,10 @@
         <v>164</v>
       </c>
       <c r="C237">
-        <v>10059</v>
+        <v>1</v>
       </c>
       <c r="D237">
-        <v>1</v>
+        <v>240</v>
       </c>
       <c r="F237">
         <v>2</v>
@@ -11326,10 +11325,10 @@
         <v>166</v>
       </c>
       <c r="C241">
-        <v>10060</v>
+        <v>1</v>
       </c>
       <c r="D241">
-        <v>1</v>
+        <v>250</v>
       </c>
       <c r="F241">
         <v>2</v>
@@ -11441,10 +11440,10 @@
         <v>168</v>
       </c>
       <c r="C245">
-        <v>10061</v>
+        <v>1</v>
       </c>
       <c r="D245">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="F245">
         <v>2</v>
@@ -11556,10 +11555,10 @@
         <v>170</v>
       </c>
       <c r="C249">
-        <v>10062</v>
+        <v>1</v>
       </c>
       <c r="D249">
-        <v>1</v>
+        <v>210</v>
       </c>
       <c r="F249">
         <v>2</v>
@@ -11671,10 +11670,10 @@
         <v>172</v>
       </c>
       <c r="C253">
-        <v>10063</v>
+        <v>1</v>
       </c>
       <c r="D253">
-        <v>1</v>
+        <v>220</v>
       </c>
       <c r="F253">
         <v>2</v>
@@ -11786,10 +11785,10 @@
         <v>174</v>
       </c>
       <c r="C257">
-        <v>10064</v>
+        <v>1</v>
       </c>
       <c r="D257">
-        <v>1</v>
+        <v>230</v>
       </c>
       <c r="F257">
         <v>2</v>
@@ -11901,10 +11900,10 @@
         <v>176</v>
       </c>
       <c r="C261">
-        <v>10065</v>
+        <v>1</v>
       </c>
       <c r="D261">
-        <v>1</v>
+        <v>240</v>
       </c>
       <c r="F261">
         <v>2</v>
@@ -12016,10 +12015,10 @@
         <v>178</v>
       </c>
       <c r="C265">
-        <v>10066</v>
+        <v>1</v>
       </c>
       <c r="D265">
-        <v>1</v>
+        <v>250</v>
       </c>
       <c r="F265">
         <v>2</v>
@@ -12131,10 +12130,10 @@
         <v>180</v>
       </c>
       <c r="C269">
-        <v>10067</v>
+        <v>1</v>
       </c>
       <c r="D269">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="F269">
         <v>2</v>
@@ -12246,10 +12245,10 @@
         <v>182</v>
       </c>
       <c r="C273">
-        <v>10068</v>
+        <v>1</v>
       </c>
       <c r="D273">
-        <v>1</v>
+        <v>210</v>
       </c>
       <c r="F273">
         <v>2</v>
@@ -12361,10 +12360,10 @@
         <v>184</v>
       </c>
       <c r="C277">
-        <v>10069</v>
+        <v>1</v>
       </c>
       <c r="D277">
-        <v>1</v>
+        <v>220</v>
       </c>
       <c r="F277">
         <v>2</v>
@@ -12476,10 +12475,10 @@
         <v>186</v>
       </c>
       <c r="C281">
-        <v>10070</v>
+        <v>1</v>
       </c>
       <c r="D281">
-        <v>1</v>
+        <v>230</v>
       </c>
       <c r="F281">
         <v>2</v>
@@ -12591,10 +12590,10 @@
         <v>188</v>
       </c>
       <c r="C285">
-        <v>10071</v>
+        <v>1</v>
       </c>
       <c r="D285">
-        <v>1</v>
+        <v>240</v>
       </c>
       <c r="F285">
         <v>2</v>
@@ -12706,10 +12705,10 @@
         <v>190</v>
       </c>
       <c r="C289">
-        <v>10072</v>
+        <v>1</v>
       </c>
       <c r="D289">
-        <v>1</v>
+        <v>250</v>
       </c>
       <c r="F289">
         <v>2</v>
@@ -12821,10 +12820,10 @@
         <v>192</v>
       </c>
       <c r="C293">
-        <v>10073</v>
+        <v>1</v>
       </c>
       <c r="D293">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="F293">
         <v>2</v>
@@ -12936,10 +12935,10 @@
         <v>194</v>
       </c>
       <c r="C297">
-        <v>10074</v>
+        <v>1</v>
       </c>
       <c r="D297">
-        <v>1</v>
+        <v>210</v>
       </c>
       <c r="F297">
         <v>2</v>
@@ -13051,10 +13050,10 @@
         <v>196</v>
       </c>
       <c r="C301">
-        <v>10075</v>
+        <v>1</v>
       </c>
       <c r="D301">
-        <v>1</v>
+        <v>220</v>
       </c>
       <c r="F301">
         <v>2</v>
@@ -13166,10 +13165,10 @@
         <v>198</v>
       </c>
       <c r="C305">
-        <v>10076</v>
+        <v>1</v>
       </c>
       <c r="D305">
-        <v>1</v>
+        <v>230</v>
       </c>
       <c r="F305">
         <v>2</v>
@@ -13281,10 +13280,10 @@
         <v>200</v>
       </c>
       <c r="C309">
-        <v>10077</v>
+        <v>1</v>
       </c>
       <c r="D309">
-        <v>1</v>
+        <v>240</v>
       </c>
       <c r="F309">
         <v>2</v>
@@ -13361,10 +13360,10 @@
         <v>201</v>
       </c>
       <c r="C313">
-        <v>10078</v>
+        <v>1</v>
       </c>
       <c r="D313">
-        <v>1</v>
+        <v>250</v>
       </c>
       <c r="F313">
         <v>2</v>
@@ -13476,10 +13475,10 @@
         <v>203</v>
       </c>
       <c r="C317">
-        <v>10079</v>
+        <v>1</v>
       </c>
       <c r="D317">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="F317">
         <v>2</v>
@@ -13591,10 +13590,10 @@
         <v>205</v>
       </c>
       <c r="C321">
-        <v>10080</v>
+        <v>1</v>
       </c>
       <c r="D321">
-        <v>1</v>
+        <v>210</v>
       </c>
       <c r="F321">
         <v>2</v>
@@ -13706,10 +13705,10 @@
         <v>207</v>
       </c>
       <c r="C325">
-        <v>10081</v>
+        <v>1</v>
       </c>
       <c r="D325">
-        <v>1</v>
+        <v>220</v>
       </c>
       <c r="F325">
         <v>2</v>
@@ -13821,10 +13820,10 @@
         <v>209</v>
       </c>
       <c r="C329">
-        <v>10082</v>
+        <v>1</v>
       </c>
       <c r="D329">
-        <v>1</v>
+        <v>230</v>
       </c>
       <c r="F329">
         <v>2</v>
@@ -13936,10 +13935,10 @@
         <v>211</v>
       </c>
       <c r="C333">
-        <v>10083</v>
+        <v>1</v>
       </c>
       <c r="D333">
-        <v>1</v>
+        <v>240</v>
       </c>
       <c r="F333">
         <v>2</v>
@@ -14051,10 +14050,10 @@
         <v>213</v>
       </c>
       <c r="C337">
-        <v>10084</v>
+        <v>1</v>
       </c>
       <c r="D337">
-        <v>1</v>
+        <v>250</v>
       </c>
       <c r="F337">
         <v>2</v>
@@ -14166,10 +14165,10 @@
         <v>215</v>
       </c>
       <c r="C341">
-        <v>10085</v>
+        <v>1</v>
       </c>
       <c r="D341">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="F341">
         <v>2</v>
@@ -14281,10 +14280,10 @@
         <v>217</v>
       </c>
       <c r="C345">
-        <v>10086</v>
+        <v>1</v>
       </c>
       <c r="D345">
-        <v>1</v>
+        <v>210</v>
       </c>
       <c r="F345">
         <v>2</v>
@@ -14396,10 +14395,10 @@
         <v>219</v>
       </c>
       <c r="C349">
-        <v>10087</v>
+        <v>1</v>
       </c>
       <c r="D349">
-        <v>1</v>
+        <v>220</v>
       </c>
       <c r="F349">
         <v>2</v>
@@ -14511,10 +14510,10 @@
         <v>221</v>
       </c>
       <c r="C353">
-        <v>10088</v>
+        <v>1</v>
       </c>
       <c r="D353">
-        <v>1</v>
+        <v>230</v>
       </c>
       <c r="F353">
         <v>2</v>
@@ -14626,10 +14625,10 @@
         <v>223</v>
       </c>
       <c r="C357">
-        <v>10089</v>
+        <v>1</v>
       </c>
       <c r="D357">
-        <v>1</v>
+        <v>240</v>
       </c>
       <c r="F357">
         <v>2</v>
@@ -14741,10 +14740,10 @@
         <v>225</v>
       </c>
       <c r="C361">
-        <v>10090</v>
+        <v>1</v>
       </c>
       <c r="D361">
-        <v>1</v>
+        <v>250</v>
       </c>
       <c r="F361">
         <v>2</v>
@@ -14856,10 +14855,10 @@
         <v>227</v>
       </c>
       <c r="C365">
-        <v>10091</v>
+        <v>1</v>
       </c>
       <c r="D365">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="F365">
         <v>2</v>
@@ -14971,10 +14970,10 @@
         <v>229</v>
       </c>
       <c r="C369">
-        <v>10092</v>
+        <v>1</v>
       </c>
       <c r="D369">
-        <v>1</v>
+        <v>210</v>
       </c>
       <c r="F369">
         <v>2</v>
@@ -15086,10 +15085,10 @@
         <v>231</v>
       </c>
       <c r="C373">
-        <v>10093</v>
+        <v>1</v>
       </c>
       <c r="D373">
-        <v>1</v>
+        <v>220</v>
       </c>
       <c r="F373">
         <v>2</v>
@@ -15201,10 +15200,10 @@
         <v>233</v>
       </c>
       <c r="C377">
-        <v>10094</v>
+        <v>1</v>
       </c>
       <c r="D377">
-        <v>1</v>
+        <v>230</v>
       </c>
       <c r="F377">
         <v>2</v>
@@ -15316,10 +15315,10 @@
         <v>235</v>
       </c>
       <c r="C381">
-        <v>10095</v>
+        <v>1</v>
       </c>
       <c r="D381">
-        <v>1</v>
+        <v>240</v>
       </c>
       <c r="F381">
         <v>2</v>
@@ -15428,10 +15427,10 @@
         <v>236</v>
       </c>
       <c r="C385">
-        <v>10096</v>
+        <v>1</v>
       </c>
       <c r="D385">
-        <v>1</v>
+        <v>250</v>
       </c>
       <c r="F385">
         <v>2</v>
@@ -15543,10 +15542,10 @@
         <v>238</v>
       </c>
       <c r="C389">
-        <v>10097</v>
+        <v>1</v>
       </c>
       <c r="D389">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="F389">
         <v>2</v>
@@ -15658,10 +15657,10 @@
         <v>240</v>
       </c>
       <c r="C393">
-        <v>10098</v>
+        <v>1</v>
       </c>
       <c r="D393">
-        <v>1</v>
+        <v>210</v>
       </c>
       <c r="F393">
         <v>2</v>
@@ -15773,10 +15772,10 @@
         <v>242</v>
       </c>
       <c r="C397">
-        <v>10099</v>
+        <v>1</v>
       </c>
       <c r="D397">
-        <v>1</v>
+        <v>220</v>
       </c>
       <c r="F397">
         <v>2</v>
@@ -15888,10 +15887,10 @@
         <v>244</v>
       </c>
       <c r="C401">
-        <v>10100</v>
+        <v>1</v>
       </c>
       <c r="D401">
-        <v>1</v>
+        <v>230</v>
       </c>
       <c r="F401">
         <v>2</v>
@@ -16003,10 +16002,10 @@
         <v>246</v>
       </c>
       <c r="C405">
-        <v>10101</v>
+        <v>1</v>
       </c>
       <c r="D405">
-        <v>1</v>
+        <v>240</v>
       </c>
       <c r="F405">
         <v>2</v>
@@ -16118,10 +16117,10 @@
         <v>248</v>
       </c>
       <c r="C409">
-        <v>10102</v>
+        <v>1</v>
       </c>
       <c r="D409">
-        <v>1</v>
+        <v>250</v>
       </c>
       <c r="F409">
         <v>2</v>
@@ -16233,10 +16232,10 @@
         <v>250</v>
       </c>
       <c r="C413">
-        <v>10103</v>
+        <v>1</v>
       </c>
       <c r="D413">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="F413">
         <v>2</v>
@@ -16348,10 +16347,10 @@
         <v>252</v>
       </c>
       <c r="C417">
-        <v>10104</v>
+        <v>1</v>
       </c>
       <c r="D417">
-        <v>1</v>
+        <v>210</v>
       </c>
       <c r="F417">
         <v>2</v>
@@ -16463,10 +16462,10 @@
         <v>254</v>
       </c>
       <c r="C421">
-        <v>10105</v>
+        <v>1</v>
       </c>
       <c r="D421">
-        <v>1</v>
+        <v>220</v>
       </c>
       <c r="F421">
         <v>2</v>
@@ -16578,10 +16577,10 @@
         <v>256</v>
       </c>
       <c r="C425">
-        <v>10106</v>
+        <v>1</v>
       </c>
       <c r="D425">
-        <v>1</v>
+        <v>230</v>
       </c>
       <c r="F425">
         <v>2</v>
@@ -16693,10 +16692,10 @@
         <v>258</v>
       </c>
       <c r="C429">
-        <v>10107</v>
+        <v>1</v>
       </c>
       <c r="D429">
-        <v>1</v>
+        <v>240</v>
       </c>
       <c r="F429">
         <v>2</v>
@@ -16808,10 +16807,10 @@
         <v>260</v>
       </c>
       <c r="C433">
-        <v>10108</v>
+        <v>1</v>
       </c>
       <c r="D433">
-        <v>1</v>
+        <v>250</v>
       </c>
       <c r="F433">
         <v>2</v>
@@ -16923,10 +16922,10 @@
         <v>262</v>
       </c>
       <c r="C437">
-        <v>10109</v>
+        <v>1</v>
       </c>
       <c r="D437">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="F437">
         <v>2</v>
@@ -17038,10 +17037,10 @@
         <v>264</v>
       </c>
       <c r="C441">
-        <v>10110</v>
+        <v>1</v>
       </c>
       <c r="D441">
-        <v>1</v>
+        <v>210</v>
       </c>
       <c r="F441">
         <v>2</v>
@@ -17153,10 +17152,10 @@
         <v>266</v>
       </c>
       <c r="C445">
-        <v>10111</v>
+        <v>1</v>
       </c>
       <c r="D445">
-        <v>1</v>
+        <v>220</v>
       </c>
       <c r="F445">
         <v>2</v>
@@ -17268,10 +17267,10 @@
         <v>268</v>
       </c>
       <c r="C449">
-        <v>10112</v>
+        <v>1</v>
       </c>
       <c r="D449">
-        <v>1</v>
+        <v>230</v>
       </c>
       <c r="F449">
         <v>2</v>
@@ -17383,10 +17382,10 @@
         <v>270</v>
       </c>
       <c r="C453">
-        <v>10113</v>
+        <v>1</v>
       </c>
       <c r="D453">
-        <v>1</v>
+        <v>240</v>
       </c>
       <c r="F453">
         <v>2</v>
@@ -17498,10 +17497,10 @@
         <v>272</v>
       </c>
       <c r="C457">
-        <v>10114</v>
+        <v>1</v>
       </c>
       <c r="D457">
-        <v>1</v>
+        <v>250</v>
       </c>
       <c r="F457">
         <v>2</v>
@@ -17613,10 +17612,10 @@
         <v>274</v>
       </c>
       <c r="C461">
-        <v>10115</v>
+        <v>1</v>
       </c>
       <c r="D461">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="F461">
         <v>2</v>
@@ -17728,10 +17727,10 @@
         <v>276</v>
       </c>
       <c r="C465">
-        <v>10116</v>
+        <v>1</v>
       </c>
       <c r="D465">
-        <v>1</v>
+        <v>210</v>
       </c>
       <c r="F465">
         <v>2</v>
@@ -17840,10 +17839,10 @@
         <v>277</v>
       </c>
       <c r="C469">
-        <v>10117</v>
+        <v>1</v>
       </c>
       <c r="D469">
-        <v>1</v>
+        <v>220</v>
       </c>
       <c r="F469">
         <v>2</v>
@@ -17955,10 +17954,10 @@
         <v>279</v>
       </c>
       <c r="C473">
-        <v>10118</v>
+        <v>1</v>
       </c>
       <c r="D473">
-        <v>1</v>
+        <v>230</v>
       </c>
       <c r="F473">
         <v>2</v>
@@ -18070,10 +18069,10 @@
         <v>281</v>
       </c>
       <c r="C477">
-        <v>10119</v>
+        <v>1</v>
       </c>
       <c r="D477">
-        <v>1</v>
+        <v>240</v>
       </c>
       <c r="F477">
         <v>2</v>
@@ -18185,10 +18184,10 @@
         <v>283</v>
       </c>
       <c r="C481">
-        <v>10120</v>
+        <v>1</v>
       </c>
       <c r="D481">
-        <v>1</v>
+        <v>250</v>
       </c>
       <c r="F481">
         <v>2</v>
@@ -18300,10 +18299,10 @@
         <v>285</v>
       </c>
       <c r="C485">
-        <v>10121</v>
+        <v>1</v>
       </c>
       <c r="D485">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="F485">
         <v>2</v>
@@ -18412,10 +18411,10 @@
         <v>286</v>
       </c>
       <c r="C489">
-        <v>10122</v>
+        <v>1</v>
       </c>
       <c r="D489">
-        <v>1</v>
+        <v>210</v>
       </c>
       <c r="F489">
         <v>2</v>
@@ -18527,10 +18526,10 @@
         <v>288</v>
       </c>
       <c r="C493">
-        <v>10123</v>
+        <v>1</v>
       </c>
       <c r="D493">
-        <v>1</v>
+        <v>220</v>
       </c>
       <c r="F493">
         <v>2</v>
